--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,63 +18,63 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
     <t>600376</t>
   </si>
   <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -99,15 +99,15 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -120,21 +120,21 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
+    <t>cocaine; crack</t>
   </si>
   <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -165,48 +165,48 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
     <t>light blue</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
-    <t>crystals</t>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
   </si>
   <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -222,19 +222,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -506,13 +506,13 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
       </c>
       <c r="AA1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB1" t="s">
         <v>67</v>
@@ -679,22 +679,22 @@
         <v>35</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -709,33 +709,39 @@
         <v>50</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>58</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>69</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
+      <c r="AJ2" s="2">
+        <v>1</v>
+      </c>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="AL2" s="2">
+        <v>1</v>
+      </c>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
         <v>85</v>
@@ -748,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -758,31 +764,31 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -889,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1040,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1070,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1211,19 +1217,19 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1256,10 +1262,10 @@
         <v>51</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1285,15 +1291,17 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1380,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1392,7 +1400,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>45295</v>
+        <v>45357</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
@@ -1401,10 +1409,10 @@
         <v>29</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1416,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1425,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1434,20 +1442,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC6" t="s">
         <v>31</v>
       </c>
@@ -1462,42 +1474,42 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1509,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
         <v>1</v>
@@ -1559,7 +1571,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1574,16 +1586,16 @@
         <v>45294</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1613,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1634,17 +1646,19 @@
       <c r="AC7" t="s">
         <v>71</v>
       </c>
-      <c r="AD7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
       <c r="AI7" s="2">
         <v>1</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
@@ -1665,11 +1679,11 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="2">
         <v>5</v>
@@ -1746,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1758,19 +1772,19 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1782,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1800,95 +1814,85 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -1935,7 +1939,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1956,10 +1960,10 @@
         <v>28</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -1968,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1989,40 +1993,30 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
@@ -2037,20 +2031,20 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AW9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2059,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="2">
         <v>0</v>
@@ -2074,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2136,19 +2130,19 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2178,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2210,17 +2204,15 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2322,16 +2314,16 @@
         <v>45294</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2500,19 +2492,19 @@
         <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2521,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2542,13 +2534,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2558,19 +2550,21 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
+      <c r="AI12" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
@@ -2586,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2596,10 +2590,10 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2608,10 +2602,10 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -2685,31 +2679,31 @@
         <v>25</v>
       </c>
       <c r="F13" s="1">
-        <v>45357</v>
+        <v>45328</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2718,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2727,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -2746,9 +2740,11 @@
         <v>-1</v>
       </c>
       <c r="AC13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2769,26 +2765,26 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -2806,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2868,7 +2864,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="1">
-        <v>45294</v>
+        <v>45329</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2877,10 +2873,10 @@
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2910,24 +2906,30 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD14" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -2948,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45316</v>
+        <v>45336</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -2958,10 +2960,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AW14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -2973,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="2">
         <v>0</v>
@@ -2985,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3046,26 +3048,24 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="1">
-        <v>45329</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3089,30 +3089,24 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3123,36 +3117,34 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45336</v>
+        <v>45310</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3170,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3220,7 +3212,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -3231,24 +3223,26 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>45294</v>
+      </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3272,37 +3266,43 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
@@ -3318,22 +3318,22 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,63 +18,63 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
     <t>600373</t>
   </si>
   <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -99,18 +99,18 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -120,21 +120,21 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -165,48 +165,48 @@
     <t>color</t>
   </si>
   <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
     <t>pink; blue; green</t>
   </si>
   <si>
     <t>light tan</t>
   </si>
   <si>
-    <t>light blue</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -222,19 +222,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -506,13 +506,13 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
       </c>
       <c r="AA1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s">
         <v>67</v>
@@ -679,22 +679,22 @@
         <v>35</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -709,39 +709,33 @@
         <v>50</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
         <v>58</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>69</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
         <v>85</v>
@@ -754,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -764,31 +758,31 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -841,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -853,37 +847,37 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -895,32 +889,40 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1</v>
+      </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
@@ -935,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -945,31 +947,31 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1034,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -1043,22 +1045,22 @@
         <v>29</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1067,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1076,28 +1078,24 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1108,45 +1106,45 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45371</v>
+        <v>45316</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1205,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1226,10 +1224,10 @@
         <v>28</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1259,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1276,11 +1274,9 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1323,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1400,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
@@ -1409,22 +1405,22 @@
         <v>29</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1433,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1442,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1457,13 +1453,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD6" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1484,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1494,22 +1490,22 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1521,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1571,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1582,9 +1578,7 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" t="s">
         <v>30</v>
       </c>
@@ -1592,19 +1586,19 @@
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1625,49 +1619,37 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -1683,22 +1665,22 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1710,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1760,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1772,19 +1754,19 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>45295</v>
+        <v>45357</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1796,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1805,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -1817,19 +1799,23 @@
         <v>53</v>
       </c>
       <c r="U8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1842,42 +1828,42 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -1889,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>1</v>
@@ -1951,7 +1937,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>45294</v>
+        <v>45329</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
@@ -1960,10 +1946,10 @@
         <v>28</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -1993,24 +1979,30 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="AB9" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD9" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2031,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45316</v>
+        <v>45336</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2041,10 +2033,10 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AW9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2056,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="2">
         <v>0</v>
@@ -2068,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2118,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2130,31 +2122,31 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>45323</v>
+        <v>45357</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2163,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2172,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2189,7 +2181,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2204,15 +2196,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>1</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45345</v>
+        <v>45371</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2222,22 +2216,22 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2249,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2311,66 +2305,64 @@
         <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
         <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
-        <v>59</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -2383,10 +2375,10 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
@@ -2399,11 +2391,11 @@
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW11" s="2">
         <v>3</v>
@@ -2415,10 +2407,10 @@
         <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2433,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2492,19 +2484,19 @@
         <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2513,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2534,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -2550,21 +2542,19 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
@@ -2580,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2590,10 +2580,10 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2602,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -2667,7 +2657,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2679,37 +2669,37 @@
         <v>25</v>
       </c>
       <c r="F13" s="1">
-        <v>45328</v>
+        <v>45357</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2721,30 +2711,26 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2771,20 +2757,20 @@
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -2796,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -2852,7 +2838,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2864,19 +2850,19 @@
         <v>25</v>
       </c>
       <c r="F14" s="1">
-        <v>45329</v>
+        <v>45323</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2906,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -2921,11 +2907,9 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -2940,30 +2924,28 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -2972,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3037,7 +3019,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -3048,27 +3030,29 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>45294</v>
+      </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -3089,37 +3073,47 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
       <c r="AC15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
+      <c r="AI15" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
@@ -3131,26 +3125,26 @@
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3162,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3227,34 +3221,34 @@
         <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3266,36 +3260,42 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
         <v>73</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
+      <c r="AL16" s="2">
+        <v>1</v>
+      </c>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
         <v>85</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3318,31 +3318,31 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,60 +18,60 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
     <t>600376</t>
   </si>
   <si>
     <t>600315</t>
   </si>
   <si>
-    <t>600327</t>
-  </si>
-  <si>
     <t>600306</t>
   </si>
   <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
     <t>600345</t>
   </si>
   <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
     <t>600397</t>
   </si>
   <si>
-    <t>600324</t>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600373</t>
   </si>
   <si>
     <t>600468</t>
   </si>
   <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>Carthage</t>
   </si>
   <si>
@@ -99,12 +99,12 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -129,12 +129,12 @@
     <t>cocaine; crack</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -165,21 +165,21 @@
     <t>color</t>
   </si>
   <si>
+    <t>tan; white</t>
+  </si>
+  <si>
     <t>light blue</t>
   </si>
   <si>
-    <t>tan; white</t>
+    <t>white</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
   </si>
   <si>
     <t>light purple</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
     <t>light tan</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>texture</t>
   </si>
   <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
@@ -222,6 +222,9 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>more down; sedating; unusual taste</t>
   </si>
   <si>
@@ -229,9 +232,6 @@
   </si>
   <si>
     <t>normal</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
   </si>
   <si>
     <t>weird; long; more up; unpleasant</t>
@@ -506,7 +506,7 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
@@ -673,7 +673,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -706,32 +706,28 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -748,20 +744,20 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -770,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
         <v>1</v>
       </c>
       <c r="BB2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2" s="2">
         <v>0</v>
@@ -785,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -835,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -850,10 +846,10 @@
         <v>45294</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -889,13 +885,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -908,21 +904,19 @@
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD3" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="2"/>
       <c r="AI3" s="2">
         <v>1</v>
       </c>
-      <c r="AJ3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
@@ -943,11 +937,11 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW3" s="2">
         <v>5</v>
@@ -1045,7 +1039,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>35</v>
@@ -1078,28 +1072,32 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
@@ -1116,20 +1114,20 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1138,13 +1136,13 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1153,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1218,16 +1216,16 @@
         <v>45294</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1236,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1257,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1272,17 +1270,25 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
       <c r="AC5" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
@@ -1307,10 +1313,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1319,10 +1325,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1384,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1405,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>35</v>
@@ -1438,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1455,11 +1461,9 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1502,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1567,7 +1571,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1742,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1796,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -1925,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1940,10 +1944,10 @@
         <v>45329</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1979,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -1998,7 +2002,7 @@
         <v>-1</v>
       </c>
       <c r="AC9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2110,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2122,7 +2126,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>45357</v>
+        <v>45295</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -2134,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2146,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2155,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2167,25 +2171,21 @@
         <v>53</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2206,32 +2206,32 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2305,7 +2305,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>45295</v>
+        <v>45357</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -2314,10 +2314,10 @@
         <v>31</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2347,19 +2347,21 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>30</v>
@@ -2375,57 +2377,57 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2484,7 +2486,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -2526,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2541,11 +2543,9 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -2570,17 +2570,17 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
         <v>3</v>
@@ -2592,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2678,7 +2678,7 @@
         <v>31</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>39</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2711,26 +2711,28 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2741,17 +2743,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -2782,16 +2784,16 @@
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2838,7 +2840,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -2909,7 +2911,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3019,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -3043,25 +3045,25 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3073,40 +3075,42 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
+      <c r="AL15" s="2">
+        <v>1</v>
+      </c>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
         <v>85</v>
@@ -3119,41 +3123,41 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3218,7 +3222,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
@@ -3230,25 +3234,25 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3260,42 +3264,38 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
         <v>85</v>
@@ -3308,26 +3308,26 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45309</v>
+        <v>45372</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -3339,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,51 +18,51 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
     <t>600327</t>
   </si>
   <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
     <t>600336</t>
   </si>
   <si>
-    <t>600376</t>
-  </si>
-  <si>
     <t>600315</t>
   </si>
   <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -99,18 +99,18 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -123,18 +123,18 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -165,48 +165,48 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>tan; white</t>
   </si>
   <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
     <t>powder; shiny</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -222,19 +222,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
     <t>nice; stronger; sedating</t>
   </si>
   <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
     <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -512,7 +512,7 @@
         <v>66</v>
       </c>
       <c r="AA1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s">
         <v>67</v>
@@ -664,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>45294</v>
+        <v>45329</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -673,7 +673,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -706,24 +706,30 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45316</v>
+        <v>45336</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -754,10 +760,10 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AW2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -769,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="2">
         <v>0</v>
@@ -781,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -846,16 +852,16 @@
         <v>45294</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -864,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -885,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -900,22 +906,18 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -937,14 +939,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1018,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1029,9 +1031,7 @@
       <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>29</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>29</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1072,43 +1072,37 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1124,22 +1118,22 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1151,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1201,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1213,19 +1207,19 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1234,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1255,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1271,24 +1265,20 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD5" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
@@ -1303,20 +1293,20 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1325,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1402,37 +1392,37 @@
         <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1444,24 +1434,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -1484,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1494,16 +1484,16 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1515,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1582,7 +1572,9 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>45295</v>
+      </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
@@ -1590,7 +1582,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
@@ -1623,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1638,7 +1630,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -1651,9 +1643,11 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>1</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -1665,26 +1659,26 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1696,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
         <v>1</v>
@@ -1746,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1758,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1770,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1791,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -1800,26 +1794,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1842,35 +1832,35 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -1929,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1941,13 +1931,13 @@
         <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>45329</v>
+        <v>45294</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1983,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -1998,11 +1988,9 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2027,20 +2015,20 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45336</v>
+        <v>45310</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2049,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2126,19 +2114,19 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>45295</v>
+        <v>45357</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2150,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2159,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2168,24 +2156,28 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2206,32 +2198,32 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2243,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>1</v>
@@ -2305,37 +2297,37 @@
         <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2347,24 +2339,24 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -2387,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2397,16 +2389,16 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2418,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2474,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2486,13 +2478,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2528,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2545,7 +2537,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -2560,17 +2552,15 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2657,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2672,16 +2662,16 @@
         <v>45357</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -2711,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2726,13 +2716,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2743,17 +2733,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45371</v>
+        <v>45369</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -2840,7 +2830,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2852,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -2864,25 +2854,25 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2894,47 +2884,55 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="AG14" s="2">
+        <v>1</v>
+      </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
+      <c r="AJ14" s="2">
+        <v>1</v>
+      </c>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
+      <c r="AL14" s="2">
+        <v>1</v>
+      </c>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45345</v>
+        <v>45309</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -2944,31 +2942,31 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
         <v>0</v>
@@ -3021,7 +3019,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -3045,25 +3043,25 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3075,42 +3073,40 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
       <c r="AC15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
         <v>85</v>
@@ -3123,41 +3119,41 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3210,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -3222,19 +3218,19 @@
         <v>25</v>
       </c>
       <c r="F16" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3243,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3270,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3280,20 +3276,24 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -3308,20 +3308,20 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3330,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,63 +18,63 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
     <t>600367</t>
   </si>
   <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Carthage</t>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -102,12 +102,12 @@
     <t>spatula</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>cotton</t>
   </si>
   <si>
@@ -123,6 +123,9 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
@@ -132,9 +135,6 @@
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -165,48 +165,48 @@
     <t>color</t>
   </si>
   <si>
+    <t>light blue</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>light blue</t>
-  </si>
-  <si>
     <t>light tan</t>
   </si>
   <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>pink; blue; green</t>
   </si>
   <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>powder</t>
+    <t>powder; shiny</t>
   </si>
   <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -222,19 +222,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>more down; sedating; unusual taste</t>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
   </si>
   <si>
     <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -506,13 +506,13 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
       </c>
       <c r="AA1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s">
         <v>67</v>
@@ -664,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>45329</v>
+        <v>45294</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -709,7 +709,7 @@
         <v>50</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
         <v>58</v>
@@ -721,19 +721,17 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -750,20 +748,20 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45336</v>
+        <v>45310</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -772,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -837,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -849,13 +847,13 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -894,7 +892,7 @@
         <v>51</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
         <v>59</v>
@@ -910,30 +908,28 @@
       <c r="AC3" t="s">
         <v>70</v>
       </c>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1020,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1031,24 +1027,26 @@
       <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>45328</v>
+      </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1072,24 +1070,30 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD4" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1100,34 +1104,36 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1145,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1195,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1207,7 +1213,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
@@ -1219,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1228,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1249,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1265,19 +1271,21 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
+      <c r="AI5" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
@@ -1293,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1303,10 +1311,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1315,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1380,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1392,66 +1400,66 @@
         <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>50</v>
-      </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -1474,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1484,16 +1492,16 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1505,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1573,28 +1581,28 @@
         <v>25</v>
       </c>
       <c r="F7" s="1">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1618,35 +1626,45 @@
         <v>53</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
       <c r="AC7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
@@ -1659,14 +1677,14 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1693,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1740,7 +1758,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1751,26 +1769,24 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1794,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1809,7 +1825,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1822,45 +1838,43 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -1919,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1943,25 +1957,25 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -1973,36 +1987,42 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
+      <c r="AL9" s="2">
+        <v>1</v>
+      </c>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
         <v>85</v>
@@ -2015,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2025,31 +2045,31 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2102,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2117,13 +2137,13 @@
         <v>45357</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>37</v>
@@ -2144,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2156,28 +2176,26 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2188,17 +2206,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2229,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2285,7 +2303,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2297,31 +2315,31 @@
         <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2330,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2339,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2356,9 +2374,11 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2369,17 +2389,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2389,16 +2409,16 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2416,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2478,13 +2498,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2520,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2537,7 +2557,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -2552,15 +2572,17 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2647,7 +2669,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2659,68 +2681,64 @@
         <v>25</v>
       </c>
       <c r="F13" s="1">
-        <v>45357</v>
+        <v>45295</v>
       </c>
       <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
         <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>62</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -2733,42 +2751,42 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -2780,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
         <v>1</v>
@@ -2851,28 +2869,28 @@
         <v>31</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2884,42 +2902,32 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
         <v>85</v>
@@ -2932,47 +2940,47 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45309</v>
+        <v>45316</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AW14" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3019,7 +3027,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -3031,31 +3039,31 @@
         <v>25</v>
       </c>
       <c r="F15" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3064,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3073,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3089,21 +3097,17 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
@@ -3119,32 +3123,32 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3156,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3206,7 +3210,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -3218,7 +3222,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="1">
-        <v>45294</v>
+        <v>45329</v>
       </c>
       <c r="G16" t="s">
         <v>28</v>
@@ -3230,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3239,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3260,13 +3264,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3276,24 +3280,20 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD16" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -3308,20 +3308,20 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
         <v>5</v>
       </c>
       <c r="AW16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3330,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,63 +18,63 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
     <t>600376</t>
   </si>
   <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
     <t>600317</t>
   </si>
   <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Carthage</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -123,18 +123,18 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -165,48 +165,48 @@
     <t>color</t>
   </si>
   <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>light blue</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
     <t>tan; white</t>
   </si>
   <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
     <t>light purple</t>
   </si>
   <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -222,16 +222,16 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>more down; sedating; unusual taste</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>nice; long; more down; sedating</t>
   </si>
   <si>
     <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
   </si>
   <si>
     <t>weird; long; more up; unpleasant</t>
@@ -506,7 +506,7 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
@@ -664,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -709,7 +709,7 @@
         <v>50</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>58</v>
@@ -721,17 +721,19 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC2" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="2"/>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -748,17 +750,17 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW2" s="2">
         <v>3</v>
@@ -770,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -847,13 +849,13 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>45323</v>
+        <v>45329</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -895,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -904,9 +906,11 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
@@ -921,28 +925,30 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45345</v>
+        <v>45336</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -951,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
@@ -1016,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1028,7 +1034,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -1073,10 +1079,10 @@
         <v>52</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1085,19 +1091,17 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>70</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
@@ -1114,17 +1118,17 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
         <v>3</v>
@@ -1136,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1201,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1213,31 +1217,31 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1246,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1255,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1271,21 +1275,17 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
@@ -1301,32 +1301,32 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1399,26 +1399,24 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1448,13 +1446,11 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -1472,11 +1468,9 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1492,16 +1486,16 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1519,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1569,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1584,16 +1578,16 @@
         <v>45294</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1602,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1623,40 +1617,30 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
@@ -1671,20 +1655,20 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AW7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1693,13 +1677,13 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1708,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1758,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1769,18 +1753,20 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>45357</v>
+      </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1792,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1801,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -1810,24 +1796,28 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD8" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -1838,15 +1828,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1933,7 +1925,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1948,34 +1940,34 @@
         <v>45294</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -1987,42 +1979,42 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
       <c r="AC9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ9" s="2">
         <v>1</v>
       </c>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
         <v>85</v>
@@ -2035,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2045,31 +2037,31 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2122,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2134,7 +2126,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>45357</v>
+        <v>45295</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -2143,10 +2135,10 @@
         <v>29</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2158,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2176,21 +2168,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
         <v>30</v>
@@ -2206,57 +2196,57 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2303,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2324,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2345,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2363,22 +2353,20 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2389,17 +2377,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2430,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2501,13 +2489,13 @@
         <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>35</v>
@@ -2540,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2557,11 +2545,9 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -2604,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -2669,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2681,25 +2667,25 @@
         <v>25</v>
       </c>
       <c r="F13" s="1">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -2729,18 +2715,22 @@
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2751,10 +2741,10 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
@@ -2767,11 +2757,11 @@
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
         <v>3</v>
@@ -2801,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2863,16 +2853,16 @@
         <v>45294</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2881,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -2902,29 +2892,37 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
       <c r="AC14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD14" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
+      <c r="AI14" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -2940,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -2950,10 +2948,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AW14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -2962,13 +2960,13 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
         <v>1</v>
       </c>
       <c r="BB14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="2">
         <v>0</v>
@@ -2977,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3039,16 +3037,16 @@
         <v>25</v>
       </c>
       <c r="F15" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>39</v>
@@ -3069,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3087,30 +3085,36 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
+      <c r="AL15" s="2">
+        <v>1</v>
+      </c>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
         <v>85</v>
@@ -3123,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45369</v>
+        <v>45309</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3133,10 +3137,10 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="2">
         <v>0</v>
@@ -3154,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3222,13 +3226,13 @@
         <v>25</v>
       </c>
       <c r="F16" s="1">
-        <v>45329</v>
+        <v>45323</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -3270,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3279,11 +3283,9 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -3298,30 +3300,28 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3330,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,63 +18,63 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600336</t>
+  </si>
+  <si>
     <t>600468</t>
   </si>
   <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
     <t>600367</t>
   </si>
   <si>
+    <t>600306</t>
+  </si>
+  <si>
     <t>600376</t>
   </si>
   <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
     <t>600384</t>
   </si>
   <si>
+    <t>600317</t>
+  </si>
+  <si>
     <t>600391</t>
   </si>
   <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -105,12 +105,12 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -120,21 +120,21 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -165,45 +165,45 @@
     <t>color</t>
   </si>
   <si>
+    <t>tan; white</t>
+  </si>
+  <si>
     <t>light tan</t>
   </si>
   <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>light blue</t>
   </si>
   <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -222,19 +222,19 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
     <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -506,13 +506,13 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
       </c>
       <c r="AA1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s">
         <v>67</v>
@@ -664,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -722,19 +722,21 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="s">
         <v>69</v>
       </c>
       <c r="AD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -760,10 +762,10 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -772,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -849,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>45329</v>
+        <v>45328</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -861,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -897,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -910,7 +912,7 @@
         <v>-1</v>
       </c>
       <c r="AC3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
@@ -935,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45336</v>
+        <v>45372</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -945,10 +947,10 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1034,25 +1036,25 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1082,36 +1084,32 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
@@ -1124,11 +1122,11 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
         <v>3</v>
@@ -1158,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1205,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1217,19 +1215,19 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1247,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1259,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1269,26 +1267,32 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="AL5" s="2">
+        <v>1</v>
+      </c>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
         <v>85</v>
@@ -1301,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45369</v>
+        <v>45309</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1311,10 +1315,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
         <v>0</v>
@@ -1332,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1388,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1399,27 +1403,29 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>45294</v>
+      </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1440,37 +1446,49 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
       <c r="AC6" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>1</v>
+      </c>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1486,22 +1504,22 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1513,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1578,16 +1596,16 @@
         <v>45294</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1617,24 +1635,28 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1655,20 +1677,20 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1677,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1692,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1742,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1754,31 +1776,31 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>45357</v>
+        <v>45329</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1787,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -1796,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -1811,9 +1833,11 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -1828,36 +1852,36 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45371</v>
+        <v>45336</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -1875,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -1946,10 +1970,10 @@
         <v>28</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -1958,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1979,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -1994,25 +2018,17 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
@@ -2037,10 +2053,10 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2049,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2114,7 +2130,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2126,25 +2142,25 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2168,38 +2184,42 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U10" s="2">
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
@@ -2212,11 +2232,11 @@
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW10" s="2">
         <v>3</v>
@@ -2246,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2293,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2317,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2347,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2364,7 +2384,7 @@
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -2474,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2489,16 +2509,16 @@
         <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2528,24 +2548,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -2568,20 +2586,20 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2593,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -2605,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -2655,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2667,31 +2685,31 @@
         <v>25</v>
       </c>
       <c r="F13" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2700,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2709,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2726,7 +2744,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -2741,17 +2759,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -2761,22 +2779,22 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -2788,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2838,7 +2856,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2850,31 +2868,31 @@
         <v>25</v>
       </c>
       <c r="F14" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -2883,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2898,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2908,21 +2926,17 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -2938,32 +2952,32 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -2975,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3037,37 +3051,37 @@
         <v>25</v>
       </c>
       <c r="F15" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3079,55 +3093,47 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45309</v>
+        <v>45345</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3137,31 +3143,31 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3225,26 +3231,24 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="1">
-        <v>45323</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3268,28 +3272,24 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3300,7 +3300,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3318,22 +3318,22 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,63 +18,63 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
     <t>600336</t>
   </si>
   <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
     <t>600468</t>
   </si>
   <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
     <t>600315</t>
   </si>
   <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
     <t>600345</t>
   </si>
   <si>
-    <t>600367</t>
+    <t>600327</t>
   </si>
   <si>
     <t>600306</t>
   </si>
   <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -99,18 +99,18 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t/>
   </si>
   <si>
     <t>cotton</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -120,18 +120,18 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
@@ -165,48 +165,48 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
     <t>tan; white</t>
   </si>
   <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
     <t>light tan</t>
   </si>
   <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>light purple</t>
   </si>
   <si>
-    <t>light blue</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
     <t>powder; shiny</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder</t>
+    <t>powder; chunky</t>
   </si>
   <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -222,21 +222,21 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
     <t>nice; stronger; sedating</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
     <t>nice; long; more down; sedating</t>
   </si>
   <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -270,10 +270,10 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
     <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
   </si>
   <si>
     <t>od</t>
@@ -506,7 +506,7 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
@@ -664,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -679,16 +679,16 @@
         <v>35</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -721,22 +721,18 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>69</v>
       </c>
       <c r="AD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -745,39 +741,39 @@
         <v>85</v>
       </c>
       <c r="AO2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -789,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -851,13 +847,13 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -896,10 +892,10 @@
         <v>51</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -908,26 +904,24 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>70</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -937,17 +931,17 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
         <v>3</v>
@@ -959,10 +953,10 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
@@ -1024,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1036,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -1048,16 +1042,16 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1081,26 +1075,34 @@
         <v>52</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
       <c r="AC4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+      <c r="AI4" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -1109,7 +1111,7 @@
         <v>86</v>
       </c>
       <c r="AO4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
@@ -1126,10 +1128,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1156,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1203,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1215,19 +1217,19 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1274,28 +1276,20 @@
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1305,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45309</v>
+        <v>45372</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1315,10 +1309,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
         <v>0</v>
@@ -1404,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
@@ -1416,16 +1410,16 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1446,40 +1440,30 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
@@ -1487,7 +1471,7 @@
         <v>85</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
@@ -1500,14 +1484,14 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1534,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1581,7 +1565,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1592,9 +1576,7 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" t="s">
         <v>30</v>
       </c>
@@ -1602,16 +1584,16 @@
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1635,28 +1617,24 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1667,11 +1645,9 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -1687,22 +1663,22 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1714,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1776,37 +1752,37 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>45329</v>
+        <v>45294</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1818,41 +1794,45 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
+      <c r="AL8" s="2">
+        <v>1</v>
+      </c>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -1862,26 +1842,26 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45336</v>
+        <v>45309</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -1893,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -1961,16 +1941,16 @@
         <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>36</v>
@@ -2003,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2018,11 +1998,15 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="AB9" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD9" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2033,7 +2017,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2043,17 +2027,17 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW9" s="2">
         <v>3</v>
@@ -2130,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2145,16 +2129,16 @@
         <v>45294</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2163,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2184,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2199,7 +2183,9 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
       <c r="AC10" t="s">
         <v>73</v>
       </c>
@@ -2210,13 +2196,17 @@
       <c r="AH10" s="2">
         <v>1</v>
       </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
+      <c r="AI10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>1</v>
+      </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2236,10 +2226,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2313,7 +2303,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2325,37 +2315,37 @@
         <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>45357</v>
+        <v>45323</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2367,26 +2357,28 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2397,17 +2389,15 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45372</v>
+        <v>45345</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2417,31 +2407,31 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2494,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2506,31 +2496,31 @@
         <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -2539,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -2548,22 +2538,26 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -2576,7 +2570,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2586,35 +2580,35 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -2673,7 +2667,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2685,7 +2679,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="1">
-        <v>45357</v>
+        <v>45329</v>
       </c>
       <c r="G13" t="s">
         <v>29</v>
@@ -2697,19 +2691,19 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2718,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2727,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -2742,9 +2736,11 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -2762,33 +2758,33 @@
         <v>86</v>
       </c>
       <c r="AO13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45371</v>
+        <v>45336</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -2806,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2856,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2868,31 +2864,31 @@
         <v>25</v>
       </c>
       <c r="F14" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -2901,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2910,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2925,13 +2921,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD14" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -2942,7 +2938,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO14" s="2">
         <v>0</v>
@@ -2952,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -2962,22 +2958,22 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -2989,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3051,16 +3047,16 @@
         <v>25</v>
       </c>
       <c r="F15" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>36</v>
@@ -3093,28 +3089,24 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3125,28 +3117,30 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45345</v>
+        <v>45316</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3155,13 +3149,13 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3170,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3220,7 +3214,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -3231,24 +3225,26 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>45294</v>
+      </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3272,22 +3268,24 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -3300,9 +3298,11 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
@@ -3318,16 +3318,16 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,63 +18,63 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
     <t>600397</t>
   </si>
   <si>
-    <t>600376</t>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600384</t>
   </si>
   <si>
     <t>600336</t>
   </si>
   <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -102,15 +102,15 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -120,18 +120,18 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
@@ -165,21 +165,21 @@
     <t>color</t>
   </si>
   <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
     <t>light blue</t>
   </si>
   <si>
+    <t>light tan</t>
+  </si>
+  <si>
     <t>tan; white</t>
   </si>
   <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
     <t>light purple</t>
   </si>
   <si>
@@ -189,18 +189,18 @@
     <t>texture</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
     <t>powder; shiny</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -225,16 +225,16 @@
     <t>normal</t>
   </si>
   <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
     <t>more down; sedating; unusual taste</t>
   </si>
   <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
     <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -506,13 +506,13 @@
         <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s">
         <v>66</v>
       </c>
       <c r="AA1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB1" t="s">
         <v>67</v>
@@ -664,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>45357</v>
+        <v>45295</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -709,25 +709,21 @@
         <v>50</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -748,32 +744,32 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -785,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
         <v>1</v>
@@ -835,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -856,10 +852,10 @@
         <v>29</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -889,32 +885,28 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
@@ -931,20 +923,20 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -953,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
         <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -968,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1018,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1030,19 +1022,19 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>45294</v>
+        <v>45329</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1051,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1072,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1088,21 +1080,19 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -1118,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1128,10 +1118,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1140,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1205,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1217,19 +1207,19 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1259,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1276,17 +1266,25 @@
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="AL5" s="2">
+        <v>1</v>
+      </c>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
         <v>86</v>
@@ -1299,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45372</v>
+        <v>45309</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1309,10 +1307,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
         <v>0</v>
@@ -1386,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1398,25 +1396,25 @@
         <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1440,38 +1438,42 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U6" s="2">
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
@@ -1484,11 +1486,11 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
         <v>3</v>
@@ -1518,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1565,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1576,7 +1578,9 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>45328</v>
+      </c>
       <c r="G7" t="s">
         <v>30</v>
       </c>
@@ -1584,16 +1588,16 @@
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1617,24 +1621,30 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1645,34 +1655,36 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -1690,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1740,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1752,19 +1764,19 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -1794,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1811,25 +1823,17 @@
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
         <v>86</v>
@@ -1842,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45309</v>
+        <v>45372</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1852,10 +1856,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
         <v>0</v>
@@ -1929,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1941,31 +1945,31 @@
         <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>45328</v>
+        <v>45357</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -1974,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -1983,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -1998,9 +2002,7 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>69</v>
       </c>
@@ -2017,36 +2019,36 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2064,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2114,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2129,16 +2131,16 @@
         <v>45294</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2147,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2168,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2183,25 +2185,17 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
@@ -2226,10 +2220,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW10" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2238,10 +2232,10 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2303,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2315,19 +2309,19 @@
         <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2336,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -2357,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2372,32 +2366,40 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
       <c r="AC11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AH11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>1</v>
+      </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2407,10 +2409,10 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2496,31 +2498,31 @@
         <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -2529,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -2538,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2553,13 +2555,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD12" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -2580,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2590,22 +2592,22 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -2617,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -2678,26 +2680,24 @@
       <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="1">
-        <v>45329</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -2721,30 +2721,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2755,36 +2749,34 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45336</v>
+        <v>45310</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -2802,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2864,19 +2856,19 @@
         <v>25</v>
       </c>
       <c r="F14" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2906,13 +2898,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2938,17 +2930,15 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3035,7 +3025,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -3047,31 +3037,31 @@
         <v>25</v>
       </c>
       <c r="F15" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3080,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3089,22 +3079,26 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -3127,35 +3121,35 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45316</v>
+        <v>45369</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3214,7 +3208,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -3229,16 +3223,16 @@
         <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3247,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3268,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3283,16 +3277,22 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD16" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
+      <c r="AI16" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
@@ -3314,14 +3314,14 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3330,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -13,68 +13,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="311" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="327" uniqueCount="125">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>600303</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
     <t>600324</t>
   </si>
   <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
     <t>600327</t>
   </si>
   <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -99,18 +105,15 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -120,12 +123,12 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -171,42 +174,42 @@
     <t>white</t>
   </si>
   <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>light blue</t>
   </si>
   <si>
     <t>light tan</t>
   </si>
   <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -222,21 +225,24 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
     <t>more down; sedating; unusual taste</t>
   </si>
   <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -270,12 +276,12 @@
     <t>overdose</t>
   </si>
   <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>involved in OD</t>
   </si>
   <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
     <t>od</t>
   </si>
   <si>
@@ -358,6 +364,9 @@
   </si>
   <si>
     <t>state_county</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH | </t>
   </si>
   <si>
     <t>OH | HAMILTON</t>
@@ -426,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS16"/>
+  <dimension ref="A1:BS17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,214 +446,214 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y1" t="s">
         <v>60</v>
       </c>
       <c r="Z1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA1" t="s">
         <v>59</v>
       </c>
       <c r="AB1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AL1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AM1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AN1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AO1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AP1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AQ1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AR1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AS1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AT1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AV1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AW1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AX1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AY1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AZ1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BA1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BB1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BC1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BD1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BE1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BF1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BG1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BH1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BI1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BJ1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BK1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BL1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BM1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BN1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BO1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BP1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BQ1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BR1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BS1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -652,31 +661,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1">
-        <v>45295</v>
+        <v>45405</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -688,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -706,25 +715,29 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -734,57 +747,57 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AO2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45310</v>
+        <v>45415</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
         <v>0</v>
@@ -814,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BQ2" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="BR2" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="BS2" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -831,31 +844,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>45294</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -885,22 +898,24 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -913,7 +928,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -923,20 +938,20 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -948,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -960,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -993,16 +1008,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
@@ -1010,37 +1025,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
-        <v>45329</v>
+        <v>45295</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1067,27 +1082,21 @@
         <v>51</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1098,17 +1107,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45336</v>
+        <v>45310</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1118,10 +1127,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1130,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1148,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1178,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -1195,31 +1204,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1237,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1249,55 +1258,49 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45309</v>
+        <v>45371</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1307,10 +1310,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
         <v>0</v>
@@ -1328,16 +1331,16 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1367,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
@@ -1387,46 +1390,46 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1441,36 +1444,34 @@
         <v>52</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1480,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1490,31 +1491,31 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1550,16 +1551,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
@@ -1567,37 +1568,35 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45328</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1621,30 +1620,24 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1655,36 +1648,34 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -1702,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1735,16 +1726,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
@@ -1752,49 +1743,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1806,37 +1797,45 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
       <c r="AC8" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -1846,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1856,31 +1855,31 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -1916,16 +1915,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
@@ -1933,25 +1932,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1960,16 +1959,16 @@
         <v>37</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -1978,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -1987,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="s">
         <v>60</v>
@@ -2004,7 +2003,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2019,17 +2018,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AO9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2039,22 +2038,22 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2066,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2099,16 +2098,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
@@ -2116,31 +2115,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>45294</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2149,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2170,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2185,22 +2184,28 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
       <c r="AC10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
+      <c r="AI10" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2216,14 +2221,14 @@
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2232,10 +2237,10 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2280,16 +2285,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -2297,43 +2302,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2342,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2351,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2367,29 +2372,23 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO11" s="2">
         <v>0</v>
@@ -2399,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2409,22 +2408,22 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2436,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2469,16 +2468,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2486,49 +2485,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1">
         <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2540,39 +2539,45 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
+      <c r="AL12" s="2">
+        <v>1</v>
+      </c>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2582,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2592,31 +2597,31 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -2652,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -2669,18 +2674,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45294</v>
+      </c>
       <c r="G13" t="s">
         <v>31</v>
       </c>
@@ -2688,16 +2695,16 @@
         <v>31</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -2721,37 +2728,43 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
+      <c r="AH13" s="2">
+        <v>1</v>
+      </c>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
@@ -2767,22 +2780,22 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -2794,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2827,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -2844,31 +2857,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
         <v>45323</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2898,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2915,7 +2928,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -2930,7 +2943,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3008,16 +3021,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -3028,40 +3041,40 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1">
-        <v>45357</v>
+        <v>45329</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3070,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3079,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3098,9 +3111,11 @@
         <v>-1</v>
       </c>
       <c r="AC15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3111,7 +3126,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO15" s="2">
         <v>0</v>
@@ -3121,26 +3136,26 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45369</v>
+        <v>45336</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3158,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3191,16 +3206,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -3208,31 +3223,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3241,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3262,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3278,27 +3293,25 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -3308,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3318,10 +3331,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3330,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3378,16 +3391,195 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BQ16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BR16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BS16" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45294</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>45316</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2">
+        <v>16</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>118</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="327" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="343" uniqueCount="128">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,51 +21,54 @@
     <t>600303</t>
   </si>
   <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
     <t>600306</t>
   </si>
   <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600397</t>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600384</t>
   </si>
   <si>
     <t>600438</t>
   </si>
   <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
     <t>600345</t>
   </si>
   <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600373</t>
+    <t>600327</t>
   </si>
   <si>
     <t>600376</t>
   </si>
   <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -108,12 +111,12 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -126,10 +129,13 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>heroin; fentanyl; xylazine; crack</t>
   </si>
   <si>
     <t>fentanyl; xylazine</t>
@@ -168,24 +174,24 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>pink; blue; green</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>tan; white</t>
   </si>
   <si>
+    <t>light tan</t>
+  </si>
+  <si>
     <t>light purple</t>
   </si>
   <si>
     <t>light blue</t>
   </si>
   <si>
-    <t>light tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -198,18 +204,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder; shiny</t>
   </si>
   <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -231,13 +237,16 @@
     <t>normal</t>
   </si>
   <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
     <t>more down; sedating; unusual taste</t>
@@ -435,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS17"/>
+  <dimension ref="A1:BS18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,214 +455,214 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AA1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AD1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AF1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AG1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AH1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AI1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AJ1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AK1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AL1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AM1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AN1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AO1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AQ1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AR1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AS1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AT1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AU1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AV1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AW1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AX1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AY1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AZ1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BA1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BB1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BC1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BD1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BE1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BF1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="BG1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BH1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="BI1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="BJ1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="BK1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="BL1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BM1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BN1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BO1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BP1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BQ1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BR1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="BS1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -661,31 +670,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -715,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -732,7 +741,7 @@
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2">
@@ -747,7 +756,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -827,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BQ2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BR2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -844,43 +853,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -889,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -898,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -915,9 +924,11 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD3" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -928,17 +939,17 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AO3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -948,16 +959,16 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -975,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1008,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -1025,37 +1036,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
-        <v>45295</v>
+        <v>45329</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1079,24 +1090,30 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1107,17 +1124,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AO4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1127,11 +1144,11 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW4" s="2">
         <v>4</v>
       </c>
-      <c r="AW4" s="2">
-        <v>3</v>
-      </c>
       <c r="AX4" s="2">
         <v>1</v>
       </c>
@@ -1139,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1157,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1187,16 +1204,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -1204,19 +1221,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
-        <v>45357</v>
+        <v>45323</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -1228,19 +1245,19 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1249,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1258,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1275,7 +1292,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1290,17 +1307,15 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45371</v>
+        <v>45345</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1310,22 +1325,22 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1337,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1370,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -1387,81 +1402,85 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45405</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45357</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>52</v>
-      </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1471,7 +1490,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1481,50 +1500,50 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45372</v>
+        <v>45418</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -1551,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
@@ -1568,29 +1587,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45294</v>
+      </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1602,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1620,43 +1641,55 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
+      <c r="AL7" s="2">
+        <v>1</v>
+      </c>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1666,10 +1699,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
         <v>0</v>
@@ -1687,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1726,16 +1759,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
@@ -1746,37 +1779,37 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1797,48 +1830,38 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
@@ -1851,14 +1874,14 @@
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -1885,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -1915,16 +1938,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
@@ -1932,37 +1955,35 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45294</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1986,28 +2007,24 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2018,11 +2035,9 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2038,22 +2053,22 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2065,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2098,16 +2113,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -2118,25 +2133,25 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>45294</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>39</v>
@@ -2148,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2169,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2184,28 +2199,22 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2221,14 +2230,14 @@
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW10" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2237,10 +2246,10 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2285,16 +2294,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -2302,43 +2311,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2347,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2356,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2372,23 +2381,27 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
+      <c r="AI11" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO11" s="2">
         <v>0</v>
@@ -2398,32 +2411,32 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2435,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
         <v>0</v>
@@ -2468,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2488,46 +2501,46 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1">
         <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2539,45 +2552,45 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
       <c r="AC12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ12" s="2">
         <v>1</v>
       </c>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2587,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2597,31 +2610,31 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -2657,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -2674,31 +2687,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -2728,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2743,24 +2756,26 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
-      <c r="AH13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO13" s="2">
         <v>0</v>
@@ -2770,17 +2785,17 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW13" s="2">
         <v>3</v>
@@ -2792,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -2840,16 +2855,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
@@ -2857,19 +2872,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1">
-        <v>45323</v>
+        <v>45357</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
@@ -2878,22 +2893,22 @@
         <v>32</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -2902,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2911,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2926,13 +2941,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -2943,15 +2958,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45345</v>
+        <v>45369</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -2961,22 +2978,22 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -2988,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3021,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -3038,49 +3055,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1">
-        <v>45329</v>
+        <v>45357</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>37</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3092,30 +3109,26 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3126,7 +3139,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO15" s="2">
         <v>0</v>
@@ -3136,26 +3149,26 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45336</v>
+        <v>45372</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3167,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
         <v>0</v>
@@ -3206,16 +3219,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -3223,19 +3236,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G16" t="s">
         <v>31</v>
@@ -3247,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3277,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3292,11 +3305,9 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -3311,7 +3322,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -3321,17 +3332,17 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW16" s="2">
         <v>3</v>
@@ -3343,10 +3354,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3391,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
@@ -3408,31 +3419,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1">
         <v>45294</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3462,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3477,7 +3488,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -3490,7 +3501,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO17" s="2">
         <v>0</v>
@@ -3570,16 +3581,199 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BQ17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BR17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="BS17" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45294</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>45310</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="343" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="311">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,72 +21,174 @@
     <t>600303</t>
   </si>
   <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600353</t>
+  </si>
+  <si>
+    <t>600330</t>
+  </si>
+  <si>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600467</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
     <t>600397</t>
   </si>
   <si>
     <t>600367</t>
   </si>
   <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
     <t>600315</t>
   </si>
   <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
     <t>600438</t>
   </si>
   <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Carthage</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Carthage</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>county</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Hamilton County</t>
   </si>
   <si>
@@ -102,6 +204,33 @@
     <t>Ohio</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
     <t>date_collect</t>
   </si>
   <si>
@@ -111,15 +240,120 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>cotton; syringe</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>cotton; syringe</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>collection</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>multiple methods</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>multiple methods</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>consumed</t>
   </si>
   <si>
@@ -129,19 +363,67 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
+    <t>methamphetamine</t>
   </si>
   <si>
     <t>expect_opioid</t>
@@ -174,22 +456,76 @@
     <t>color</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>white; purple</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
     <t>pink; blue; green</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>tan; white</t>
   </si>
   <si>
-    <t>light tan</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>light blue</t>
+    <t>white</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>white</t>
   </si>
   <si>
     <t>bright_color</t>
@@ -201,19 +537,67 @@
     <t>crystals</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
     <t>powder; dull</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
     <t>powder; shiny</t>
   </si>
   <si>
-    <t>powder; flaky; dull</t>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>crystals</t>
   </si>
   <si>
     <t>tar</t>
@@ -222,9 +606,15 @@
     <t>pill</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
     <t>plant</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>lustre</t>
   </si>
   <si>
@@ -234,22 +624,73 @@
     <t>weird</t>
   </si>
   <si>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
+    <t>weird; sedating; unusual taste</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
     <t>weird; stronger; sedating; unusual taste</t>
   </si>
   <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>nice; stronger; sedating</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>nice; long; more down; sedating</t>
   </si>
   <si>
-    <t>more down; sedating; unusual taste</t>
+    <t/>
   </si>
   <si>
     <t>sen_strength</t>
@@ -288,9 +729,36 @@
     <t>not overdose related</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>involved in OD</t>
   </si>
   <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
     <t>od</t>
   </si>
   <si>
@@ -384,16 +852,97 @@
     <t>statefips</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
     <t>countyfips_3</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>061</t>
   </si>
   <si>
     <t>countyfips</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>39061</t>
@@ -402,7 +951,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -443,11 +992,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BS26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -455,214 +1001,214 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="P1" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="Q1" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="S1" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="T1" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="U1" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="V1" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="W1" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="X1" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="Y1" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="Z1" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="AA1" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AC1" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="AD1" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AE1" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AF1" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="AG1" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="AH1" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="AI1" t="s">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="AJ1" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
       <c r="AK1" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="AL1" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="AM1" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="AN1" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="AO1" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="AP1" t="s">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c r="AQ1" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="AR1" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="AS1" t="s">
-        <v>96</v>
+        <v>252</v>
       </c>
       <c r="AT1" t="s">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="AU1" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="AV1" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="AW1" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="AX1" t="s">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="AY1" t="s">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="AZ1" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="BA1" t="s">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="BB1" t="s">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="BC1" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="BD1" t="s">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="BE1" t="s">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="BF1" t="s">
-        <v>109</v>
+        <v>265</v>
       </c>
       <c r="BG1" t="s">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="BH1" t="s">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="BI1" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="BJ1" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="BK1" t="s">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="BL1" t="s">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c r="BM1" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="BN1" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="BO1" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="BP1" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="BQ1" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="BR1" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="BS1" t="s">
-        <v>126</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
@@ -670,31 +1216,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -724,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -741,7 +1287,7 @@
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2">
@@ -756,7 +1302,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>90</v>
+        <v>237</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -836,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>120</v>
+        <v>276</v>
       </c>
       <c r="BQ2" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="BR2" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="BS2" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -853,43 +1399,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -898,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -907,49 +1453,49 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="AD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c r="AO3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45371</v>
+        <v>45420</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -959,37 +1505,37 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1019,16 +1565,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="BQ3" t="s">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="BR3" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="BS3" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
@@ -1036,31 +1582,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1">
-        <v>45329</v>
+        <v>45405</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1090,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1105,15 +1651,11 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1124,17 +1666,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45336</v>
+        <v>45419</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1144,22 +1684,22 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1168,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1204,16 +1744,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="BQ4" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
       <c r="BR4" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="BS4" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
@@ -1221,31 +1761,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1">
-        <v>45323</v>
+        <v>45405</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1254,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1275,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1290,45 +1830,51 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45345</v>
+        <v>45420</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1337,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1352,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1385,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="BQ5" t="s">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="BR5" t="s">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="BS5" t="s">
-        <v>127</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6">
@@ -1402,31 +1948,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>45405</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1456,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1473,11 +2019,9 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>1</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2">
         <v>1</v>
       </c>
@@ -1490,7 +2034,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1500,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1510,10 +2054,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1570,16 +2114,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="BQ6" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="BR6" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="BS6" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7">
@@ -1587,49 +2131,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1641,45 +2185,39 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="AO7" s="2">
         <v>0</v>
@@ -1689,41 +2227,41 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45309</v>
+        <v>45420</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -1759,16 +2297,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="BQ7" t="s">
-        <v>123</v>
+        <v>284</v>
       </c>
       <c r="BR7" t="s">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c r="BS7" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8">
@@ -1776,43 +2314,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1">
-        <v>45295</v>
+        <v>45405</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1821,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -1830,25 +2368,31 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="U8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -1858,17 +2402,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1878,10 +2422,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -1905,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>1</v>
       </c>
       <c r="BG8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -1938,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="BQ8" t="s">
-        <v>123</v>
+        <v>285</v>
       </c>
       <c r="BR8" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="BS8" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1955,38 +2499,40 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45405</v>
+      </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2007,25 +2553,29 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2035,43 +2585,45 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="2">
         <v>0</v>
@@ -2080,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
         <v>1</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2113,16 +2665,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="BQ9" t="s">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="BR9" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="BS9" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
@@ -2130,31 +2682,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2184,37 +2736,41 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AG10" s="2">
+        <v>1</v>
+      </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
+      <c r="AJ10" s="2">
+        <v>1</v>
+      </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2224,20 +2780,20 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2246,19 +2802,19 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2294,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="BQ10" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="BR10" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="BS10" t="s">
-        <v>127</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11">
@@ -2311,31 +2867,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2344,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -2365,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2380,51 +2936,45 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
-      <c r="AI11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2481,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="BQ11" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="BR11" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="BS11" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12">
@@ -2498,31 +3048,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
         <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2531,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2552,45 +3102,35 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2600,20 +3140,20 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AW12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2622,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -2637,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -2670,16 +3210,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="BQ12" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="BR12" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="BS12" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
@@ -2687,43 +3227,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1">
-        <v>45328</v>
+        <v>45357</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2732,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2741,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2760,11 +3300,9 @@
         <v>-1</v>
       </c>
       <c r="AC13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2775,7 +3313,7 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="AO13" s="2">
         <v>0</v>
@@ -2785,26 +3323,26 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45372</v>
+        <v>45369</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -2822,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2855,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="BQ13" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="BR13" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="BS13" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
@@ -2872,43 +3410,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -2917,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2926,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2941,11 +3479,9 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -2958,7 +3494,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="AO14" s="2">
         <v>0</v>
@@ -2968,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -2978,16 +3514,16 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -3005,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3038,16 +3574,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="BQ14" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="BR14" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="BS14" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15">
@@ -3055,40 +3591,40 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>1</v>
@@ -3097,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3109,27 +3645,31 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3139,7 +3679,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="AO15" s="2">
         <v>0</v>
@@ -3149,50 +3689,50 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45372</v>
+        <v>45418</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3219,16 +3759,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="BQ15" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="BR15" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="BS15" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16">
@@ -3236,31 +3776,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3290,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3305,9 +3845,11 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -3322,7 +3864,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -3332,17 +3874,17 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW16" s="2">
         <v>3</v>
@@ -3354,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3402,16 +3944,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="BQ16" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="BR16" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="BS16" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17">
@@ -3419,37 +3961,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3473,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3488,7 +4030,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -3501,17 +4043,17 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="AO17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -3521,10 +4063,10 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AW17" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -3533,13 +4075,13 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>1</v>
       </c>
       <c r="BB17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="2">
         <v>0</v>
@@ -3548,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>1</v>
@@ -3581,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c r="BQ17" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="BR17" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="BS17" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18">
@@ -3598,49 +4140,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1">
         <v>45294</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -3652,39 +4194,45 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
+      <c r="AJ18" s="2">
+        <v>1</v>
+      </c>
       <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
+      <c r="AL18" s="2">
+        <v>1</v>
+      </c>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="AO18" s="2">
         <v>0</v>
@@ -3694,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -3704,76 +4252,1542 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45294</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>164</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>187</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>45310</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2">
         <v>3</v>
       </c>
-      <c r="AW18" s="2">
+      <c r="AW19" s="2">
         <v>3</v>
       </c>
-      <c r="AX18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>123</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>127</v>
+      <c r="AX19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>165</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>188</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>45310</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45294</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>166</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>189</v>
+      </c>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>45310</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45294</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>167</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>190</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>45310</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>5</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45357</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>168</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>191</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>45371</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45329</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>192</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>45336</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45294</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>169</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>193</v>
+      </c>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>45310</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW25" s="2">
+        <v>5</v>
+      </c>
+      <c r="AX25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45357</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>170</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>194</v>
+      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>45372</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>288</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="304">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,99 +21,105 @@
     <t>600303</t>
   </si>
   <si>
+    <t>600424</t>
+  </si>
+  <si>
     <t>600359</t>
   </si>
   <si>
+    <t>600467</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600330</t>
+  </si>
+  <si>
     <t>600353</t>
   </si>
   <si>
-    <t>600330</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600467</t>
+    <t>600369</t>
   </si>
   <si>
     <t>600342</t>
   </si>
   <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600369</t>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600327</t>
   </si>
   <si>
     <t>600317</t>
   </si>
   <si>
-    <t>600327</t>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600345</t>
   </si>
   <si>
     <t>600384</t>
   </si>
   <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
     <t>600373</t>
   </si>
   <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Cincinnati</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
@@ -126,39 +132,27 @@
     <t>Hamilton</t>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Cincinnati</t>
+    <t>Hamilton</t>
   </si>
   <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -249,21 +243,66 @@
     <t>cotton; syringe</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>cotton</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>multiple methods</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>multiple methods</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
@@ -273,481 +312,421 @@
     <t>cotton</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t/>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
   </si>
   <si>
     <t>cotton</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>consumed</t>
+  </si>
+  <si>
+    <t>expectedsubstance</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>multiple methods</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>multiple methods</t>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>expect_opioid</t>
+  </si>
+  <si>
+    <t>expect_fentanyl</t>
+  </si>
+  <si>
+    <t>expect_xylazine</t>
+  </si>
+  <si>
+    <t>expect_stimulant</t>
+  </si>
+  <si>
+    <t>expect_benzo</t>
+  </si>
+  <si>
+    <t>expect_meth</t>
+  </si>
+  <si>
+    <t>expect_cocaine</t>
+  </si>
+  <si>
+    <t>expect_cannabis</t>
+  </si>
+  <si>
+    <t>expect_hall</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white; purple</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>bright_color</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>pill</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>lustre</t>
+  </si>
+  <si>
+    <t>sensations</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>weird; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>sen_strength</t>
+  </si>
+  <si>
+    <t>sen_weird</t>
+  </si>
+  <si>
+    <t>sen_hall</t>
+  </si>
+  <si>
+    <t>sen_up</t>
+  </si>
+  <si>
+    <t>sen_down</t>
+  </si>
+  <si>
+    <t>sen_nice</t>
+  </si>
+  <si>
+    <t>sen_long</t>
+  </si>
+  <si>
+    <t>sen_burn</t>
+  </si>
+  <si>
+    <t>sen_skin</t>
+  </si>
+  <si>
+    <t>sen_seizure</t>
+  </si>
+  <si>
+    <t>overdose</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton</t>
+    <t>not overdose related</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
   </si>
   <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>consumed</t>
-  </si>
-  <si>
-    <t>expectedsubstance</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>expect_opioid</t>
-  </si>
-  <si>
-    <t>expect_fentanyl</t>
-  </si>
-  <si>
-    <t>expect_xylazine</t>
-  </si>
-  <si>
-    <t>expect_stimulant</t>
-  </si>
-  <si>
-    <t>expect_benzo</t>
-  </si>
-  <si>
-    <t>expect_meth</t>
-  </si>
-  <si>
-    <t>expect_cocaine</t>
-  </si>
-  <si>
-    <t>expect_cannabis</t>
-  </si>
-  <si>
-    <t>expect_hall</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>bright_color</t>
-  </si>
-  <si>
-    <t>texture</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>tar</t>
-  </si>
-  <si>
-    <t>pill</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>lustre</t>
-  </si>
-  <si>
-    <t>sensations</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>sen_strength</t>
-  </si>
-  <si>
-    <t>sen_weird</t>
-  </si>
-  <si>
-    <t>sen_hall</t>
-  </si>
-  <si>
-    <t>sen_up</t>
-  </si>
-  <si>
-    <t>sen_down</t>
-  </si>
-  <si>
-    <t>sen_nice</t>
-  </si>
-  <si>
-    <t>sen_long</t>
-  </si>
-  <si>
-    <t>sen_burn</t>
-  </si>
-  <si>
-    <t>sen_skin</t>
-  </si>
-  <si>
-    <t>sen_seizure</t>
-  </si>
-  <si>
-    <t>overdose</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>not overdose related</t>
@@ -1004,211 +983,211 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
         <v>137</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>139</v>
       </c>
-      <c r="N1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>143</v>
-      </c>
-      <c r="R1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" t="s">
-        <v>146</v>
-      </c>
       <c r="U1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="V1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="W1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB1" t="s">
         <v>195</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>196</v>
       </c>
-      <c r="Y1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>201</v>
-      </c>
       <c r="AD1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>226</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>227</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" t="s">
         <v>228</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AM1" t="s">
         <v>229</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AN1" t="s">
         <v>230</v>
       </c>
-      <c r="AI1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>236</v>
-      </c>
       <c r="AO1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AV1" t="s">
         <v>248</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AW1" t="s">
         <v>249</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AX1" t="s">
         <v>250</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AY1" t="s">
         <v>251</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AZ1" t="s">
         <v>252</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BA1" t="s">
         <v>253</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BB1" t="s">
         <v>254</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BC1" t="s">
         <v>255</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BD1" t="s">
         <v>256</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BE1" t="s">
         <v>257</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BF1" t="s">
         <v>258</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BG1" t="s">
         <v>259</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BH1" t="s">
         <v>260</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BI1" t="s">
         <v>261</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BJ1" t="s">
         <v>262</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BK1" t="s">
         <v>263</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BL1" t="s">
         <v>264</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BM1" t="s">
         <v>265</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BN1" t="s">
         <v>266</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BO1" t="s">
         <v>267</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BP1" t="s">
         <v>268</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BL1" t="s">
+      <c r="BQ1" t="s">
         <v>271</v>
       </c>
-      <c r="BM1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>278</v>
-      </c>
       <c r="BR1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="BS1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
@@ -1219,28 +1198,28 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -1270,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1287,7 +1266,7 @@
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2">
@@ -1302,7 +1281,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -1382,16 +1361,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="BQ2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="BR2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="BS2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
@@ -1402,28 +1381,28 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1">
         <v>45405</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1432,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1444,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1453,39 +1432,39 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1501,14 +1480,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW3" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1526,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1565,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="BQ3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="BR3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="BS3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -1585,28 +1564,28 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1">
         <v>45405</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1636,61 +1615,65 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD4" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
@@ -1705,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
         <v>1</v>
@@ -1744,16 +1727,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="BQ4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="BR4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="BS4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
@@ -1764,28 +1747,28 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1">
         <v>45405</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1794,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1815,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1830,28 +1813,24 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1871,10 +1850,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW5" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1883,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1898,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1931,16 +1910,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="BQ5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="BR5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="BS5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
@@ -1951,28 +1930,28 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1">
         <v>45405</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1984,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1993,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -2002,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -2019,7 +1998,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2">
@@ -2034,7 +2013,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -2054,10 +2033,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW6" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -2066,13 +2045,13 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -2081,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>1</v>
@@ -2114,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
+        <v>269</v>
+      </c>
+      <c r="BQ6" t="s">
         <v>276</v>
       </c>
-      <c r="BQ6" t="s">
-        <v>283</v>
-      </c>
       <c r="BR6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="BS6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7">
@@ -2134,28 +2113,28 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1">
         <v>45405</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2164,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -2185,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2200,24 +2179,28 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AO7" s="2">
         <v>0</v>
@@ -2237,11 +2220,11 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW7" s="2">
         <v>7</v>
       </c>
-      <c r="AW7" s="2">
-        <v>3</v>
-      </c>
       <c r="AX7" s="2">
         <v>1</v>
       </c>
@@ -2249,10 +2232,10 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -2264,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -2297,16 +2280,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="BQ7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="BR7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="BS7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
@@ -2317,28 +2300,28 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1">
         <v>45405</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2347,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -2359,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2368,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2385,14 +2368,10 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -2402,17 +2381,15 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>239</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2422,13 +2399,13 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW8" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
         <v>1</v>
@@ -2446,16 +2423,16 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2482,16 +2459,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="BQ8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="BR8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="BS8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -2499,31 +2476,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1">
         <v>45405</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2532,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2553,39 +2530,41 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2605,10 +2584,10 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AW9" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2617,28 +2596,28 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2665,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="BQ9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="BR9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="BS9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
@@ -2682,31 +2661,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1">
         <v>45405</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2715,10 +2694,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2727,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2736,41 +2715,41 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2790,10 +2769,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW10" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2811,19 +2790,19 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2850,16 +2829,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="BQ10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="BR10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="BS10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
@@ -2867,31 +2846,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2900,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -2921,13 +2900,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2936,32 +2915,40 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
       <c r="AC11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AH11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>1</v>
+      </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2971,10 +2958,10 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -3031,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ11" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR11" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12">
@@ -3048,31 +3035,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1">
-        <v>45294</v>
+        <v>45329</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -3102,24 +3089,30 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD12" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3130,7 +3123,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -3140,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45316</v>
+        <v>45336</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3150,10 +3143,10 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AW12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -3165,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -3177,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -3210,16 +3203,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS12" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13">
@@ -3227,31 +3220,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1">
         <v>45357</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3269,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3281,26 +3274,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -3313,7 +3304,7 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AO13" s="2">
         <v>0</v>
@@ -3323,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3354,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3393,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR13" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS13" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14">
@@ -3413,28 +3404,28 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3443,10 +3434,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -3455,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3464,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3481,10 +3472,14 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3494,7 +3489,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AO14" s="2">
         <v>0</v>
@@ -3504,20 +3499,20 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45310</v>
+        <v>45418</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3526,10 +3521,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3541,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3574,16 +3569,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ14" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR14" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS14" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15">
@@ -3594,40 +3589,38 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
       <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45405</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3636,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3645,31 +3638,25 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3679,42 +3666,40 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45418</v>
+        <v>45310</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3732,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3759,16 +3744,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR15" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS15" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16">
@@ -3776,43 +3761,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1">
-        <v>45328</v>
+        <v>45357</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3821,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3830,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3845,11 +3830,9 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -3864,36 +3847,36 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -3911,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -3944,16 +3927,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ16" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR16" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS16" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17">
@@ -3961,37 +3944,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -4015,13 +3998,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4030,7 +4013,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -4043,17 +4026,17 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AO17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4063,10 +4046,10 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -4075,13 +4058,13 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>1</v>
       </c>
       <c r="BB17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="2">
         <v>0</v>
@@ -4090,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>1</v>
@@ -4123,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR17" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18">
@@ -4140,49 +4123,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4194,55 +4177,47 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
-      <c r="AL18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>243</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45309</v>
+        <v>45345</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4252,31 +4227,31 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -4312,16 +4287,16 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ18" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR18" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS18" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19">
@@ -4329,31 +4304,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -4383,13 +4358,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4398,24 +4373,26 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="AB19" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC19" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AO19" s="2">
         <v>0</v>
@@ -4425,17 +4402,17 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW19" s="2">
         <v>3</v>
@@ -4447,10 +4424,10 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -4495,16 +4472,16 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ19" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR19" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20">
@@ -4512,35 +4489,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
       <c r="E20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45294</v>
+      </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4564,37 +4543,43 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="2">
+        <v>1</v>
+      </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
@@ -4610,22 +4595,22 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
@@ -4637,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4670,16 +4655,16 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR20" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21">
@@ -4687,37 +4672,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4741,28 +4726,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="U21" s="2">
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4773,10 +4754,10 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AO21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
@@ -4789,11 +4770,11 @@
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="2">
         <v>3</v>
@@ -4823,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4853,16 +4834,16 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ21" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR21" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS21" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22">
@@ -4870,31 +4851,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1">
         <v>45294</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4903,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -4924,13 +4905,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4939,28 +4920,22 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
-      <c r="AI22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AO22" s="2">
         <v>0</v>
@@ -4976,14 +4951,14 @@
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -4992,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -5040,16 +5015,16 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ22" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR22" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS22" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23">
@@ -5057,43 +5032,43 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -5102,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -5111,13 +5086,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5126,59 +5101,63 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="AB23" s="2">
+        <v>1</v>
+      </c>
       <c r="AC23" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
+      <c r="AI23" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AO23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -5190,10 +5169,10 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -5223,16 +5202,16 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ23" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR23" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS23" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24">
@@ -5240,31 +5219,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1">
-        <v>45329</v>
+        <v>45294</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -5294,13 +5273,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5309,11 +5288,9 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -5328,7 +5305,7 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AO24" s="2">
         <v>0</v>
@@ -5338,20 +5315,20 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45336</v>
+        <v>45310</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -5360,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -5408,16 +5385,16 @@
         <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ24" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR24" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS24" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25">
@@ -5425,43 +5402,43 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -5470,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -5479,13 +5456,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5495,29 +5472,23 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
-      <c r="AH25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AO25" s="2">
         <v>0</v>
@@ -5527,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5537,22 +5508,22 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5564,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5597,16 +5568,16 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ25" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR25" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS25" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26">
@@ -5614,31 +5585,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -5668,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -5685,20 +5656,28 @@
       </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
+      <c r="AG26" s="2">
+        <v>1</v>
+      </c>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
+      <c r="AJ26" s="2">
+        <v>1</v>
+      </c>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
+      <c r="AL26" s="2">
+        <v>1</v>
+      </c>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AO26" s="2">
         <v>0</v>
@@ -5708,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45372</v>
+        <v>45309</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5718,10 +5697,10 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX26" s="2">
         <v>0</v>
@@ -5778,16 +5757,16 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="BQ26" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="BR26" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BS26" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -13,92 +13,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="295">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600353</t>
+  </si>
+  <si>
     <t>600303</t>
   </si>
   <si>
+    <t>600467</t>
+  </si>
+  <si>
+    <t>600330</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
     <t>600424</t>
   </si>
   <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600467</t>
-  </si>
-  <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600330</t>
-  </si>
-  <si>
-    <t>600353</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600342</t>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600468</t>
   </si>
   <si>
     <t>600315</t>
   </si>
   <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
     <t>600367</t>
   </si>
   <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600453</t>
+    <t>600345</t>
   </si>
   <si>
     <t>600391</t>
   </si>
   <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600327</t>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600373</t>
   </si>
   <si>
     <t>600317</t>
   </si>
   <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Cincinnati</t>
   </si>
   <si>
@@ -108,21 +105,27 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Hamilton</t>
   </si>
   <si>
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
@@ -132,27 +135,21 @@
     <t>Hamilton</t>
   </si>
   <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Carthage</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -195,6 +192,18 @@
     <t>full_state</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Ohio</t>
   </si>
   <si>
@@ -210,18 +219,6 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Ohio</t>
   </si>
   <si>
@@ -240,7 +237,13 @@
     <t>cotton</t>
   </si>
   <si>
-    <t>cotton; syringe</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>cotton</t>
@@ -252,18 +255,36 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>collection</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
+    <t>multiple methods</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -273,469 +294,421 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>multiple methods</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>multiple methods</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
+    <t>consumed</t>
+  </si>
+  <si>
+    <t>expectedsubstance</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t/>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>expect_opioid</t>
+  </si>
+  <si>
+    <t>expect_fentanyl</t>
+  </si>
+  <si>
+    <t>expect_xylazine</t>
+  </si>
+  <si>
+    <t>expect_stimulant</t>
+  </si>
+  <si>
+    <t>expect_benzo</t>
+  </si>
+  <si>
+    <t>expect_meth</t>
+  </si>
+  <si>
+    <t>expect_cocaine</t>
+  </si>
+  <si>
+    <t>expect_cannabis</t>
+  </si>
+  <si>
+    <t>expect_hall</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>white; purple</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>bright_color</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>pill</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>lustre</t>
+  </si>
+  <si>
+    <t>sensations</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
+    <t>weird; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>sen_strength</t>
+  </si>
+  <si>
+    <t>sen_weird</t>
+  </si>
+  <si>
+    <t>sen_hall</t>
+  </si>
+  <si>
+    <t>sen_up</t>
+  </si>
+  <si>
+    <t>sen_down</t>
+  </si>
+  <si>
+    <t>sen_nice</t>
+  </si>
+  <si>
+    <t>sen_long</t>
+  </si>
+  <si>
+    <t>sen_burn</t>
+  </si>
+  <si>
+    <t>sen_skin</t>
+  </si>
+  <si>
+    <t>sen_seizure</t>
+  </si>
+  <si>
+    <t>overdose</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton</t>
+    <t>not overdose related</t>
+  </si>
+  <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>not overdose related</t>
   </si>
   <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>consumed</t>
-  </si>
-  <si>
-    <t>expectedsubstance</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>expect_opioid</t>
-  </si>
-  <si>
-    <t>expect_fentanyl</t>
-  </si>
-  <si>
-    <t>expect_xylazine</t>
-  </si>
-  <si>
-    <t>expect_stimulant</t>
-  </si>
-  <si>
-    <t>expect_benzo</t>
-  </si>
-  <si>
-    <t>expect_meth</t>
-  </si>
-  <si>
-    <t>expect_cocaine</t>
-  </si>
-  <si>
-    <t>expect_cannabis</t>
-  </si>
-  <si>
-    <t>expect_hall</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>bright_color</t>
-  </si>
-  <si>
-    <t>texture</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>tar</t>
-  </si>
-  <si>
-    <t>pill</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>lustre</t>
-  </si>
-  <si>
-    <t>sensations</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>sen_strength</t>
-  </si>
-  <si>
-    <t>sen_weird</t>
-  </si>
-  <si>
-    <t>sen_hall</t>
-  </si>
-  <si>
-    <t>sen_up</t>
-  </si>
-  <si>
-    <t>sen_down</t>
-  </si>
-  <si>
-    <t>sen_nice</t>
-  </si>
-  <si>
-    <t>sen_long</t>
-  </si>
-  <si>
-    <t>sen_burn</t>
-  </si>
-  <si>
-    <t>sen_skin</t>
-  </si>
-  <si>
-    <t>sen_seizure</t>
-  </si>
-  <si>
-    <t>overdose</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
   </si>
   <si>
     <t>od</t>
@@ -983,211 +956,211 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T1" t="s">
-        <v>139</v>
-      </c>
       <c r="U1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="V1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="W1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="X1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Y1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Z1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AA1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AB1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AC1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="AD1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM1" t="s">
         <v>220</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>221</v>
       </c>
-      <c r="AF1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>230</v>
-      </c>
       <c r="AO1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX1" t="s">
         <v>241</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AY1" t="s">
         <v>242</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AZ1" t="s">
         <v>243</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BA1" t="s">
         <v>244</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BB1" t="s">
         <v>245</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BC1" t="s">
         <v>246</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BD1" t="s">
         <v>247</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BE1" t="s">
         <v>248</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BF1" t="s">
         <v>249</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BG1" t="s">
         <v>250</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BH1" t="s">
         <v>251</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BI1" t="s">
         <v>252</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BJ1" t="s">
         <v>253</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BK1" t="s">
         <v>254</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BL1" t="s">
         <v>255</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BM1" t="s">
         <v>256</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BN1" t="s">
         <v>257</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BO1" t="s">
         <v>258</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BP1" t="s">
         <v>259</v>
       </c>
-      <c r="BH1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BJ1" t="s">
+      <c r="BQ1" t="s">
         <v>262</v>
       </c>
-      <c r="BK1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>271</v>
-      </c>
       <c r="BR1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="BS1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
@@ -1198,37 +1171,37 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -1237,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -1249,26 +1222,28 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD2" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1</v>
+      </c>
       <c r="AE2" s="2">
         <v>1</v>
       </c>
@@ -1281,7 +1256,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -1291,50 +1266,50 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -1361,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BQ2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="BR2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BS2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -1381,13 +1356,13 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1">
         <v>45405</v>
@@ -1396,13 +1371,13 @@
         <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1411,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -1423,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1432,39 +1407,41 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AJ3" s="2">
+        <v>1</v>
+      </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1484,7 +1461,7 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW3" s="2">
         <v>6</v>
@@ -1505,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1544,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BQ3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="BR3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BS3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -1561,31 +1538,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1">
         <v>45405</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1615,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="U4" s="2">
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1630,7 +1607,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
@@ -1647,7 +1624,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AO4" s="2">
         <v>0</v>
@@ -1727,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BQ4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="BR4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="BS4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
@@ -1744,31 +1721,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1">
         <v>45405</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1798,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1815,11 +1792,9 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -1830,17 +1805,15 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1850,13 +1823,13 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
         <v>1</v>
@@ -1874,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
@@ -1910,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BQ5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="BR5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="BS5" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6">
@@ -1927,49 +1900,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1">
         <v>45405</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1981,24 +1954,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2">
@@ -2013,7 +1986,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -2023,50 +1996,50 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -2093,16 +2066,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BQ6" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="BR6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="BS6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
@@ -2110,31 +2083,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1">
         <v>45405</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2143,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -2164,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2179,28 +2152,24 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AO7" s="2">
         <v>0</v>
@@ -2220,10 +2189,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -2232,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -2247,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -2280,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BQ7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="BR7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="BS7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
@@ -2297,31 +2266,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1">
         <v>45405</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2330,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -2351,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2366,30 +2335,38 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2402,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -2423,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2459,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
+        <v>260</v>
+      </c>
+      <c r="BQ8" t="s">
         <v>269</v>
       </c>
-      <c r="BQ8" t="s">
-        <v>278</v>
-      </c>
       <c r="BR8" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="BS8" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9">
@@ -2476,31 +2453,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1">
         <v>45405</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2509,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2530,41 +2507,39 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2584,10 +2559,10 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AW9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2596,28 +2571,28 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2644,16 +2619,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BQ9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="BR9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="BS9" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
@@ -2661,31 +2636,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1">
         <v>45405</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2715,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2732,11 +2707,9 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>1</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2">
         <v>1</v>
       </c>
@@ -2749,7 +2722,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2772,7 +2745,7 @@
         <v>9</v>
       </c>
       <c r="AW10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2829,16 +2802,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BQ10" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="BR10" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="BS10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11">
@@ -2846,31 +2819,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2882,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2891,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2900,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2915,30 +2888,26 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AH11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AO11" s="2">
         <v>0</v>
@@ -2948,17 +2917,17 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45310</v>
+        <v>45418</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW11" s="2">
         <v>5</v>
@@ -2985,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -3018,16 +2987,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ11" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR11" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS11" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12">
@@ -3035,43 +3004,43 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1">
-        <v>45329</v>
+        <v>45357</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -3080,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3089,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3104,11 +3073,9 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3123,36 +3090,36 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45336</v>
+        <v>45371</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -3170,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -3203,16 +3170,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ12" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR12" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS12" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13">
@@ -3220,49 +3187,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3274,37 +3241,43 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
       <c r="AC13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
+      <c r="AI13" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AO13" s="2">
         <v>0</v>
@@ -3314,41 +3287,41 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -3384,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR13" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS13" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14">
@@ -3401,40 +3374,40 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
@@ -3455,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3470,16 +3443,14 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC14" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3489,7 +3460,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AO14" s="2">
         <v>0</v>
@@ -3499,32 +3470,32 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45418</v>
+        <v>45369</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3542,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="BG14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3569,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ14" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15">
@@ -3586,35 +3557,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45294</v>
+      </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3638,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3653,7 +3626,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -3666,43 +3639,45 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3744,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR15" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS15" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16">
@@ -3761,43 +3736,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1">
-        <v>45357</v>
+        <v>45328</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3806,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3815,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3830,9 +3805,11 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -3847,36 +3824,36 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -3894,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -3927,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ16" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR16" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS16" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17">
@@ -3947,28 +3924,28 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1">
         <v>45294</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3977,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -3998,35 +3975,45 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>1</v>
+      </c>
       <c r="AC17" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
+      <c r="AH17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>1</v>
+      </c>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AO17" s="2">
         <v>0</v>
@@ -4036,20 +4023,20 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AW17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -4058,13 +4045,13 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>1</v>
       </c>
       <c r="BB17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="2">
         <v>0</v>
@@ -4073,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -4106,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ17" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR17" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS17" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18">
@@ -4126,34 +4113,34 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1">
-        <v>45323</v>
+        <v>45295</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -4177,28 +4164,24 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4209,25 +4192,27 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>1</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW18" s="2">
         <v>3</v>
@@ -4257,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4287,16 +4272,16 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ18" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR18" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS18" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19">
@@ -4304,49 +4289,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1">
-        <v>45328</v>
+        <v>45357</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4358,30 +4343,26 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -4392,7 +4373,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AO19" s="2">
         <v>0</v>
@@ -4408,20 +4389,20 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
         <v>0</v>
@@ -4433,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
         <v>0</v>
@@ -4472,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ19" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR19" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS19" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20">
@@ -4489,31 +4470,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1">
         <v>45294</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4543,13 +4524,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="U20" s="2">
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4560,7 +4541,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -4575,7 +4556,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AO20" s="2">
         <v>0</v>
@@ -4655,16 +4636,16 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ20" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR20" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS20" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21">
@@ -4672,37 +4653,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="1">
-        <v>45295</v>
+        <v>45329</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4726,24 +4707,30 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="AB21" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4754,17 +4741,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AO21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4774,11 +4761,11 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW21" s="2">
         <v>4</v>
       </c>
-      <c r="AW21" s="2">
-        <v>3</v>
-      </c>
       <c r="AX21" s="2">
         <v>1</v>
       </c>
@@ -4786,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -4804,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4834,16 +4821,16 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ21" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR21" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS21" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -4854,28 +4841,28 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1">
         <v>45294</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4905,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4922,9 +4909,11 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD22" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -4935,7 +4924,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AO22" s="2">
         <v>0</v>
@@ -4967,10 +4956,10 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -5015,16 +5004,16 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ22" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR22" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS22" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23">
@@ -5035,37 +5024,35 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="1">
-        <v>45294</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -5086,47 +5073,37 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>1</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
@@ -5138,26 +5115,26 @@
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -5169,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -5202,16 +5179,16 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ23" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR23" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS23" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24">
@@ -5219,31 +5196,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1">
         <v>45294</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -5273,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="U24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5290,11 +5267,9 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
@@ -5305,7 +5280,7 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AO24" s="2">
         <v>0</v>
@@ -5337,10 +5312,10 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -5385,16 +5360,16 @@
         <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ24" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR24" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS24" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25">
@@ -5402,31 +5377,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -5444,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -5456,39 +5431,45 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
+      <c r="AG25" s="2">
+        <v>1</v>
+      </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
+      <c r="AJ25" s="2">
+        <v>1</v>
+      </c>
       <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
+      <c r="AL25" s="2">
+        <v>1</v>
+      </c>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AO25" s="2">
         <v>0</v>
@@ -5498,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45369</v>
+        <v>45309</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5508,10 +5489,10 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX25" s="2">
         <v>0</v>
@@ -5529,16 +5510,16 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5568,16 +5549,16 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ25" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR25" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS25" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26">
@@ -5585,49 +5566,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -5639,55 +5620,47 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2">
-        <v>1</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45309</v>
+        <v>45345</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5697,31 +5670,31 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE26" s="2">
         <v>0</v>
@@ -5757,16 +5730,16 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="BQ26" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BR26" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BS26" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -13,116 +13,137 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="314">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>600467</t>
+  </si>
+  <si>
+    <t>600330</t>
+  </si>
+  <si>
     <t>600342</t>
   </si>
   <si>
+    <t>600303</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600353</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
     <t>600369</t>
   </si>
   <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600353</t>
-  </si>
-  <si>
-    <t>600303</t>
-  </si>
-  <si>
-    <t>600467</t>
-  </si>
-  <si>
-    <t>600330</t>
-  </si>
-  <si>
-    <t>600354</t>
-  </si>
-  <si>
     <t>600424</t>
   </si>
   <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
     <t>600453</t>
   </si>
   <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
     <t>600397</t>
   </si>
   <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Westwood</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
@@ -138,18 +159,6 @@
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>Carthage</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -180,6 +189,9 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Hamilton County</t>
   </si>
   <si>
@@ -201,9 +213,6 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Ohio</t>
   </si>
   <si>
@@ -219,6 +228,12 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Ohio</t>
   </si>
   <si>
@@ -231,6 +246,9 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>cotton; syringe</t>
   </si>
   <si>
@@ -240,477 +258,507 @@
     <t>unknown</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>multiple methods</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>spatula</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>multiple methods</t>
-  </si>
-  <si>
-    <t>cotton</t>
+    <t>consumed</t>
+  </si>
+  <si>
+    <t>expectedsubstance</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>expect_opioid</t>
+  </si>
+  <si>
+    <t>expect_fentanyl</t>
+  </si>
+  <si>
+    <t>expect_xylazine</t>
+  </si>
+  <si>
+    <t>expect_stimulant</t>
+  </si>
+  <si>
+    <t>expect_benzo</t>
+  </si>
+  <si>
+    <t>expect_meth</t>
+  </si>
+  <si>
+    <t>expect_cocaine</t>
+  </si>
+  <si>
+    <t>expect_cannabis</t>
+  </si>
+  <si>
+    <t>expect_hall</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>white; purple</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>bright_color</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>pill</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>lustre</t>
+  </si>
+  <si>
+    <t>sensations</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
+    <t>weird; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>sen_strength</t>
+  </si>
+  <si>
+    <t>sen_weird</t>
+  </si>
+  <si>
+    <t>sen_hall</t>
+  </si>
+  <si>
+    <t>sen_up</t>
+  </si>
+  <si>
+    <t>sen_down</t>
+  </si>
+  <si>
+    <t>sen_nice</t>
+  </si>
+  <si>
+    <t>sen_long</t>
+  </si>
+  <si>
+    <t>sen_burn</t>
+  </si>
+  <si>
+    <t>sen_skin</t>
+  </si>
+  <si>
+    <t>sen_seizure</t>
+  </si>
+  <si>
+    <t>overdose</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
+    <t>not overdose related</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
+    <t>not overdose related</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>consumed</t>
-  </si>
-  <si>
-    <t>expectedsubstance</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>expect_opioid</t>
-  </si>
-  <si>
-    <t>expect_fentanyl</t>
-  </si>
-  <si>
-    <t>expect_xylazine</t>
-  </si>
-  <si>
-    <t>expect_stimulant</t>
-  </si>
-  <si>
-    <t>expect_benzo</t>
-  </si>
-  <si>
-    <t>expect_meth</t>
-  </si>
-  <si>
-    <t>expect_cocaine</t>
-  </si>
-  <si>
-    <t>expect_cannabis</t>
-  </si>
-  <si>
-    <t>expect_hall</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>bright_color</t>
-  </si>
-  <si>
-    <t>texture</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>tar</t>
-  </si>
-  <si>
-    <t>pill</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>lustre</t>
-  </si>
-  <si>
-    <t>sensations</t>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>sen_strength</t>
-  </si>
-  <si>
-    <t>sen_weird</t>
-  </si>
-  <si>
-    <t>sen_hall</t>
-  </si>
-  <si>
-    <t>sen_up</t>
-  </si>
-  <si>
-    <t>sen_down</t>
-  </si>
-  <si>
-    <t>sen_nice</t>
-  </si>
-  <si>
-    <t>sen_long</t>
-  </si>
-  <si>
-    <t>sen_burn</t>
-  </si>
-  <si>
-    <t>sen_skin</t>
-  </si>
-  <si>
-    <t>sen_seizure</t>
-  </si>
-  <si>
-    <t>overdose</t>
-  </si>
-  <si>
     <t>not overdose related</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
     <t>involved in OD</t>
   </si>
   <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>od</t>
   </si>
   <si>
@@ -831,6 +879,9 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
@@ -864,10 +915,16 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>061</t>
   </si>
   <si>
     <t>countyfips</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -945,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS26"/>
+  <dimension ref="A1:BS27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -953,214 +1010,214 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="N1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Q1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="R1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="S1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="T1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="U1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="V1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="W1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="Z1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="AB1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="AC1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AD1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="AE1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="AF1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="AG1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="AH1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AI1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AJ1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="AK1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="AL1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AM1" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="AN1" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AO1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="AP1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="AQ1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="AR1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="AS1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="AT1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="AU1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="AV1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="AW1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="AX1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="AY1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="AZ1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="BA1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="BB1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="BC1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="BD1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="BE1" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="BF1" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="BG1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="BH1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="BI1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="BJ1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="BK1" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="BL1" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="BM1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="BN1" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="BO1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="BP1" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="BQ1" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="BR1" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="BS1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
@@ -1168,31 +1225,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -1201,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -1213,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -1222,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1239,14 +1296,12 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="AD2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -1256,7 +1311,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -1276,10 +1331,10 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -1303,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -1336,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="BQ2" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="BR2" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="BS2" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
@@ -1353,31 +1408,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1">
         <v>45405</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -1386,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1407,41 +1462,43 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1461,10 +1518,10 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AW3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1473,28 +1530,28 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1521,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="BQ3" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="BR3" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="BS3" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
@@ -1538,31 +1595,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1">
         <v>45405</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1571,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1583,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1592,39 +1649,41 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="AD4" s="2">
         <v>1</v>
       </c>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="AO4" s="2">
         <v>0</v>
@@ -1640,14 +1699,14 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW4" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1665,19 +1724,19 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1704,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="BQ4" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="BR4" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="BS4" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
@@ -1721,49 +1780,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1">
         <v>45405</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1775,27 +1834,29 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1805,46 +1866,48 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>223</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
         <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
         <v>1</v>
@@ -1883,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="BQ5" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="BR5" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="BS5" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6">
@@ -1900,49 +1963,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1">
         <v>45405</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1954,24 +2017,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2">
@@ -1986,7 +2049,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1996,50 +2059,50 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -2066,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="BQ6" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="BR6" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="BS6" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7">
@@ -2083,31 +2146,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1">
         <v>45405</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2137,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2154,11 +2217,9 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -2169,17 +2230,15 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -2189,13 +2248,13 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
         <v>1</v>
@@ -2213,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
         <v>0</v>
@@ -2249,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="BQ7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="BR7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="BS7" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8">
@@ -2266,31 +2325,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1">
-        <v>45405</v>
+        <v>45413</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2299,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -2320,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2335,28 +2394,24 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -2366,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2376,10 +2431,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW8" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2388,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -2403,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>1</v>
       </c>
       <c r="BG8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2436,16 +2491,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="BQ8" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="BR8" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="BS8" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9">
@@ -2453,31 +2508,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1">
         <v>45405</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2486,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2507,39 +2562,39 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2555,11 +2610,11 @@
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="2">
         <v>4</v>
@@ -2571,28 +2626,28 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2619,16 +2674,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="BQ9" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="BR9" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="BS9" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
@@ -2636,31 +2691,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1">
         <v>45405</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2669,10 +2724,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2681,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2690,39 +2745,41 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AG10" s="2">
+        <v>1</v>
+      </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
+      <c r="AJ10" s="2">
+        <v>1</v>
+      </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2742,7 +2799,7 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW10" s="2">
         <v>6</v>
@@ -2763,19 +2820,19 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2802,16 +2859,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="BQ10" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="BR10" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="BS10" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11">
@@ -2819,31 +2876,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1">
         <v>45405</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2873,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2890,11 +2947,9 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>1</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2">
         <v>1</v>
       </c>
@@ -2907,7 +2962,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AO11" s="2">
         <v>0</v>
@@ -2917,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2927,10 +2982,10 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2987,16 +3042,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="BQ11" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="BR11" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="BS11" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12">
@@ -3004,31 +3059,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1">
         <v>45357</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3046,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3058,28 +3113,26 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -3090,17 +3143,17 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="AO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3131,16 +3184,16 @@
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -3170,16 +3223,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ12" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR12" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS12" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13">
@@ -3187,40 +3240,38 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45294</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -3241,47 +3292,37 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>1</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
@@ -3293,26 +3334,26 @@
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -3324,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3357,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ13" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR13" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS13" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14">
@@ -3374,31 +3415,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1">
-        <v>45357</v>
+        <v>45295</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3410,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -3419,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3428,26 +3469,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -3460,42 +3497,42 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="AO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3507,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
         <v>1</v>
@@ -3540,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ14" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR14" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS14" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15">
@@ -3557,31 +3594,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1">
         <v>45294</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3611,22 +3648,24 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -3639,7 +3678,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AO15" s="2">
         <v>0</v>
@@ -3649,20 +3688,20 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3674,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3686,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3719,16 +3758,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ15" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR15" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS15" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16">
@@ -3736,49 +3775,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3790,41 +3829,45 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
+      <c r="AG16" s="2">
+        <v>1</v>
+      </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
+      <c r="AL16" s="2">
+        <v>1</v>
+      </c>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -3834,26 +3877,26 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45372</v>
+        <v>45309</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
@@ -3865,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3904,16 +3947,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ16" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR16" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS16" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17">
@@ -3921,31 +3964,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1">
         <v>45294</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3975,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3994,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -4013,7 +4056,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AO17" s="2">
         <v>0</v>
@@ -4093,16 +4136,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ17" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR17" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS17" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18">
@@ -4110,37 +4153,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
@@ -4164,24 +4207,28 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="U18" s="2">
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD18" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -4192,10 +4239,10 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="AO18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
@@ -4208,11 +4255,11 @@
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW18" s="2">
         <v>3</v>
@@ -4242,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -4272,16 +4319,16 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ18" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR18" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS18" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19">
@@ -4289,49 +4336,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4343,37 +4390,43 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2">
+        <v>1</v>
+      </c>
       <c r="AC19" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
+      <c r="AI19" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AO19" s="2">
         <v>0</v>
@@ -4383,41 +4436,41 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
         <v>0</v>
@@ -4453,16 +4506,16 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ19" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR19" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS19" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20">
@@ -4470,31 +4523,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4503,10 +4556,10 @@
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4515,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4524,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4541,22 +4594,24 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AO20" s="2">
         <v>0</v>
@@ -4566,20 +4621,20 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45310</v>
+        <v>45418</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4603,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -4636,16 +4691,16 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ20" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR20" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS20" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21">
@@ -4653,43 +4708,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1">
-        <v>45329</v>
+        <v>45357</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4698,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4707,13 +4762,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4726,11 +4781,9 @@
         <v>-1</v>
       </c>
       <c r="AC21" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4741,7 +4794,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AO21" s="2">
         <v>0</v>
@@ -4751,26 +4804,26 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
@@ -4788,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4821,16 +4874,16 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ21" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR21" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS21" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22">
@@ -4838,31 +4891,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4892,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4907,9 +4960,11 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="AB22" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC22" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -4924,7 +4979,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AO22" s="2">
         <v>0</v>
@@ -4934,17 +4989,17 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW22" s="2">
         <v>3</v>
@@ -4956,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -5004,16 +5059,16 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ22" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR22" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS22" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23">
@@ -5021,35 +5076,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45294</v>
+      </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -5073,37 +5130,43 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="2">
+        <v>1</v>
+      </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>229</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
@@ -5119,22 +5182,22 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -5146,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -5179,16 +5242,16 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ23" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR23" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS23" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24">
@@ -5196,31 +5259,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F24" s="1">
-        <v>45294</v>
+        <v>45329</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -5250,13 +5313,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5265,11 +5328,15 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC24" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD24" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
@@ -5280,7 +5347,7 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="AO24" s="2">
         <v>0</v>
@@ -5290,20 +5357,20 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -5360,16 +5427,16 @@
         <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ24" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR24" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS24" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25">
@@ -5377,49 +5444,49 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5431,55 +5498,47 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2">
-        <v>1</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
-      <c r="AL25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>0</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45309</v>
+        <v>45345</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5489,31 +5548,31 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
         <v>0</v>
@@ -5549,16 +5608,16 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ25" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR25" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS25" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26">
@@ -5566,31 +5625,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5620,28 +5679,24 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -5652,28 +5707,30 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45345</v>
+        <v>45316</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW26" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -5682,13 +5739,13 @@
         <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="2">
         <v>1</v>
       </c>
       <c r="BB26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC26" s="2">
         <v>0</v>
@@ -5697,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="2">
         <v>0</v>
@@ -5730,16 +5787,199 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="BQ26" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="BR26" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="BS26" t="s">
-        <v>294</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45357</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>168</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>195</v>
+      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>45371</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>289</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>301</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,185 +13,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="487" uniqueCount="149">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600303</t>
+  </si>
+  <si>
     <t>600467</t>
   </si>
   <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
     <t>600330</t>
   </si>
   <si>
     <t>600342</t>
   </si>
   <si>
-    <t>600303</t>
-  </si>
-  <si>
     <t>600354</t>
   </si>
   <si>
     <t>600353</t>
   </si>
   <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
     <t>600424</t>
   </si>
   <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
     <t>600438</t>
   </si>
   <si>
-    <t>600391</t>
-  </si>
-  <si>
     <t>600324</t>
   </si>
   <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600345</t>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600397</t>
   </si>
   <si>
     <t>600336</t>
   </si>
   <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t/>
+    <t>Westwood</t>
   </si>
   <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Westwood</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Hamilton County</t>
   </si>
   <si>
@@ -204,156 +129,36 @@
     <t>full_state</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Ohio</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
     <t>date_collect</t>
   </si>
   <si>
     <t>sampletype</t>
   </si>
   <si>
+    <t>cotton; syringe</t>
+  </si>
+  <si>
     <t>cotton</t>
   </si>
   <si>
     <t>swab</t>
   </si>
   <si>
-    <t>cotton; syringe</t>
-  </si>
-  <si>
-    <t>cotton</t>
+    <t>spatula</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>multiple methods</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>cotton</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>consumed</t>
   </si>
   <si>
@@ -363,57 +168,18 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
     <t>heroin; fentanyl; xylazine; crack</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -447,258 +213,108 @@
     <t>color</t>
   </si>
   <si>
-    <t/>
+    <t>white; purple</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
+    <t>purple</t>
   </si>
   <si>
     <t>tan</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t/>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>tan; white</t>
   </si>
   <si>
     <t>pink; blue; green</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>light tan</t>
   </si>
   <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>powder; shiny</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
     <t>pill</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
     <t>plant</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>lustre</t>
   </si>
   <si>
     <t>sensations</t>
   </si>
   <si>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
     <t>unpleasant; sedating</t>
   </si>
   <si>
     <t>weird; stronger; sedating; unusual taste</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
     <t>weird; sedating; unusual taste</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
     <t>nice; long; more down; sedating</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>nice; stronger; sedating</t>
   </si>
   <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -735,30 +351,9 @@
     <t>not overdose related</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>involved in OD</t>
   </si>
   <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>not overdose related</t>
-  </si>
-  <si>
-    <t>involved in OD</t>
-  </si>
-  <si>
     <t>od</t>
   </si>
   <si>
@@ -852,106 +447,16 @@
     <t>statefips</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
     <t>countyfips_3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>061</t>
   </si>
   <si>
     <t>countyfips</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>39061</t>
@@ -960,7 +465,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1001,8 +506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1013,211 +521,211 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="V1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AP1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AQ1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>134</v>
       </c>
-      <c r="L1" t="s">
+      <c r="BK1" t="s">
         <v>135</v>
       </c>
-      <c r="M1" t="s">
+      <c r="BL1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" t="s">
+      <c r="BM1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
+      <c r="BN1" t="s">
         <v>138</v>
       </c>
-      <c r="P1" t="s">
+      <c r="BO1" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="BP1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" t="s">
-        <v>141</v>
-      </c>
-      <c r="S1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="BQ1" t="s">
         <v>143</v>
       </c>
-      <c r="U1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V1" t="s">
-        <v>170</v>
-      </c>
-      <c r="W1" t="s">
-        <v>196</v>
-      </c>
-      <c r="X1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>278</v>
-      </c>
       <c r="BR1" t="s">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="BS1" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
@@ -1228,28 +736,28 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -1279,39 +787,39 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="AD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -1327,14 +835,14 @@
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -1352,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -1391,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ2" t="s">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="BR2" t="s">
-        <v>291</v>
+        <v>29</v>
       </c>
       <c r="BS2" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1411,46 +919,46 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1">
         <v>45405</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1462,26 +970,24 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2">
@@ -1489,16 +995,14 @@
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1508,26 +1012,26 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1539,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1578,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ3" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="BR3" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="BS3" t="s">
-        <v>304</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1595,31 +1099,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>45405</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1628,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1640,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1649,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1666,14 +1170,12 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="AD4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1683,7 +1185,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="AO4" s="2">
         <v>0</v>
@@ -1703,10 +1205,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW4" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1730,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1763,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ4" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="BR4" t="s">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="BS4" t="s">
-        <v>305</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1780,49 +1282,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
-        <v>45405</v>
+        <v>45413</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1834,29 +1336,29 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1866,7 +1368,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1876,47 +1378,47 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1946,16 +1448,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ5" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="BR5" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="BS5" t="s">
-        <v>306</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1963,31 +1465,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
         <v>45405</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1996,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -2017,39 +1519,41 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
+      <c r="AJ6" s="2">
+        <v>1</v>
+      </c>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -2069,10 +1573,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AW6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -2081,28 +1585,28 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -2129,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ6" t="s">
-        <v>283</v>
+        <v>29</v>
       </c>
       <c r="BR6" t="s">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="BS6" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -2146,31 +1650,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>45405</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2179,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -2200,13 +1704,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2215,30 +1719,38 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC7" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -2251,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -2272,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -2308,16 +1820,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ7" t="s">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="BR7" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="BS7" t="s">
-        <v>308</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -2325,31 +1837,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
-        <v>45413</v>
+        <v>45405</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2358,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -2370,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -2379,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2396,12 +1908,14 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -2411,7 +1925,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -2421,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45422</v>
+        <v>45420</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2431,11 +1945,11 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
+        <v>9</v>
+      </c>
+      <c r="AW8" s="2">
         <v>7</v>
       </c>
-      <c r="AW8" s="2">
-        <v>4</v>
-      </c>
       <c r="AX8" s="2">
         <v>1</v>
       </c>
@@ -2458,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>1</v>
       </c>
       <c r="BG8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2491,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ8" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="BR8" t="s">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="BS8" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -2508,31 +2022,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
         <v>45405</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2541,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2562,39 +2076,39 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AH9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2610,11 +2124,11 @@
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW9" s="2">
         <v>4</v>
@@ -2626,28 +2140,28 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2674,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ9" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="BR9" t="s">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="BS9" t="s">
-        <v>310</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -2691,105 +2205,99 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
         <v>45405</v>
       </c>
       <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
         <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>152</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
-        <v>178</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2799,13 +2307,13 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AW10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
         <v>1</v>
@@ -2820,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
         <v>1</v>
@@ -2859,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ10" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="BR10" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="BS10" t="s">
-        <v>311</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -2876,31 +2384,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
         <v>45405</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2930,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2947,7 +2455,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2">
@@ -2962,7 +2470,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="AO11" s="2">
         <v>0</v>
@@ -3042,16 +2550,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="BQ11" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="BR11" t="s">
-        <v>300</v>
+        <v>29</v>
       </c>
       <c r="BS11" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -3059,49 +2567,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3113,24 +2621,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -3143,7 +2649,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -3153,47 +2659,47 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45372</v>
+        <v>45316</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -3223,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ12" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR12" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS12" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
@@ -3240,35 +2746,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45294</v>
+      </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3292,22 +2800,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -3320,9 +2830,11 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>242</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
@@ -3338,16 +2850,16 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -3365,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -3398,16 +2910,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ13" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR13" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS13" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -3415,37 +2927,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1">
-        <v>45295</v>
+        <v>45323</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -3469,24 +2981,28 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD14" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -3497,27 +3013,25 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>243</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
         <v>3</v>
@@ -3547,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3577,16 +3091,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ14" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR14" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS14" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -3594,37 +3108,35 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45294</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3648,24 +3160,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -3678,11 +3188,9 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>244</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
@@ -3698,16 +3206,16 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -3725,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3758,16 +3266,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ15" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR15" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS15" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
@@ -3775,31 +3283,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1">
         <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3829,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3846,7 +3354,7 @@
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2">
@@ -3867,7 +3375,7 @@
       </c>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -3947,16 +3455,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ16" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR16" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS16" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
@@ -3964,31 +3472,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
       </c>
       <c r="F17" s="1">
         <v>45294</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3997,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -4018,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4033,30 +3541,24 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD17" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AO17" s="2">
         <v>0</v>
@@ -4076,10 +3578,10 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -4136,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ17" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR17" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS17" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -4153,31 +3655,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1">
         <v>45294</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4207,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="U18" s="2">
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4224,22 +3726,22 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
+      <c r="AH18" s="2">
+        <v>1</v>
+      </c>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AO18" s="2">
         <v>0</v>
@@ -4319,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ18" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR18" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS18" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
@@ -4336,31 +3838,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1">
         <v>45294</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -4390,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4409,24 +3911,26 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
+      <c r="AH19" s="2">
+        <v>1</v>
+      </c>
       <c r="AI19" s="2">
         <v>1</v>
       </c>
-      <c r="AJ19" s="2"/>
+      <c r="AJ19" s="2">
+        <v>1</v>
+      </c>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AO19" s="2">
         <v>0</v>
@@ -4442,11 +3946,11 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW19" s="2">
         <v>5</v>
@@ -4506,16 +4010,16 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ19" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR19" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS19" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
@@ -4523,40 +4027,40 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
@@ -4565,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4577,31 +4081,27 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4611,7 +4111,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AO20" s="2">
         <v>0</v>
@@ -4621,50 +4121,50 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45418</v>
+        <v>45372</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -4691,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ20" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR20" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS20" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -4708,80 +4208,76 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45295</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="1">
-        <v>45357</v>
-      </c>
-      <c r="G21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>163</v>
-      </c>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -4794,42 +4290,42 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="AO21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -4841,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
         <v>1</v>
@@ -4874,16 +4370,16 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ21" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR21" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS21" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
@@ -4891,31 +4387,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4945,13 +4441,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4964,7 +4460,7 @@
         <v>-1</v>
       </c>
       <c r="AC22" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -4979,7 +4475,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AO22" s="2">
         <v>0</v>
@@ -4989,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45372</v>
+        <v>45336</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -4999,10 +4495,10 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -5059,16 +4555,16 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ22" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR22" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS22" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23">
@@ -5076,31 +4572,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45328</v>
+      </c>
+      <c r="G23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="1">
-        <v>45294</v>
-      </c>
-      <c r="G23" t="s">
-        <v>90</v>
-      </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -5130,13 +4626,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="U23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5145,24 +4641,26 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="AB23" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC23" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD23" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AO23" s="2">
         <v>0</v>
@@ -5172,17 +4670,17 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW23" s="2">
         <v>3</v>
@@ -5194,10 +4692,10 @@
         <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -5242,16 +4740,16 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ23" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR23" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS23" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
@@ -5259,31 +4757,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1">
-        <v>45329</v>
+        <v>45405</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -5292,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -5304,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -5313,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5328,16 +4826,16 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="AD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -5347,7 +4845,7 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AO24" s="2">
         <v>0</v>
@@ -5357,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45336</v>
+        <v>45418</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5367,11 +4865,11 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
+        <v>10</v>
+      </c>
+      <c r="AW24" s="2">
         <v>5</v>
       </c>
-      <c r="AW24" s="2">
-        <v>4</v>
-      </c>
       <c r="AX24" s="2">
         <v>1</v>
       </c>
@@ -5379,10 +4877,10 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -5394,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -5427,16 +4925,16 @@
         <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ24" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR24" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS24" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25">
@@ -5444,43 +4942,43 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1">
-        <v>45323</v>
+        <v>45357</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -5489,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -5498,13 +4996,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5513,13 +5011,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="AB25" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC25" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -5530,15 +5028,17 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO25" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>0</v>
+      </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45345</v>
+        <v>45369</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5548,22 +5048,22 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5575,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5608,16 +5108,16 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ25" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR25" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS25" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
@@ -5625,43 +5125,43 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -5670,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -5679,24 +5179,28 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD26" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -5707,45 +5211,45 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="AO26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45316</v>
+        <v>45371</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="2">
         <v>0</v>
       </c>
       <c r="BA26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC26" s="2">
         <v>0</v>
@@ -5787,16 +5291,16 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ26" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR26" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS26" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27">
@@ -5804,43 +5308,43 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
@@ -5849,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -5858,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -5873,59 +5377,63 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
+      <c r="AB27" s="2">
+        <v>1</v>
+      </c>
       <c r="AC27" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="AD27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
+      <c r="AI27" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="AO27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
       </c>
       <c r="AT27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW27" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="2">
         <v>0</v>
@@ -5937,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="2">
         <v>0</v>
@@ -5970,16 +5478,16 @@
         <v>0</v>
       </c>
       <c r="BP27" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="BQ27" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="BR27" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="BS27" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,10 +18,22 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600330</t>
+  </si>
+  <si>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600303</t>
+  </si>
+  <si>
     <t>600359</t>
   </si>
   <si>
-    <t>600303</t>
+    <t>600369</t>
   </si>
   <si>
     <t>600467</t>
@@ -30,87 +42,75 @@
     <t>600464</t>
   </si>
   <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600330</t>
-  </si>
-  <si>
     <t>600342</t>
   </si>
   <si>
-    <t>600354</t>
-  </si>
-  <si>
     <t>600353</t>
   </si>
   <si>
-    <t>600424</t>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600468</t>
   </si>
   <si>
     <t>600327</t>
   </si>
   <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
     <t>600306</t>
   </si>
   <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600391</t>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600397</t>
   </si>
   <si>
     <t>600373</t>
   </si>
   <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Westwood</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>Carthage</t>
   </si>
   <si>
@@ -138,12 +138,12 @@
     <t>sampletype</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
     <t>cotton; syringe</t>
   </si>
   <si>
-    <t>cotton</t>
-  </si>
-  <si>
     <t>swab</t>
   </si>
   <si>
@@ -165,18 +165,18 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
@@ -213,22 +213,25 @@
     <t>color</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
     <t>white; purple</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
-    <t>tan</t>
+    <t>light blue</t>
   </si>
   <si>
     <t>light purple</t>
   </si>
   <si>
-    <t>light blue</t>
+    <t>light tan</t>
   </si>
   <si>
     <t>tan; white</t>
@@ -237,27 +240,24 @@
     <t>pink; blue; green</t>
   </si>
   <si>
-    <t>light tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>powder; shiny</t>
   </si>
   <si>
@@ -279,40 +279,40 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
+    <t>weird; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>stronger; more down; sedating</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>normal; more up; long</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
     <t>weird; stronger; sedating; unusual taste</t>
   </si>
   <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>weird; sedating; unusual taste</t>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
   </si>
   <si>
     <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -593,7 +593,7 @@
         <v>85</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>86</v>
@@ -736,13 +736,13 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
@@ -751,7 +751,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -790,24 +790,28 @@
         <v>66</v>
       </c>
       <c r="U2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC2" t="s">
         <v>88</v>
       </c>
-      <c r="AD2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2">
@@ -835,14 +839,14 @@
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW2" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -851,28 +855,28 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -902,13 +906,13 @@
         <v>141</v>
       </c>
       <c r="BQ2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -919,22 +923,22 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>45405</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -943,13 +947,13 @@
         <v>51</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
@@ -958,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -970,21 +974,21 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>89</v>
@@ -1012,50 +1016,50 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1085,13 +1089,13 @@
         <v>141</v>
       </c>
       <c r="BQ3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -1102,22 +1106,22 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>45405</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1132,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1153,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1170,12 +1174,12 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1205,10 +1209,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1217,13 +1221,13 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1235,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1268,13 +1272,13 @@
         <v>141</v>
       </c>
       <c r="BQ4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1282,49 +1286,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1">
-        <v>45413</v>
+        <v>45405</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1336,29 +1340,29 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>90</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1378,47 +1382,47 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45422</v>
+        <v>45415</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
         <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1451,13 +1455,13 @@
         <v>141</v>
       </c>
       <c r="BQ5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1465,22 +1469,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>45405</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>47</v>
@@ -1489,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1525,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1537,18 +1541,16 @@
         <v>91</v>
       </c>
       <c r="AD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
@@ -1569,14 +1571,14 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1636,13 +1638,13 @@
         <v>141</v>
       </c>
       <c r="BQ6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1650,16 +1652,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1">
         <v>45405</v>
@@ -1668,13 +1670,13 @@
         <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1683,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1704,38 +1706,36 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>92</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
@@ -1760,10 +1760,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AW7" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1772,28 +1772,28 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -1823,13 +1823,13 @@
         <v>141</v>
       </c>
       <c r="BQ7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1837,25 +1837,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>45405</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -1870,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -1911,11 +1911,9 @@
         <v>93</v>
       </c>
       <c r="AD8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -1945,10 +1943,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW8" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -1972,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2008,13 +2006,13 @@
         <v>141</v>
       </c>
       <c r="BQ8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -2025,28 +2023,28 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
-        <v>45405</v>
+        <v>45413</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2055,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2076,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2093,12 +2091,12 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2118,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2128,7 +2126,7 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW9" s="2">
         <v>4</v>
@@ -2140,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="2">
         <v>0</v>
@@ -2161,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="BG9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2191,13 +2189,13 @@
         <v>141</v>
       </c>
       <c r="BQ9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -2208,28 +2206,28 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>45405</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2238,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2250,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2259,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2278,8 +2276,12 @@
       <c r="AC10" t="s">
         <v>94</v>
       </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2289,15 +2291,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2307,13 +2311,13 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
         <v>1</v>
@@ -2331,16 +2335,16 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2370,13 +2374,13 @@
         <v>141</v>
       </c>
       <c r="BQ10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -2384,25 +2388,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1">
         <v>45405</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2417,10 +2421,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2429,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2438,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2458,9 +2462,7 @@
         <v>95</v>
       </c>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2470,17 +2472,15 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2490,13 +2490,13 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
         <v>1</v>
@@ -2514,16 +2514,16 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2553,13 +2553,13 @@
         <v>141</v>
       </c>
       <c r="BQ11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BR11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BS11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2567,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -2582,16 +2582,16 @@
         <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2621,28 +2621,32 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
+      <c r="AH12" s="2">
+        <v>1</v>
+      </c>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
@@ -2659,20 +2663,20 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2681,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
         <v>0</v>
@@ -2696,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -2746,7 +2750,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -2758,37 +2762,37 @@
         <v>38</v>
       </c>
       <c r="F13" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2800,24 +2804,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -2840,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -2850,16 +2854,16 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
         <v>0</v>
@@ -2871,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
@@ -2927,7 +2931,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -2939,19 +2943,19 @@
         <v>38</v>
       </c>
       <c r="F14" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2981,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2998,7 +3002,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3013,15 +3017,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3108,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -3119,30 +3125,32 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>45405</v>
+      </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3151,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3160,25 +3168,31 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3188,40 +3202,42 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45310</v>
+        <v>45418</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3239,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3283,7 +3299,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -3294,20 +3310,18 @@
       <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3319,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3337,55 +3351,43 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3395,10 +3397,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
         <v>0</v>
@@ -3416,16 +3418,16 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -3484,19 +3486,19 @@
         <v>38</v>
       </c>
       <c r="F17" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3526,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3541,9 +3543,11 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -3568,17 +3572,17 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW17" s="2">
         <v>3</v>
@@ -3590,10 +3594,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3655,7 +3659,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -3670,16 +3674,16 @@
         <v>45294</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -3709,32 +3713,28 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
@@ -3751,20 +3751,20 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3773,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
         <v>1</v>
       </c>
       <c r="BB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="2">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -4027,7 +4027,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -4039,37 +4039,37 @@
         <v>38</v>
       </c>
       <c r="F20" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4081,31 +4081,37 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
       <c r="AC20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD20" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
+      <c r="AI20" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
@@ -4121,41 +4127,41 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4208,7 +4214,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -4220,7 +4226,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="1">
-        <v>45295</v>
+        <v>45323</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -4232,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -4262,24 +4268,28 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4290,27 +4300,25 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
         <v>3</v>
@@ -4340,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4387,7 +4395,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -4411,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4441,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4460,7 +4468,7 @@
         <v>-1</v>
       </c>
       <c r="AC22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -4572,7 +4580,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -4584,7 +4592,7 @@
         <v>38</v>
       </c>
       <c r="F23" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -4593,10 +4601,10 @@
         <v>44</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4626,13 +4634,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4641,15 +4649,11 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -4670,17 +4674,17 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW23" s="2">
         <v>3</v>
@@ -4757,7 +4761,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -4769,28 +4773,28 @@
         <v>38</v>
       </c>
       <c r="F24" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -4811,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4826,16 +4830,14 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -4855,32 +4857,32 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45418</v>
+        <v>45369</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -4898,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="BG24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -4942,7 +4944,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
@@ -4954,7 +4956,7 @@
         <v>38</v>
       </c>
       <c r="F25" s="1">
-        <v>45357</v>
+        <v>45295</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -4963,10 +4965,10 @@
         <v>45</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -4978,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -4987,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -4996,26 +4998,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="U25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
@@ -5028,42 +5026,42 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5075,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
         <v>1</v>
@@ -5125,7 +5123,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -5179,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
@@ -5196,7 +5194,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD26" s="2">
         <v>0</v>
@@ -5308,7 +5306,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -5323,10 +5321,10 @@
         <v>45294</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
@@ -5335,22 +5333,22 @@
         <v>52</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -5362,40 +5360,42 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>99</v>
       </c>
-      <c r="AD27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2">
+        <v>1</v>
+      </c>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
+      <c r="AG27" s="2">
+        <v>1</v>
+      </c>
       <c r="AH27" s="2"/>
-      <c r="AI27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2">
+        <v>1</v>
+      </c>
       <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
+      <c r="AL27" s="2">
+        <v>1</v>
+      </c>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
         <v>111</v>
@@ -5408,41 +5408,41 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW27" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="2">
         <v>0</v>
       </c>
       <c r="BC27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE27" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,84 +18,84 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600353</t>
+  </si>
+  <si>
+    <t>600303</t>
+  </si>
+  <si>
+    <t>600467</t>
+  </si>
+  <si>
     <t>600330</t>
   </si>
   <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
     <t>600424</t>
   </si>
   <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600303</t>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600397</t>
   </si>
   <si>
     <t>600359</t>
   </si>
   <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
     <t>600369</t>
   </si>
   <si>
-    <t>600467</t>
-  </si>
-  <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600342</t>
-  </si>
-  <si>
-    <t>600353</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -105,15 +105,15 @@
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
     <t>Westwood</t>
   </si>
   <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -141,18 +141,18 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>cotton; syringe</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -165,18 +165,18 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
     <t>heroin; fentanyl; xylazine; crack</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
@@ -216,48 +216,48 @@
     <t>white</t>
   </si>
   <si>
+    <t>light tan</t>
+  </si>
+  <si>
     <t>tan</t>
   </si>
   <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
     <t>white; purple</t>
   </si>
   <si>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
     <t>purple</t>
   </si>
   <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>powder; shiny</t>
   </si>
   <si>
@@ -279,40 +279,40 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>unpleasant; sedating</t>
   </si>
   <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
     <t>weird; sedating; unusual taste</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>nice; stronger; sedating</t>
   </si>
   <si>
     <t>stronger; more down; sedating</t>
   </si>
   <si>
     <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -587,13 +587,13 @@
         <v>84</v>
       </c>
       <c r="Y1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z1" t="s">
         <v>85</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB1" t="s">
         <v>86</v>
@@ -742,7 +742,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
@@ -802,38 +802,30 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>88</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -846,19 +838,19 @@
         <v>8</v>
       </c>
       <c r="AW2" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -867,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -920,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -929,7 +921,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1">
         <v>45405</v>
@@ -947,13 +939,13 @@
         <v>51</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
@@ -962,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -984,11 +976,11 @@
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>89</v>
@@ -1016,50 +1008,50 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1103,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1112,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1">
         <v>45405</v>
@@ -1136,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1157,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1174,12 +1166,12 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1209,10 +1201,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1221,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1239,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1313,22 +1305,22 @@
         <v>52</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1340,24 +1332,26 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2">
@@ -1365,7 +1359,9 @@
       </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
@@ -1382,26 +1378,26 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1413,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1469,31 +1465,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1523,32 +1519,30 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AH6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
@@ -1565,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1575,10 +1569,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1587,19 +1581,19 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
         <v>0</v>
@@ -1635,16 +1629,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BQ6" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="BR6" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="BS6" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
@@ -1652,25 +1646,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
         <v>45405</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1685,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1697,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1706,17 +1700,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1724,18 +1720,16 @@
         <v>92</v>
       </c>
       <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
@@ -1760,10 +1754,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1781,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -1820,16 +1814,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BQ7" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="BR7" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="BS7" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -1837,31 +1831,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
-        <v>45405</v>
+        <v>45328</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1891,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1906,9 +1900,11 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -1933,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45420</v>
+        <v>45372</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1943,7 +1939,7 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW8" s="2">
         <v>3</v>
@@ -1955,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -2003,16 +1999,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BQ8" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="BR8" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="BS8" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -2020,31 +2016,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
-        <v>45413</v>
+        <v>45405</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2053,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2074,13 +2070,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2091,12 +2087,12 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2116,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45422</v>
+        <v>45420</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2126,7 +2122,7 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW9" s="2">
         <v>4</v>
@@ -2138,13 +2134,13 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>1</v>
       </c>
       <c r="BB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="2">
         <v>0</v>
@@ -2159,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2186,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BQ9" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="BR9" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="BS9" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10">
@@ -2206,40 +2202,38 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1">
-        <v>45405</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2248,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2263,25 +2257,19 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2291,42 +2279,40 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2344,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="BG10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2371,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BQ10" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="BR10" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="BS10" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
@@ -2388,16 +2374,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
         <v>45405</v>
@@ -2421,10 +2407,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2433,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2448,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2459,10 +2445,14 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2472,15 +2462,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2490,13 +2482,13 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
         <v>1</v>
@@ -2514,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2550,16 +2542,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BQ11" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="BR11" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="BS11" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
@@ -2582,34 +2574,34 @@
         <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2621,36 +2613,42 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
         <v>78</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
+      <c r="AL12" s="2">
+        <v>1</v>
+      </c>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
         <v>111</v>
@@ -2663,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2673,31 +2671,31 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -2765,16 +2763,16 @@
         <v>45357</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -2810,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2931,7 +2929,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -2946,16 +2944,16 @@
         <v>45294</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2985,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U14" s="2">
         <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3002,15 +3000,15 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
+      <c r="AH14" s="2">
+        <v>1</v>
+      </c>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
@@ -3114,7 +3112,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -3126,19 +3124,19 @@
         <v>38</v>
       </c>
       <c r="F15" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3150,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3159,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3168,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3183,21 +3181,25 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
       <c r="AC15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
@@ -3212,17 +3214,17 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45418</v>
+        <v>45310</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AW15" s="2">
         <v>5</v>
@@ -3249,13 +3251,13 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3299,7 +3301,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -3310,24 +3312,26 @@
       <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>45413</v>
+      </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3351,24 +3355,28 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD16" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3379,40 +3387,42 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45310</v>
+        <v>45422</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3424,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
         <v>1</v>
@@ -3474,7 +3484,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -3486,13 +3496,13 @@
         <v>38</v>
       </c>
       <c r="F17" s="1">
-        <v>45328</v>
+        <v>45405</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -3507,10 +3517,10 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -3519,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -3528,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -3543,16 +3553,14 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -3572,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -3582,11 +3590,11 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
+        <v>9</v>
+      </c>
+      <c r="AW17" s="2">
         <v>6</v>
       </c>
-      <c r="AW17" s="2">
-        <v>3</v>
-      </c>
       <c r="AX17" s="2">
         <v>1</v>
       </c>
@@ -3594,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3609,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH17" s="2">
         <v>0</v>
@@ -3659,7 +3667,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -3671,19 +3679,19 @@
         <v>38</v>
       </c>
       <c r="F18" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -3713,24 +3721,28 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD18" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -3741,30 +3753,28 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45316</v>
+        <v>45345</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW18" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3773,13 +3783,13 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>1</v>
       </c>
       <c r="BB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="2">
         <v>0</v>
@@ -3788,10 +3798,10 @@
         <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -3838,7 +3848,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -3850,31 +3860,31 @@
         <v>38</v>
       </c>
       <c r="F19" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -3883,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -3892,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3908,24 +3918,18 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC19" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
@@ -3940,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -3950,22 +3954,22 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -3977,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4027,7 +4031,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -4042,16 +4046,16 @@
         <v>45294</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4081,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -4100,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="AC20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -4214,7 +4218,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -4226,31 +4230,31 @@
         <v>38</v>
       </c>
       <c r="F21" s="1">
-        <v>45323</v>
+        <v>45357</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4259,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4274,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4285,7 +4289,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -4300,15 +4304,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>1</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45345</v>
+        <v>45371</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4318,22 +4324,22 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -4345,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4395,7 +4401,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -4407,19 +4413,19 @@
         <v>38</v>
       </c>
       <c r="F22" s="1">
-        <v>45329</v>
+        <v>45405</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4449,34 +4455,32 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
+      <c r="AH22" s="2">
+        <v>1</v>
+      </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
@@ -4493,17 +4497,17 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45336</v>
+        <v>45420</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW22" s="2">
         <v>4</v>
@@ -4515,19 +4519,19 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
         <v>0</v>
@@ -4580,7 +4584,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -4595,16 +4599,16 @@
         <v>45294</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4634,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4651,9 +4655,11 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD23" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -4696,10 +4702,10 @@
         <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -4761,7 +4767,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -4773,31 +4779,31 @@
         <v>38</v>
       </c>
       <c r="F24" s="1">
-        <v>45357</v>
+        <v>45329</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4806,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -4821,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4834,9 +4840,11 @@
         <v>-1</v>
       </c>
       <c r="AC24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD24" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
@@ -4857,26 +4865,26 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45369</v>
+        <v>45336</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
         <v>0</v>
@@ -4894,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4959,16 +4967,16 @@
         <v>45295</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -4998,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U25" s="2">
         <v>1</v>
@@ -5135,31 +5143,31 @@
         <v>38</v>
       </c>
       <c r="F26" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -5168,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -5177,28 +5185,24 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -5209,45 +5213,45 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45371</v>
+        <v>45316</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
         <v>0</v>
       </c>
       <c r="BA26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC26" s="2">
         <v>0</v>
@@ -5306,7 +5310,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -5318,37 +5322,37 @@
         <v>38</v>
       </c>
       <c r="F27" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -5360,29 +5364,27 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>99</v>
       </c>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2">
         <v>1</v>
@@ -5393,9 +5395,7 @@
         <v>1</v>
       </c>
       <c r="AK27" s="2"/>
-      <c r="AL27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
         <v>111</v>
@@ -5408,32 +5408,32 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45309</v>
+        <v>45420</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
       </c>
       <c r="AT27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AW27" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -13,89 +13,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="487" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="519" uniqueCount="154">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>600330</t>
+  </si>
+  <si>
+    <t>600303</t>
+  </si>
+  <si>
     <t>600353</t>
   </si>
   <si>
-    <t>600303</t>
-  </si>
-  <si>
     <t>600467</t>
   </si>
   <si>
-    <t>600330</t>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600359</t>
   </si>
   <si>
     <t>600306</t>
   </si>
   <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600486</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600445</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
     <t>600342</t>
   </si>
   <si>
     <t>600468</t>
   </si>
   <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600373</t>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600424</t>
   </si>
   <si>
     <t>600438</t>
   </si>
   <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -105,15 +111,15 @@
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Westwood</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Westwood</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -141,18 +147,18 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>cotton; syringe</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>cotton; syringe</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -165,21 +171,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
     <t>heroin; fentanyl; xylazine; crack</t>
   </si>
   <si>
     <t>cocaine; crack</t>
   </si>
   <si>
+    <t>heroin; fentanyl</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -216,45 +225,45 @@
     <t>white</t>
   </si>
   <si>
+    <t>white; purple</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
     <t>light tan</t>
   </si>
   <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -264,6 +273,9 @@
     <t>powder; flaky; dull</t>
   </si>
   <si>
+    <t>powder; chalky</t>
+  </si>
+  <si>
     <t>tar</t>
   </si>
   <si>
@@ -279,40 +291,43 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
     <t>weird; stronger; sedating; unusual taste</t>
   </si>
   <si>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
     <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>more down; sedating; unusual taste</t>
   </si>
   <si>
     <t>nice; long; more down; sedating</t>
   </si>
   <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -507,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS27"/>
+  <dimension ref="A1:BS29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,214 +533,214 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Z1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AC1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AD1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AE1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AF1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AG1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AI1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AJ1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AK1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AL1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AM1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AN1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AO1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AP1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AQ1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AR1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AS1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AT1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AU1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AV1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AW1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AX1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AY1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AZ1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="BA1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BB1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="BC1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="BD1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="BE1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BF1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="BG1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="BH1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BI1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="BJ1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BK1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="BL1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BM1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="BN1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="BO1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="BP1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="BQ1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="BR1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="BS1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
@@ -733,31 +748,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -766,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -787,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -802,30 +817,38 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -838,19 +861,19 @@
         <v>8</v>
       </c>
       <c r="AW2" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -859,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -895,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="BQ2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BR2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BS2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -912,31 +935,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1">
         <v>45405</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -966,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -983,7 +1006,7 @@
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2">
@@ -998,7 +1021,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1078,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="BQ3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BR3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BS3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1095,31 +1118,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1">
         <v>45405</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1149,13 +1172,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1166,11 +1189,9 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1181,17 +1202,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1201,13 +1220,13 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
@@ -1225,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1261,16 +1280,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="BQ4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BR4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BS4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1278,31 +1297,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>45405</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1311,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1332,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1347,28 +1366,24 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1388,10 +1403,10 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW5" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
@@ -1400,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1415,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1448,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="BQ5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BR5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BS5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1465,31 +1480,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1498,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1510,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1519,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1536,10 +1551,14 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1549,7 +1568,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1559,20 +1578,20 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45310</v>
+        <v>45418</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1581,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1596,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -1629,16 +1648,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
@@ -1646,43 +1665,41 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45405</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1691,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1700,31 +1717,25 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1734,42 +1745,40 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1787,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="BG7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -1814,16 +1823,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8">
@@ -1831,95 +1840,93 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45405</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45328</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
-        <v>79</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -1929,20 +1936,20 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -1951,19 +1958,19 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -1999,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
@@ -2016,31 +2023,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2049,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2070,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2087,12 +2094,10 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2102,7 +2107,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO9" s="2">
         <v>0</v>
@@ -2112,20 +2117,20 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2137,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="2">
         <v>0</v>
@@ -2152,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2182,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -2199,35 +2204,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45413</v>
+      </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2251,24 +2258,28 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2279,40 +2290,42 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45310</v>
+        <v>45422</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2324,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>1</v>
@@ -2357,16 +2370,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -2374,25 +2387,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2401,13 +2414,13 @@
         <v>53</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
@@ -2416,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2428,41 +2441,45 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2">
         <v>1</v>
       </c>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AJ11" s="2">
+        <v>1</v>
+      </c>
       <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
+      <c r="AL11" s="2">
+        <v>1</v>
+      </c>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO11" s="2">
         <v>0</v>
@@ -2472,50 +2489,50 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45418</v>
+        <v>45309</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AW11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2542,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
@@ -2559,49 +2576,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2613,45 +2630,39 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2">
         <v>1</v>
       </c>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2661,50 +2672,50 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45309</v>
+        <v>45420</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -2731,16 +2742,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
@@ -2748,31 +2759,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1">
-        <v>45357</v>
+        <v>45295</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -2784,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2802,24 +2813,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -2832,57 +2841,57 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2912,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -2929,31 +2938,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>45294</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2962,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -2983,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2998,24 +3007,28 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
       <c r="AC14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD14" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO14" s="2">
         <v>0</v>
@@ -3031,14 +3044,14 @@
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3095,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ14" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR14" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS14" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -3112,31 +3125,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
         <v>45294</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3145,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -3166,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3181,11 +3194,9 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -3194,17 +3205,13 @@
       <c r="AH15" s="2">
         <v>1</v>
       </c>
-      <c r="AI15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO15" s="2">
         <v>0</v>
@@ -3224,10 +3231,10 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3284,16 +3291,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -3301,31 +3308,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>45413</v>
+        <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3355,28 +3362,24 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3387,7 +3390,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -3397,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45422</v>
+        <v>45316</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3407,10 +3410,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3419,13 +3422,13 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>1</v>
       </c>
       <c r="BB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="2">
         <v>0</v>
@@ -3434,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
         <v>1</v>
@@ -3467,16 +3470,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ16" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -3484,31 +3487,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3520,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -3529,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -3538,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3553,24 +3556,30 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>1</v>
+      </c>
       <c r="AC17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
+      <c r="AH17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>1</v>
+      </c>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO17" s="2">
         <v>0</v>
@@ -3580,20 +3589,20 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -3617,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH17" s="2">
         <v>0</v>
@@ -3650,16 +3659,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
@@ -3667,19 +3676,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G18" t="s">
         <v>43</v>
@@ -3691,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -3721,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -3738,7 +3747,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -3753,15 +3762,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -3831,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ18" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR18" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS18" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -3848,31 +3859,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1">
         <v>45357</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3902,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3921,7 +3932,7 @@
         <v>-1</v>
       </c>
       <c r="AC19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -3934,7 +3945,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO19" s="2">
         <v>0</v>
@@ -4014,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -4031,31 +4042,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4064,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4085,43 +4096,41 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2">
+        <v>1</v>
+      </c>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO20" s="2">
         <v>0</v>
@@ -4131,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4141,10 +4150,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AW20" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4162,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4201,16 +4210,16 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
@@ -4218,43 +4227,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>45357</v>
+        <v>45385</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4263,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4272,13 +4281,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4289,7 +4298,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -4304,17 +4313,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AO21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45371</v>
+        <v>45428</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4384,16 +4393,16 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ21" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR21" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
@@ -4404,19 +4413,19 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
         <v>47</v>
@@ -4425,19 +4434,19 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -4446,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -4455,49 +4464,49 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AO22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45420</v>
+        <v>45371</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -4507,37 +4516,37 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22" s="2">
         <v>0</v>
@@ -4567,16 +4576,16 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ22" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -4584,31 +4593,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>45294</v>
+        <v>45385</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4638,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4655,45 +4664,45 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
+      <c r="AK23" s="2">
+        <v>1</v>
+      </c>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW23" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX23" s="2">
         <v>1</v>
@@ -4750,16 +4759,16 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -4767,31 +4776,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1">
-        <v>45329</v>
+        <v>45323</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -4821,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4836,11 +4845,9 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -4855,30 +4862,28 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -4887,10 +4892,10 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -4935,16 +4940,16 @@
         <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ24" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR24" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25">
@@ -4952,19 +4957,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>45295</v>
+        <v>45405</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -4976,19 +4981,19 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -4997,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -5006,25 +5011,31 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="U25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -5034,17 +5045,17 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AO25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5054,10 +5065,10 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW25" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX25" s="2">
         <v>1</v>
@@ -5081,13 +5092,13 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
         <v>1</v>
       </c>
       <c r="BG25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -5114,16 +5125,16 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ25" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR25" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -5131,31 +5142,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5185,24 +5196,30 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
+      <c r="AB26" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC26" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD26" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -5213,7 +5230,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO26" s="2">
         <v>0</v>
@@ -5223,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45316</v>
+        <v>45372</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5233,10 +5250,10 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AW26" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -5248,10 +5265,10 @@
         <v>0</v>
       </c>
       <c r="BA26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC26" s="2">
         <v>0</v>
@@ -5260,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="2">
         <v>0</v>
@@ -5293,16 +5310,16 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BQ26" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BR26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BS26" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27">
@@ -5313,28 +5330,28 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F27" s="1">
-        <v>45405</v>
+        <v>45329</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -5364,41 +5381,41 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="U27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
+      <c r="AB27" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AD27" s="2">
         <v>0</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
-      <c r="AJ27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AO27" s="2">
         <v>0</v>
@@ -5408,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45420</v>
+        <v>45336</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5418,76 +5435,440 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AW27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45405</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>82</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>45420</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2">
+        <v>9</v>
+      </c>
+      <c r="AW28" s="2">
         <v>6</v>
       </c>
-      <c r="AX27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>142</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>144</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>146</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>148</v>
+      <c r="AX28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45357</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>69</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>81</v>
+      </c>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="2"/>
+      <c r="AC29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>45372</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,87 +18,87 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600467</t>
+  </si>
+  <si>
+    <t>600303</t>
+  </si>
+  <si>
+    <t>600353</t>
+  </si>
+  <si>
     <t>600330</t>
   </si>
   <si>
-    <t>600303</t>
-  </si>
-  <si>
-    <t>600353</t>
-  </si>
-  <si>
-    <t>600467</t>
+    <t>600486</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600397</t>
   </si>
   <si>
     <t>600453</t>
   </si>
   <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
     <t>600464</t>
   </si>
   <si>
     <t>600373</t>
   </si>
   <si>
+    <t>600445</t>
+  </si>
+  <si>
     <t>600354</t>
   </si>
   <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
     <t>600327</t>
   </si>
   <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600486</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600445</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600342</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
     <t>600438</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t/>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>Hamilton</t>
+    <t>Carthage</t>
   </si>
   <si>
     <t>Westwood</t>
   </si>
   <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -147,18 +147,18 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>cotton; syringe</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -171,24 +171,24 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>heroin; fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
   </si>
   <si>
     <t>heroin; fentanyl; xylazine; crack</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -225,43 +225,46 @@
     <t>white</t>
   </si>
   <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
     <t>white; purple</t>
   </si>
   <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>tan</t>
   </si>
   <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder</t>
+    <t>powder; flaky; dull</t>
   </si>
   <si>
     <t>powder; chunky</t>
@@ -270,9 +273,6 @@
     <t>powder; shiny</t>
   </si>
   <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
     <t>powder; chalky</t>
   </si>
   <si>
@@ -291,43 +291,43 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
     <t>unpleasant; sedating</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
   </si>
   <si>
     <t>weird; stronger; sedating; unusual taste</t>
   </si>
   <si>
-    <t>stronger; more down; sedating</t>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t>weird; sedating; unusual taste</t>
   </si>
   <si>
     <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -602,7 +602,7 @@
         <v>88</v>
       </c>
       <c r="Y1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
         <v>89</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
@@ -817,21 +817,17 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -858,10 +854,10 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -870,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -885,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -1142,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1178,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1202,7 +1198,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1330,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1351,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1366,17 +1362,21 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC5" t="s">
         <v>95</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
@@ -1403,11 +1403,11 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW5" s="2">
         <v>7</v>
       </c>
-      <c r="AW5" s="2">
-        <v>3</v>
-      </c>
       <c r="AX5" s="2">
         <v>1</v>
       </c>
@@ -1415,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1492,13 +1492,13 @@
         <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>45405</v>
+        <v>45385</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1551,14 +1551,12 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AD6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1578,32 +1576,32 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45418</v>
+        <v>45428</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1621,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="BG6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -1665,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1676,24 +1674,26 @@
       <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>45329</v>
+      </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1717,24 +1717,30 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1745,34 +1751,36 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -1790,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1852,19 +1860,19 @@
         <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1894,32 +1902,30 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="U8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
-      <c r="AH8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
@@ -1936,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1946,10 +1952,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -1958,19 +1964,19 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2023,7 +2029,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -2035,25 +2041,25 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2077,19 +2083,17 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
         <v>30</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
-        <v>82</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2107,10 +2111,10 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
@@ -2123,11 +2127,11 @@
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW9" s="2">
         <v>3</v>
@@ -2139,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2157,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2204,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2216,7 +2220,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>45413</v>
+        <v>45357</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2225,22 +2229,22 @@
         <v>46</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2249,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2264,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2273,13 +2277,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2300,32 +2304,32 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45422</v>
+        <v>45369</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2337,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>1</v>
@@ -2387,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -2399,37 +2403,37 @@
         <v>40</v>
       </c>
       <c r="F11" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2441,42 +2445,36 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2">
+        <v>1</v>
+      </c>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
-      <c r="AL11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
         <v>116</v>
@@ -2489,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45309</v>
+        <v>45420</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2499,22 +2497,22 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2591,10 +2589,10 @@
         <v>45405</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2609,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2630,34 +2628,36 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
@@ -2682,10 +2682,10 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AW12" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2694,28 +2694,28 @@
         <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>1</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -2771,25 +2771,25 @@
         <v>40</v>
       </c>
       <c r="F13" s="1">
-        <v>45295</v>
+        <v>45323</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -2813,24 +2813,28 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2841,27 +2845,25 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
         <v>3</v>
@@ -2891,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2938,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2950,7 +2952,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2971,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3008,21 +3010,19 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3048,10 +3048,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3060,10 +3060,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3137,19 +3137,19 @@
         <v>40</v>
       </c>
       <c r="F15" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3158,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3179,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="U15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3196,15 +3196,17 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
@@ -3221,20 +3223,20 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3258,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3362,28 +3364,32 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
@@ -3400,20 +3406,20 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3422,13 +3428,13 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>1</v>
       </c>
       <c r="BB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="2">
         <v>0</v>
@@ -3437,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -3487,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -3511,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3541,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3560,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="AC17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -3676,7 +3682,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -3691,10 +3697,10 @@
         <v>45294</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -3709,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -3733,10 +3739,10 @@
         <v>75</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -3745,18 +3751,22 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
       <c r="AC18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
+      <c r="AI18" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
@@ -3778,14 +3788,14 @@
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3870,20 +3880,18 @@
       <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="1">
-        <v>45357</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -3895,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -3904,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -3913,24 +3921,20 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>30</v>
       </c>
@@ -3945,17 +3949,15 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4042,7 +4044,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -4054,19 +4056,19 @@
         <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4102,30 +4104,28 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
@@ -4140,20 +4140,20 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW20" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4171,10 +4171,10 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4239,13 +4239,13 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>45385</v>
+        <v>45405</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -4260,10 +4260,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4281,13 +4281,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4298,12 +4298,12 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -4323,32 +4323,32 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45428</v>
+        <v>45420</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="BG21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21" s="2">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -4425,10 +4425,10 @@
         <v>45357</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4481,7 +4481,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -4605,13 +4605,13 @@
         <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>45385</v>
+        <v>45405</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -4626,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -4647,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4664,9 +4664,11 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD23" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
       <c r="AE23" s="2">
         <v>1</v>
       </c>
@@ -4675,21 +4677,21 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
-      <c r="AK23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45428</v>
+        <v>45418</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -4699,10 +4701,10 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AW23" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX23" s="2">
         <v>1</v>
@@ -4726,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH23" s="2">
         <v>0</v>
@@ -4776,7 +4778,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -4788,19 +4790,19 @@
         <v>40</v>
       </c>
       <c r="F24" s="1">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -4836,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4847,7 +4849,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -4862,28 +4864,30 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45345</v>
+        <v>45422</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -4910,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4957,7 +4961,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -4969,7 +4973,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -4981,16 +4985,16 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
         <v>1</v>
@@ -4999,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -5011,38 +5015,42 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2">
         <v>1</v>
       </c>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
+      <c r="AG25" s="2">
+        <v>1</v>
+      </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
+      <c r="AJ25" s="2">
+        <v>1</v>
+      </c>
       <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
+      <c r="AL25" s="2">
+        <v>1</v>
+      </c>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
         <v>116</v>
@@ -5055,50 +5063,50 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45420</v>
+        <v>45309</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW25" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
       </c>
       <c r="BC25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -5142,7 +5150,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -5154,19 +5162,19 @@
         <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>45328</v>
+        <v>45385</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5196,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -5211,36 +5219,34 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
+      <c r="AK26" s="2">
+        <v>1</v>
+      </c>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45372</v>
+        <v>45428</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5250,11 +5256,11 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW26" s="2">
         <v>6</v>
       </c>
-      <c r="AW26" s="2">
-        <v>3</v>
-      </c>
       <c r="AX26" s="2">
         <v>1</v>
       </c>
@@ -5262,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
@@ -5327,7 +5333,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -5339,13 +5345,13 @@
         <v>40</v>
       </c>
       <c r="F27" s="1">
-        <v>45329</v>
+        <v>45405</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
@@ -5360,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -5381,13 +5387,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -5396,16 +5402,14 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>95</v>
       </c>
-      <c r="AD27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2">
+        <v>1</v>
+      </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
@@ -5425,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45336</v>
+        <v>45420</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5435,7 +5439,7 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW27" s="2">
         <v>4</v>
@@ -5450,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="BA27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC27" s="2">
         <v>0</v>
@@ -5465,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="BF27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -5512,7 +5516,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -5524,7 +5528,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -5533,10 +5537,10 @@
         <v>43</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -5545,10 +5549,10 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5557,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -5572,23 +5576,19 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45420</v>
+        <v>45316</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AW28" s="2">
         <v>6</v>
@@ -5630,13 +5630,13 @@
         <v>1</v>
       </c>
       <c r="AZ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="2">
         <v>1</v>
       </c>
       <c r="BB28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28" s="2">
         <v>0</v>
@@ -5651,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="BG28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -5710,10 +5710,10 @@
         <v>45357</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -13,110 +13,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="519" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="548" uniqueCount="156">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>600303</t>
+  </si>
+  <si>
+    <t>600330</t>
+  </si>
+  <si>
     <t>600467</t>
   </si>
   <si>
-    <t>600303</t>
-  </si>
-  <si>
     <t>600353</t>
   </si>
   <si>
-    <t>600330</t>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600445</t>
+  </si>
+  <si>
+    <t>600327</t>
   </si>
   <si>
     <t>600486</t>
   </si>
   <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600342</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600445</t>
-  </si>
-  <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>Westwood</t>
   </si>
   <si>
@@ -147,18 +147,18 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>cotton; syringe</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>cotton; syringe</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -171,27 +171,27 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
   </si>
   <si>
     <t>heroin; fentanyl</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -225,27 +225,27 @@
     <t>white</t>
   </si>
   <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
     <t>pink; blue; green</t>
   </si>
   <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>white; purple</t>
   </si>
   <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
     <t>tan</t>
   </si>
   <si>
@@ -255,24 +255,24 @@
     <t>texture</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
   </si>
   <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
     <t>powder; chalky</t>
   </si>
   <si>
@@ -291,42 +291,42 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>unpleasant; sedating</t>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
   </si>
   <si>
     <t>stronger; more down; sedating</t>
   </si>
   <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
     <t>weird; sedating; unusual taste</t>
   </si>
   <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
     <t>unpleasant</t>
   </si>
   <si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>lab_ketamine</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
   <si>
     <t>state_county</t>
@@ -522,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS29"/>
+  <dimension ref="A1:BT29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -602,13 +608,13 @@
         <v>88</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z1" t="s">
         <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>90</v>
@@ -734,13 +740,16 @@
         <v>145</v>
       </c>
       <c r="BQ1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BR1" t="s">
         <v>150</v>
       </c>
       <c r="BS1" t="s">
         <v>152</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -775,22 +784,22 @@
         <v>52</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -812,19 +821,19 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -844,41 +853,41 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -917,12 +926,15 @@
         <v>146</v>
       </c>
       <c r="BQ2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="BR2" t="s">
         <v>30</v>
       </c>
       <c r="BS2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -958,22 +970,22 @@
         <v>53</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -985,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
@@ -995,12 +1007,14 @@
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC3" t="s">
         <v>93</v>
       </c>
@@ -1010,7 +1024,9 @@
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
@@ -1027,26 +1043,26 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1058,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1100,12 +1116,15 @@
         <v>146</v>
       </c>
       <c r="BQ3" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="BR3" t="s">
         <v>30</v>
       </c>
       <c r="BS3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1138,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1174,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1187,7 +1206,9 @@
       <c r="AC4" t="s">
         <v>94</v>
       </c>
-      <c r="AD4" s="2"/>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1198,15 +1219,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1216,13 +1239,13 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
@@ -1240,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1279,12 +1302,15 @@
         <v>146</v>
       </c>
       <c r="BQ4" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="BR4" t="s">
         <v>30</v>
       </c>
       <c r="BS4" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1326,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1347,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1362,38 +1388,30 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>95</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1406,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
         <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
@@ -1427,16 +1445,16 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1466,12 +1484,15 @@
         <v>146</v>
       </c>
       <c r="BQ5" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="BR5" t="s">
         <v>30</v>
       </c>
       <c r="BS5" t="s">
+        <v>30</v>
+      </c>
+      <c r="BT5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1492,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>45385</v>
+        <v>45328</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -1504,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1534,13 +1555,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1549,9 +1570,11 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1576,26 +1599,26 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45428</v>
+        <v>45372</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1613,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1646,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ6" t="s">
         <v>149</v>
@@ -1656,6 +1679,9 @@
       </c>
       <c r="BS6" t="s">
         <v>153</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -1675,19 +1701,19 @@
         <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>45329</v>
+        <v>45294</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1717,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1732,15 +1758,11 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1761,20 +1783,20 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45336</v>
+        <v>45310</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1831,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ7" t="s">
         <v>149</v>
@@ -1841,6 +1863,9 @@
       </c>
       <c r="BS7" t="s">
         <v>153</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -1848,7 +1873,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1863,34 +1888,34 @@
         <v>45294</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1902,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -1912,24 +1937,32 @@
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
+      <c r="AL8" s="2">
+        <v>1</v>
+      </c>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
         <v>116</v>
@@ -1942,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1952,16 +1985,16 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -1973,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2012,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ8" t="s">
         <v>149</v>
@@ -2022,6 +2055,9 @@
       </c>
       <c r="BS8" t="s">
         <v>153</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -2041,19 +2077,19 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45295</v>
+        <v>45357</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2065,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -2074,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -2083,24 +2119,28 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD9" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2121,32 +2161,32 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2158,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
         <v>1</v>
@@ -2191,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ9" t="s">
         <v>149</v>
@@ -2201,6 +2241,9 @@
       </c>
       <c r="BS9" t="s">
         <v>153</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2220,28 +2263,28 @@
         <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>56</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -2262,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2277,14 +2320,16 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2304,32 +2349,32 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45369</v>
+        <v>45420</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2347,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="BG10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2374,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ10" t="s">
         <v>149</v>
@@ -2384,6 +2429,9 @@
       </c>
       <c r="BS10" t="s">
         <v>153</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -2391,7 +2439,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -2403,19 +2451,19 @@
         <v>40</v>
       </c>
       <c r="F11" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2451,20 +2499,20 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2487,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2497,10 +2545,10 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2518,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2557,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ11" t="s">
         <v>149</v>
@@ -2567,6 +2615,9 @@
       </c>
       <c r="BS11" t="s">
         <v>153</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -2574,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -2586,37 +2637,37 @@
         <v>40</v>
       </c>
       <c r="F12" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2628,36 +2679,32 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
@@ -2672,32 +2719,32 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45420</v>
+        <v>45372</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -2742,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ12" t="s">
         <v>149</v>
@@ -2752,6 +2799,9 @@
       </c>
       <c r="BS12" t="s">
         <v>153</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -2759,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2771,19 +2821,19 @@
         <v>40</v>
       </c>
       <c r="F13" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -2792,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2813,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2828,45 +2878,51 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
+      <c r="AI13" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45345</v>
+        <v>45310</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -2923,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ13" t="s">
         <v>149</v>
@@ -2933,6 +2989,9 @@
       </c>
       <c r="BS13" t="s">
         <v>153</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -2952,19 +3011,19 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2973,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -2994,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3010,20 +3069,24 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
+      <c r="AH14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>1</v>
+      </c>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -3038,20 +3101,20 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3060,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3108,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ14" t="s">
         <v>149</v>
@@ -3118,6 +3181,9 @@
       </c>
       <c r="BS14" t="s">
         <v>153</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -3136,32 +3202,30 @@
       <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1">
-        <v>45405</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3170,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3185,25 +3249,19 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3213,42 +3271,40 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3266,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3293,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ15" t="s">
         <v>149</v>
@@ -3303,6 +3359,9 @@
       </c>
       <c r="BS15" t="s">
         <v>153</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -3310,7 +3369,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -3322,19 +3381,19 @@
         <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3364,34 +3423,36 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U16" s="2">
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD16" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -3406,20 +3467,20 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3437,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3476,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ16" t="s">
         <v>149</v>
@@ -3486,6 +3547,9 @@
       </c>
       <c r="BS16" t="s">
         <v>153</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -3493,7 +3557,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -3505,13 +3569,13 @@
         <v>40</v>
       </c>
       <c r="F17" s="1">
-        <v>45294</v>
+        <v>45329</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -3526,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -3547,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3563,24 +3627,20 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD17" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
@@ -3595,20 +3655,20 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
         <v>5</v>
       </c>
       <c r="AW17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -3617,10 +3677,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3665,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ17" t="s">
         <v>149</v>
@@ -3675,6 +3735,9 @@
       </c>
       <c r="BS17" t="s">
         <v>153</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -3682,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -3694,7 +3757,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3706,16 +3769,16 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -3736,46 +3799,38 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
@@ -3792,10 +3847,10 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3822,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -3852,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ18" t="s">
         <v>149</v>
@@ -3862,6 +3917,9 @@
       </c>
       <c r="BS18" t="s">
         <v>153</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="19">
@@ -3869,7 +3927,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -3880,24 +3938,26 @@
       <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>45323</v>
+      </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -3921,24 +3981,28 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -3949,7 +4013,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -3957,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -3967,22 +4031,22 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -3994,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4027,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ19" t="s">
         <v>149</v>
@@ -4037,6 +4101,9 @@
       </c>
       <c r="BS19" t="s">
         <v>153</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -4056,31 +4123,31 @@
         <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4089,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4098,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4113,13 +4180,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -4140,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4150,22 +4217,22 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
@@ -4177,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4210,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ20" t="s">
         <v>149</v>
@@ -4220,6 +4287,9 @@
       </c>
       <c r="BS20" t="s">
         <v>153</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21">
@@ -4251,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -4287,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4298,9 +4368,11 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1</v>
+      </c>
       <c r="AE21" s="2">
         <v>1</v>
       </c>
@@ -4323,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45420</v>
+        <v>45418</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4333,10 +4405,10 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW21" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX21" s="2">
         <v>1</v>
@@ -4393,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ21" t="s">
         <v>149</v>
@@ -4403,6 +4475,9 @@
       </c>
       <c r="BS21" t="s">
         <v>153</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -4410,7 +4485,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -4422,31 +4497,31 @@
         <v>40</v>
       </c>
       <c r="F22" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -4455,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -4464,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4481,7 +4556,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -4496,17 +4571,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -4516,22 +4591,22 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -4543,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="2">
         <v>0</v>
@@ -4576,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ22" t="s">
         <v>149</v>
@@ -4586,6 +4661,9 @@
       </c>
       <c r="BS22" t="s">
         <v>153</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="23">
@@ -4593,7 +4671,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -4608,16 +4686,16 @@
         <v>45405</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4626,10 +4704,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -4638,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -4647,34 +4725,32 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
+        <v>76</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>30</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
-        <v>80</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
       </c>
-      <c r="AE23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="2">
+        <v>1</v>
+      </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
@@ -4691,20 +4767,20 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AW23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX23" s="2">
         <v>1</v>
@@ -4722,19 +4798,19 @@
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="2">
         <v>0</v>
@@ -4761,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ23" t="s">
         <v>149</v>
@@ -4771,6 +4847,9 @@
       </c>
       <c r="BS23" t="s">
         <v>153</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="24">
@@ -4778,7 +4857,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -4790,19 +4869,19 @@
         <v>40</v>
       </c>
       <c r="F24" s="1">
-        <v>45413</v>
+        <v>45405</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -4811,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4823,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -4832,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4849,12 +4928,12 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -4874,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45422</v>
+        <v>45420</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -4884,10 +4963,10 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW24" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -4911,13 +4990,13 @@
         <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="2">
         <v>1</v>
       </c>
       <c r="BG24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -4944,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ24" t="s">
         <v>149</v>
@@ -4954,6 +5033,9 @@
       </c>
       <c r="BS24" t="s">
         <v>153</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25">
@@ -4961,7 +5043,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -4973,7 +5055,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -4988,22 +5070,22 @@
         <v>53</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -5015,42 +5097,36 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2">
         <v>1</v>
       </c>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
-      <c r="AL25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
         <v>116</v>
@@ -5063,50 +5139,50 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45309</v>
+        <v>45420</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
         <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -5133,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ25" t="s">
         <v>149</v>
@@ -5143,6 +5219,9 @@
       </c>
       <c r="BS25" t="s">
         <v>153</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26">
@@ -5150,7 +5229,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -5162,19 +5241,19 @@
         <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>45385</v>
+        <v>45413</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5210,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -5221,32 +5300,32 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45428</v>
+        <v>45422</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5259,7 +5338,7 @@
         <v>7</v>
       </c>
       <c r="AW26" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -5286,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="2">
         <v>0</v>
@@ -5316,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ26" t="s">
         <v>149</v>
@@ -5326,6 +5405,9 @@
       </c>
       <c r="BS26" t="s">
         <v>153</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27">
@@ -5345,19 +5427,19 @@
         <v>40</v>
       </c>
       <c r="F27" s="1">
-        <v>45405</v>
+        <v>45385</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -5366,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -5387,13 +5469,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -5404,7 +5486,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2">
@@ -5415,21 +5497,21 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
+      <c r="AK27" s="2">
+        <v>1</v>
+      </c>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45420</v>
+        <v>45428</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5439,10 +5521,10 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW27" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX27" s="2">
         <v>1</v>
@@ -5451,13 +5533,13 @@
         <v>1</v>
       </c>
       <c r="AZ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="2">
         <v>1</v>
       </c>
       <c r="BB27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="2">
         <v>0</v>
@@ -5469,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="BF27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -5499,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="BP27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ27" t="s">
         <v>149</v>
@@ -5509,6 +5591,9 @@
       </c>
       <c r="BS27" t="s">
         <v>153</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28">
@@ -5540,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -5678,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="BP28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ28" t="s">
         <v>149</v>
@@ -5688,6 +5773,9 @@
       </c>
       <c r="BS28" t="s">
         <v>153</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29">
@@ -5695,7 +5783,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -5707,37 +5795,37 @@
         <v>40</v>
       </c>
       <c r="F29" s="1">
-        <v>45357</v>
+        <v>45385</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -5755,20 +5843,22 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD29" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -5789,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45372</v>
+        <v>45428</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -5820,16 +5910,16 @@
         <v>0</v>
       </c>
       <c r="BC29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG29" s="2">
         <v>0</v>
@@ -5859,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="BP29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BQ29" t="s">
         <v>149</v>
@@ -5869,6 +5959,9 @@
       </c>
       <c r="BS29" t="s">
         <v>153</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -13,110 +13,110 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="548" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="519" uniqueCount="154">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>600353</t>
+  </si>
+  <si>
+    <t>600467</t>
+  </si>
+  <si>
+    <t>600330</t>
+  </si>
+  <si>
     <t>600303</t>
   </si>
   <si>
-    <t>600330</t>
-  </si>
-  <si>
-    <t>600467</t>
-  </si>
-  <si>
-    <t>600353</t>
+    <t>600486</t>
+  </si>
+  <si>
+    <t>600445</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600345</t>
   </si>
   <si>
     <t>600468</t>
   </si>
   <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
     <t>600306</t>
   </si>
   <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
     <t>600373</t>
   </si>
   <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600342</t>
+    <t>600424</t>
   </si>
   <si>
     <t>600376</t>
   </si>
   <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
     <t>600324</t>
   </si>
   <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600445</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600486</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
     <t>Westwood</t>
   </si>
   <si>
@@ -147,18 +147,18 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
+    <t>cotton; syringe</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>cotton; syringe</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -171,27 +171,27 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>heroin; fentanyl</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>cocaine; crack</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -225,43 +225,46 @@
     <t>white</t>
   </si>
   <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>light tan</t>
   </si>
   <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>white; purple</t>
+  </si>
+  <si>
     <t>light blue</t>
   </si>
   <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
     <t>pink; blue; green</t>
   </si>
   <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
-    <t>powder</t>
+    <t>powder; chalky</t>
   </si>
   <si>
     <t>powder; shiny</t>
@@ -273,9 +276,6 @@
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; chalky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -291,45 +291,45 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>sedating</t>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>stronger; more down; sedating</t>
   </si>
   <si>
     <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
-    <t>weird; stronger; sedating; unusual taste</t>
+    <t>weird; sedating; unusual taste</t>
   </si>
   <si>
     <t>more down; sedating; unusual taste</t>
   </si>
   <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -448,12 +448,6 @@
   </si>
   <si>
     <t>lab_ketamine</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>USA</t>
   </si>
   <si>
     <t>state_county</t>
@@ -528,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT29"/>
+  <dimension ref="A1:BS29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,13 +602,13 @@
         <v>88</v>
       </c>
       <c r="Y1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
         <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
         <v>90</v>
@@ -740,16 +734,13 @@
         <v>145</v>
       </c>
       <c r="BQ1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BR1" t="s">
         <v>150</v>
       </c>
       <c r="BS1" t="s">
         <v>152</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -784,22 +775,22 @@
         <v>52</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -821,19 +812,17 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>92</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -843,48 +832,46 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
         <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
         <v>1</v>
@@ -926,15 +913,12 @@
         <v>146</v>
       </c>
       <c r="BQ2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="BR2" t="s">
         <v>30</v>
       </c>
       <c r="BS2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BT2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -967,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -976,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -997,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1012,21 +996,17 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>93</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
@@ -1053,10 +1033,10 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW3" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX3" s="2">
         <v>1</v>
@@ -1065,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
@@ -1080,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1116,15 +1096,12 @@
         <v>146</v>
       </c>
       <c r="BQ3" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="BR3" t="s">
         <v>30</v>
       </c>
       <c r="BS3" t="s">
-        <v>30</v>
-      </c>
-      <c r="BT3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1157,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1166,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1187,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1202,17 +1179,21 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC4" t="s">
         <v>94</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
@@ -1239,11 +1220,11 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW4" s="2">
         <v>7</v>
       </c>
-      <c r="AW4" s="2">
-        <v>3</v>
-      </c>
       <c r="AX4" s="2">
         <v>1</v>
       </c>
@@ -1251,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1266,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1302,15 +1283,12 @@
         <v>146</v>
       </c>
       <c r="BQ4" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="BR4" t="s">
         <v>30</v>
       </c>
       <c r="BS4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BT4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1346,22 +1324,22 @@
         <v>54</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1383,17 +1361,19 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>95</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1403,46 +1383,48 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
         <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
         <v>1</v>
@@ -1484,15 +1466,12 @@
         <v>146</v>
       </c>
       <c r="BQ5" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="BR5" t="s">
         <v>30</v>
       </c>
       <c r="BS5" t="s">
-        <v>30</v>
-      </c>
-      <c r="BT5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1513,7 +1492,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>45328</v>
+        <v>45385</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -1525,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1555,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1570,11 +1549,9 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1599,26 +1576,26 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45372</v>
+        <v>45428</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
@@ -1636,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1669,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ6" t="s">
         <v>149</v>
@@ -1679,9 +1656,6 @@
       </c>
       <c r="BS6" t="s">
         <v>153</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -1701,7 +1675,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>45294</v>
+        <v>45385</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -1710,10 +1684,10 @@
         <v>44</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1743,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1760,43 +1734,45 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
+      <c r="AK7" s="2">
+        <v>1</v>
+      </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1805,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1853,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ7" t="s">
         <v>149</v>
@@ -1863,9 +1839,6 @@
       </c>
       <c r="BS7" t="s">
         <v>153</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -1888,34 +1861,34 @@
         <v>45294</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1927,42 +1900,40 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
       <c r="AC8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
         <v>116</v>
@@ -1975,41 +1946,41 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2045,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ8" t="s">
         <v>149</v>
@@ -2055,9 +2026,6 @@
       </c>
       <c r="BS8" t="s">
         <v>153</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -2065,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -2077,31 +2045,31 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -2110,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -2119,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2136,7 +2104,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2151,17 +2119,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2171,22 +2139,22 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2198,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2231,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ9" t="s">
         <v>149</v>
@@ -2241,9 +2209,6 @@
       </c>
       <c r="BS9" t="s">
         <v>153</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -2251,7 +2216,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2263,19 +2228,19 @@
         <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>45405</v>
+        <v>45328</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2284,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2296,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2305,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2320,16 +2285,16 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AD10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2349,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45420</v>
+        <v>45372</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2359,10 +2324,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW10" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2371,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
@@ -2386,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2419,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ10" t="s">
         <v>149</v>
@@ -2429,9 +2394,6 @@
       </c>
       <c r="BS10" t="s">
         <v>153</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -2439,7 +2401,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -2451,19 +2413,19 @@
         <v>40</v>
       </c>
       <c r="F11" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2493,34 +2455,36 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U11" s="2">
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>98</v>
       </c>
-      <c r="AD11" s="2"/>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AJ11" s="2">
+        <v>1</v>
+      </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
@@ -2535,20 +2499,20 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2566,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>0</v>
@@ -2605,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ11" t="s">
         <v>149</v>
@@ -2615,9 +2579,6 @@
       </c>
       <c r="BS11" t="s">
         <v>153</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -2625,7 +2586,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -2637,7 +2598,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2646,28 +2607,28 @@
         <v>45</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2679,32 +2640,40 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
       <c r="AC12" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AH12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
@@ -2719,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2729,31 +2698,31 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -2789,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ12" t="s">
         <v>149</v>
@@ -2799,9 +2768,6 @@
       </c>
       <c r="BS12" t="s">
         <v>153</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -2809,7 +2775,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2820,29 +2786,27 @@
       <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2863,47 +2827,37 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
@@ -2915,26 +2869,26 @@
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -2946,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2979,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ13" t="s">
         <v>149</v>
@@ -2989,9 +2943,6 @@
       </c>
       <c r="BS13" t="s">
         <v>153</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -2999,7 +2950,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -3011,19 +2962,19 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>45294</v>
+        <v>45329</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3032,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -3053,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3069,24 +3020,20 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD14" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
-      <c r="AH14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -3101,20 +3048,20 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
         <v>5</v>
       </c>
       <c r="AW14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3123,10 +3070,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3171,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ14" t="s">
         <v>149</v>
@@ -3181,9 +3128,6 @@
       </c>
       <c r="BS14" t="s">
         <v>153</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -3202,27 +3146,29 @@
       <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>45405</v>
+      </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -3243,25 +3189,29 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3271,43 +3221,45 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3316,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
         <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3349,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ15" t="s">
         <v>149</v>
@@ -3359,9 +3311,6 @@
       </c>
       <c r="BS15" t="s">
         <v>153</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -3369,7 +3318,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -3381,19 +3330,19 @@
         <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3423,36 +3372,32 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -3467,20 +3412,20 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AW16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3489,19 +3434,19 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3537,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ16" t="s">
         <v>149</v>
@@ -3547,9 +3492,6 @@
       </c>
       <c r="BS16" t="s">
         <v>153</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -3569,37 +3511,37 @@
         <v>40</v>
       </c>
       <c r="F17" s="1">
-        <v>45329</v>
+        <v>45357</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -3617,24 +3559,20 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -3655,26 +3593,26 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45336</v>
+        <v>45372</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
@@ -3686,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
@@ -3725,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ17" t="s">
         <v>149</v>
@@ -3735,9 +3673,6 @@
       </c>
       <c r="BS17" t="s">
         <v>153</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -3757,31 +3692,31 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>45295</v>
+        <v>45405</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -3790,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -3799,25 +3734,31 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -3827,17 +3768,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -3847,10 +3788,10 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3874,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
         <v>1</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -3907,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ18" t="s">
         <v>149</v>
@@ -3917,9 +3858,6 @@
       </c>
       <c r="BS18" t="s">
         <v>153</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="19">
@@ -3927,7 +3865,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -3939,31 +3877,31 @@
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>45323</v>
+        <v>45357</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -3972,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -3987,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3996,13 +3934,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="AB19" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -4013,15 +3951,17 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45345</v>
+        <v>45369</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4031,22 +3971,22 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2">
         <v>0</v>
@@ -4058,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4091,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ19" t="s">
         <v>149</v>
@@ -4101,9 +4041,6 @@
       </c>
       <c r="BS19" t="s">
         <v>153</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -4111,7 +4048,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -4123,31 +4060,31 @@
         <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4156,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4165,24 +4102,20 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>30</v>
       </c>
@@ -4207,35 +4140,35 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45369</v>
+        <v>45316</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="2">
         <v>0</v>
@@ -4277,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ20" t="s">
         <v>149</v>
@@ -4287,9 +4220,6 @@
       </c>
       <c r="BS20" t="s">
         <v>153</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="21">
@@ -4297,7 +4227,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -4309,19 +4239,19 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>45405</v>
+        <v>45413</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -4330,10 +4260,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4342,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4351,13 +4281,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4368,14 +4298,12 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AD21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -4395,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45418</v>
+        <v>45422</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4405,10 +4333,10 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
         <v>1</v>
@@ -4432,13 +4360,13 @@
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
         <v>1</v>
       </c>
       <c r="BG21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="2">
         <v>0</v>
@@ -4465,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ21" t="s">
         <v>149</v>
@@ -4475,9 +4403,6 @@
       </c>
       <c r="BS21" t="s">
         <v>153</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -4497,19 +4422,19 @@
         <v>40</v>
       </c>
       <c r="F22" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4539,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4556,7 +4481,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -4571,17 +4496,15 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -4651,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ22" t="s">
         <v>149</v>
@@ -4661,9 +4584,6 @@
       </c>
       <c r="BS22" t="s">
         <v>153</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23">
@@ -4671,7 +4591,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -4695,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4725,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U23" s="2">
         <v>1</v>
@@ -4740,7 +4660,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD23" s="2">
         <v>1</v>
@@ -4837,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ23" t="s">
         <v>149</v>
@@ -4847,9 +4767,6 @@
       </c>
       <c r="BS23" t="s">
         <v>153</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24">
@@ -4869,28 +4786,28 @@
         <v>40</v>
       </c>
       <c r="F24" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -4911,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4928,12 +4845,12 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -4943,42 +4860,42 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45420</v>
+        <v>45371</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -4996,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="BG24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -5023,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ24" t="s">
         <v>149</v>
@@ -5033,9 +4950,6 @@
       </c>
       <c r="BS24" t="s">
         <v>153</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25">
@@ -5067,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -5079,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -5088,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -5097,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5114,9 +5028,11 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD25" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>1</v>
+      </c>
       <c r="AE25" s="2">
         <v>1</v>
       </c>
@@ -5139,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45420</v>
+        <v>45418</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5149,10 +5065,10 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX25" s="2">
         <v>1</v>
@@ -5161,13 +5077,13 @@
         <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
         <v>1</v>
       </c>
       <c r="BB25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC25" s="2">
         <v>0</v>
@@ -5176,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
         <v>1</v>
@@ -5209,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ25" t="s">
         <v>149</v>
@@ -5219,9 +5135,6 @@
       </c>
       <c r="BS25" t="s">
         <v>153</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26">
@@ -5229,7 +5142,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -5241,13 +5154,13 @@
         <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>45413</v>
+        <v>45294</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -5256,22 +5169,22 @@
         <v>54</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -5293,26 +5206,32 @@
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
+      <c r="AG26" s="2">
+        <v>1</v>
+      </c>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
+      <c r="AJ26" s="2">
+        <v>1</v>
+      </c>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
+      <c r="AL26" s="2">
+        <v>1</v>
+      </c>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
         <v>116</v>
@@ -5325,47 +5244,47 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45422</v>
+        <v>45309</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE26" s="2">
         <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="2">
         <v>0</v>
@@ -5395,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ26" t="s">
         <v>149</v>
@@ -5405,9 +5324,6 @@
       </c>
       <c r="BS26" t="s">
         <v>153</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27">
@@ -5427,19 +5343,19 @@
         <v>40</v>
       </c>
       <c r="F27" s="1">
-        <v>45385</v>
+        <v>45405</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -5448,10 +5364,10 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
@@ -5460,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -5469,13 +5385,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -5486,7 +5402,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2">
@@ -5497,21 +5413,21 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
-      <c r="AK27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO27" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>0</v>
+      </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45428</v>
+        <v>45420</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5521,7 +5437,7 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW27" s="2">
         <v>6</v>
@@ -5548,13 +5464,13 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -5581,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="BP27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ27" t="s">
         <v>149</v>
@@ -5591,9 +5507,6 @@
       </c>
       <c r="BS27" t="s">
         <v>153</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="28">
@@ -5601,7 +5514,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -5616,16 +5529,16 @@
         <v>45294</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -5655,28 +5568,32 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="U28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
+      <c r="AH28" s="2">
+        <v>1</v>
+      </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
@@ -5693,20 +5610,20 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
       </c>
       <c r="AT28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW28" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX28" s="2">
         <v>1</v>
@@ -5715,13 +5632,13 @@
         <v>1</v>
       </c>
       <c r="AZ28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28" s="2">
         <v>1</v>
       </c>
       <c r="BB28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="2">
         <v>0</v>
@@ -5730,10 +5647,10 @@
         <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG28" s="2">
         <v>0</v>
@@ -5763,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="BP28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ28" t="s">
         <v>149</v>
@@ -5773,9 +5690,6 @@
       </c>
       <c r="BS28" t="s">
         <v>153</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29">
@@ -5783,7 +5697,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -5795,7 +5709,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="1">
-        <v>45385</v>
+        <v>45295</v>
       </c>
       <c r="G29" t="s">
         <v>47</v>
@@ -5807,13 +5721,13 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5837,28 +5751,24 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -5869,42 +5779,42 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45428</v>
+        <v>45310</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
       </c>
       <c r="AT29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="2">
         <v>0</v>
@@ -5916,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="2">
         <v>1</v>
@@ -5949,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="BP29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BQ29" t="s">
         <v>149</v>
@@ -5959,9 +5869,6 @@
       </c>
       <c r="BS29" t="s">
         <v>153</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -24,102 +24,102 @@
     <t>600467</t>
   </si>
   <si>
+    <t>600303</t>
+  </si>
+  <si>
     <t>600330</t>
   </si>
   <si>
-    <t>600303</t>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600317</t>
   </si>
   <si>
     <t>600486</t>
   </si>
   <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
     <t>600445</t>
   </si>
   <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600345</t>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600397</t>
   </si>
   <si>
     <t>600468</t>
   </si>
   <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600342</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Westwood</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Westwood</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -150,15 +150,15 @@
     <t>swab</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
     <t>cotton; syringe</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -174,18 +174,18 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>heroin; fentanyl; xylazine; crack</t>
   </si>
   <si>
     <t>heroin; fentanyl</t>
   </si>
   <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
@@ -225,30 +225,30 @@
     <t>white</t>
   </si>
   <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>tan; white</t>
   </si>
   <si>
-    <t>light purple</t>
+    <t>white; purple</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>light blue</t>
   </si>
   <si>
     <t>light tan</t>
   </si>
   <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -258,21 +258,21 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>crystals</t>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
   </si>
   <si>
     <t>powder; chalky</t>
   </si>
   <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
@@ -297,37 +297,37 @@
     <t>normal</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>unpleasant; sedating</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>weird; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
   </si>
   <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
+    <t>more down; sedating; unusual taste</t>
   </si>
   <si>
     <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -608,7 +608,7 @@
         <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
         <v>90</v>
@@ -832,7 +832,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -1137,22 +1137,22 @@
         <v>53</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1174,14 +1174,12 @@
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>94</v>
       </c>
@@ -1191,9 +1189,7 @@
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
@@ -1210,26 +1206,26 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1241,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1324,22 +1320,22 @@
         <v>54</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1351,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1361,12 +1357,14 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC5" t="s">
         <v>95</v>
       </c>
@@ -1376,7 +1374,9 @@
       </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
@@ -1393,26 +1393,26 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1492,13 +1492,13 @@
         <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>45385</v>
+        <v>45405</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1551,12 +1551,12 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1576,32 +1576,32 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45428</v>
+        <v>45420</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="BG6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>45385</v>
+        <v>45413</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1734,32 +1734,32 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45428</v>
+        <v>45422</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="AW7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1858,7 +1858,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1915,51 +1915,45 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -2045,19 +2039,19 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45294</v>
+        <v>45385</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2087,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
         <v>80</v>
@@ -2129,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2139,22 +2133,22 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2166,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2216,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2228,13 +2222,13 @@
         <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -2270,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2314,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45372</v>
+        <v>45336</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2324,10 +2318,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2413,37 +2407,37 @@
         <v>40</v>
       </c>
       <c r="F11" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2455,36 +2449,32 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
@@ -2499,32 +2489,32 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45420</v>
+        <v>45372</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2597,29 +2587,27 @@
       <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2640,49 +2628,37 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
@@ -2698,22 +2674,22 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -2725,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -2775,7 +2751,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2786,30 +2762,32 @@
       <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>45405</v>
+      </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2818,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2833,19 +2811,25 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -2855,40 +2839,42 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -2906,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -2950,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2962,13 +2948,13 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>45329</v>
+        <v>45294</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -3004,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3019,9 +3005,7 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>93</v>
       </c>
@@ -3048,20 +3032,20 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45336</v>
+        <v>45310</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3070,10 +3054,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3135,7 +3119,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -3147,19 +3131,19 @@
         <v>40</v>
       </c>
       <c r="F15" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3189,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3204,18 +3188,22 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
       <c r="AC15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
+      <c r="AI15" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
@@ -3231,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3241,10 +3229,10 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3253,13 +3241,13 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3271,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3318,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -3333,10 +3321,10 @@
         <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -3378,13 +3366,11 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -3412,20 +3398,20 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3437,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="2">
         <v>0</v>
@@ -3449,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -3499,7 +3485,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -3511,37 +3497,37 @@
         <v>40</v>
       </c>
       <c r="F17" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G17" t="s">
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -3553,30 +3539,32 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD17" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
+      <c r="AH17" s="2">
+        <v>1</v>
+      </c>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
@@ -3593,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -3603,22 +3591,22 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3680,7 +3668,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -3704,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -3751,7 +3739,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AD18" s="2">
         <v>1</v>
@@ -3778,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45420</v>
+        <v>45418</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -3788,10 +3776,10 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW18" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3877,31 +3865,31 @@
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -3910,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -3919,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3934,14 +3922,14 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -3961,35 +3949,35 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45369</v>
+        <v>45420</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
         <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="2">
         <v>0</v>
@@ -3998,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
         <v>1</v>
       </c>
       <c r="BG19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4048,7 +4036,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -4060,25 +4048,25 @@
         <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4102,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
         <v>30</v>
@@ -4130,17 +4118,17 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45316</v>
+        <v>45310</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4150,10 +4138,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AW20" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4162,13 +4150,13 @@
         <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>1</v>
       </c>
       <c r="BB20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="2">
         <v>0</v>
@@ -4177,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
         <v>1</v>
@@ -4239,37 +4227,37 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>45413</v>
+        <v>45294</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4287,30 +4275,36 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
+      <c r="AG21" s="2">
+        <v>1</v>
+      </c>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
+      <c r="AJ21" s="2">
+        <v>1</v>
+      </c>
       <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
+      <c r="AL21" s="2">
+        <v>1</v>
+      </c>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
         <v>116</v>
@@ -4323,47 +4317,47 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45422</v>
+        <v>45309</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4410,7 +4404,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -4422,13 +4416,13 @@
         <v>40</v>
       </c>
       <c r="F22" s="1">
-        <v>45323</v>
+        <v>45405</v>
       </c>
       <c r="G22" t="s">
         <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -4464,60 +4458,64 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
+      <c r="AG22" s="2">
+        <v>1</v>
+      </c>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
+      <c r="AJ22" s="2">
+        <v>1</v>
+      </c>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45345</v>
+        <v>45420</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AW22" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -4535,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
         <v>0</v>
@@ -4603,19 +4601,19 @@
         <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>45405</v>
+        <v>45385</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4645,62 +4643,62 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="U23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
+      <c r="AK23" s="2">
+        <v>1</v>
+      </c>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45420</v>
+        <v>45428</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW23" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX23" s="2">
         <v>1</v>
@@ -4718,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="2">
         <v>0</v>
@@ -4774,7 +4772,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -4786,31 +4784,31 @@
         <v>40</v>
       </c>
       <c r="F24" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4819,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -4828,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="s">
         <v>80</v>
@@ -4845,32 +4843,32 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
+      <c r="AH24" s="2">
+        <v>1</v>
+      </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -4880,22 +4878,22 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -4907,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4957,7 +4955,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -4969,28 +4967,28 @@
         <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
         <v>1</v>
@@ -5011,13 +5009,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5026,16 +5024,14 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="AB25" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC25" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -5055,32 +5051,32 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45418</v>
+        <v>45369</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5098,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="BG25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -5142,7 +5138,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -5157,34 +5153,34 @@
         <v>45294</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -5196,42 +5192,34 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
         <v>116</v>
@@ -5244,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5254,16 +5242,16 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
         <v>0</v>
@@ -5275,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE26" s="2">
         <v>0</v>
@@ -5331,7 +5319,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -5343,19 +5331,19 @@
         <v>40</v>
       </c>
       <c r="F27" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -5367,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
@@ -5376,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -5385,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -5400,19 +5388,25 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
+      <c r="AB27" s="2">
+        <v>1</v>
+      </c>
       <c r="AC27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
+      <c r="AH27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>1</v>
+      </c>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
@@ -5427,20 +5421,20 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW27" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX27" s="2">
         <v>1</v>
@@ -5464,13 +5458,13 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -5526,7 +5520,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -5538,19 +5532,19 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5559,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -5568,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="s">
         <v>80</v>
@@ -5585,32 +5579,32 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD28" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
-      <c r="AH28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
@@ -5620,22 +5614,22 @@
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="2">
         <v>0</v>
@@ -5647,10 +5641,10 @@
         <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG28" s="2">
         <v>0</v>
@@ -5697,7 +5691,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -5709,25 +5703,25 @@
         <v>40</v>
       </c>
       <c r="F29" s="1">
-        <v>45295</v>
+        <v>45328</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -5754,21 +5748,27 @@
         <v>77</v>
       </c>
       <c r="U29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
+      <c r="AB29" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD29" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -5779,17 +5779,17 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW29" s="2">
         <v>3</v>
@@ -5811,10 +5811,10 @@
         <v>1</v>
       </c>
       <c r="AZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="2">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,90 +18,90 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600303</t>
+  </si>
+  <si>
+    <t>600467</t>
+  </si>
+  <si>
     <t>600353</t>
   </si>
   <si>
-    <t>600467</t>
-  </si>
-  <si>
-    <t>600303</t>
-  </si>
-  <si>
     <t>600330</t>
   </si>
   <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600486</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600445</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
     <t>600424</t>
   </si>
   <si>
+    <t>600384</t>
+  </si>
+  <si>
     <t>600464</t>
   </si>
   <si>
     <t>600317</t>
   </si>
   <si>
-    <t>600486</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600342</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600336</t>
+    <t>600376</t>
   </si>
   <si>
     <t>600327</t>
   </si>
   <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
     <t>600354</t>
   </si>
   <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600445</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -111,15 +111,15 @@
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Carthage</t>
+  </si>
+  <si>
     <t>Westwood</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -147,15 +147,15 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>cotton; syringe</t>
   </si>
   <si>
@@ -171,12 +171,12 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -186,12 +186,12 @@
     <t>heroin; fentanyl</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -225,57 +225,57 @@
     <t>white</t>
   </si>
   <si>
+    <t>tan; white</t>
+  </si>
+  <si>
     <t>light purple</t>
   </si>
   <si>
-    <t>tan; white</t>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>light tan</t>
   </si>
   <si>
     <t>white; purple</t>
   </si>
   <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
     <t>tan</t>
   </si>
   <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>light tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>powder; dull</t>
   </si>
   <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder; chalky</t>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>powder; chalky</t>
-  </si>
-  <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -291,43 +291,43 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>unpleasant; sedating</t>
   </si>
   <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
     <t>weird; sedating; unusual taste</t>
   </si>
   <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -602,13 +602,13 @@
         <v>88</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z1" t="s">
         <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>90</v>
@@ -775,22 +775,22 @@
         <v>52</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -812,17 +812,19 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>92</v>
       </c>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -832,46 +834,48 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="2">
         <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>1</v>
@@ -951,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -987,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1137,22 +1141,22 @@
         <v>53</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1174,19 +1178,17 @@
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>94</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1196,48 +1198,46 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
         <v>1</v>
@@ -1491,32 +1491,30 @@
       <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1">
-        <v>45405</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1525,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1540,23 +1538,19 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1566,42 +1560,40 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1619,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="BG6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -1675,7 +1667,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>45413</v>
+        <v>45294</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -1687,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1696,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1717,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1732,19 +1724,25 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
       <c r="AC7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
@@ -1759,20 +1757,20 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45422</v>
+        <v>45310</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1799,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1846,7 +1844,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1858,19 +1856,19 @@
         <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>45323</v>
+        <v>45329</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1906,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1915,7 +1913,9 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC8" t="s">
         <v>93</v>
       </c>
@@ -1932,28 +1932,30 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45345</v>
+        <v>45336</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -1962,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -2039,37 +2041,37 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45385</v>
+        <v>45294</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2091,26 +2093,32 @@
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
+      <c r="AL9" s="2">
+        <v>1</v>
+      </c>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
         <v>116</v>
@@ -2123,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45428</v>
+        <v>45309</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2133,10 +2141,10 @@
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
         <v>0</v>
@@ -2154,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2222,37 +2230,37 @@
         <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>45329</v>
+        <v>45357</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2270,24 +2278,20 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2308,26 +2312,26 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45336</v>
+        <v>45372</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
         <v>0</v>
@@ -2339,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2407,28 +2411,28 @@
         <v>40</v>
       </c>
       <c r="F11" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
@@ -2437,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2449,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2459,17 +2463,21 @@
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2489,50 +2497,50 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2576,7 +2584,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -2587,24 +2595,26 @@
       <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>45385</v>
+      </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
@@ -2628,24 +2638,28 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD12" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -2656,15 +2670,17 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -2751,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2763,7 +2779,7 @@
         <v>40</v>
       </c>
       <c r="F13" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
@@ -2775,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -2784,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2796,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2805,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2822,14 +2838,12 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AD13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -2849,20 +2863,20 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -2886,13 +2900,13 @@
         <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -2936,7 +2950,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2948,19 +2962,19 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>45294</v>
+        <v>45385</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -2990,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3007,45 +3021,45 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
+      <c r="AK14" s="2">
+        <v>1</v>
+      </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3119,7 +3133,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -3131,28 +3145,28 @@
         <v>40</v>
       </c>
       <c r="F15" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -3173,46 +3187,38 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
@@ -3229,10 +3235,10 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3259,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3318,31 +3324,31 @@
         <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3351,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3360,24 +3366,28 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD16" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -3388,45 +3398,45 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45316</v>
+        <v>45371</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
         <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="2">
         <v>0</v>
@@ -3497,19 +3507,19 @@
         <v>40</v>
       </c>
       <c r="F17" s="1">
-        <v>45405</v>
+        <v>45328</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3539,32 +3549,34 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
@@ -3581,20 +3593,20 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45420</v>
+        <v>45372</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
         <v>1</v>
@@ -3603,19 +3615,19 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
         <v>0</v>
@@ -3680,19 +3692,19 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -3701,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -3713,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -3728,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -3739,14 +3751,10 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -3766,20 +3774,20 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45418</v>
+        <v>45310</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3788,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -3803,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -3877,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3889,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -3898,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -3907,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3924,9 +3932,11 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
       <c r="AE19" s="2">
         <v>1</v>
       </c>
@@ -3949,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45420</v>
+        <v>45418</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -3959,10 +3969,10 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -3971,13 +3981,13 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>1</v>
       </c>
       <c r="BB19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="2">
         <v>0</v>
@@ -3986,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
         <v>1</v>
@@ -4036,7 +4046,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -4048,28 +4058,28 @@
         <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4090,38 +4100,46 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
       <c r="AC20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD20" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
+      <c r="AI20" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
@@ -4138,10 +4156,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4168,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
         <v>0</v>
@@ -4215,7 +4233,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -4227,13 +4245,13 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -4242,22 +4260,22 @@
         <v>53</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -4269,42 +4287,36 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2">
+        <v>1</v>
+      </c>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
-      <c r="AL21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
         <v>116</v>
@@ -4317,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45309</v>
+        <v>45420</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4327,22 +4339,22 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
@@ -4404,7 +4416,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -4428,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4473,7 +4485,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -4601,19 +4613,19 @@
         <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>45385</v>
+        <v>45405</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4622,10 +4634,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -4634,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -4643,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4660,7 +4672,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2">
@@ -4671,21 +4683,21 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
-      <c r="AK23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45428</v>
+        <v>45420</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -4695,7 +4707,7 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW23" s="2">
         <v>6</v>
@@ -4722,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH23" s="2">
         <v>0</v>
@@ -4772,7 +4784,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -4784,31 +4796,31 @@
         <v>40</v>
       </c>
       <c r="F24" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4817,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -4826,13 +4838,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4841,17 +4853,17 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC24" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
@@ -4868,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -4878,22 +4890,22 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -4905,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4955,7 +4967,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -4967,31 +4979,31 @@
         <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>45357</v>
+        <v>45413</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -5000,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -5015,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5024,13 +5036,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD25" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -5051,32 +5063,32 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45369</v>
+        <v>45422</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5088,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
         <v>1</v>
@@ -5138,7 +5150,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -5150,19 +5162,19 @@
         <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5192,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -5209,9 +5221,11 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD26" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
@@ -5222,17 +5236,15 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5254,10 +5266,10 @@
         <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
@@ -5319,7 +5331,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -5334,16 +5346,16 @@
         <v>45294</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -5352,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -5373,13 +5385,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -5388,9 +5400,7 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s">
         <v>104</v>
       </c>
@@ -5401,12 +5411,8 @@
       <c r="AH27" s="2">
         <v>1</v>
       </c>
-      <c r="AI27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
@@ -5431,10 +5437,10 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX27" s="2">
         <v>1</v>
@@ -5520,31 +5526,31 @@
         <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5553,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -5562,28 +5568,24 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
@@ -5594,45 +5596,45 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45371</v>
+        <v>45316</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
       </c>
       <c r="AT28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW28" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ28" s="2">
         <v>0</v>
       </c>
       <c r="BA28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28" s="2">
         <v>0</v>
@@ -5691,7 +5693,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -5703,19 +5705,19 @@
         <v>40</v>
       </c>
       <c r="F29" s="1">
-        <v>45328</v>
+        <v>45405</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -5724,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -5751,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -5760,16 +5762,14 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2">
+        <v>1</v>
+      </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -5799,10 +5799,10 @@
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX29" s="2">
         <v>1</v>
@@ -5814,10 +5814,10 @@
         <v>0</v>
       </c>
       <c r="BA29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29" s="2">
         <v>0</v>
@@ -5829,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="BF29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH29" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,102 +18,102 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600467</t>
+  </si>
+  <si>
+    <t>600353</t>
+  </si>
+  <si>
+    <t>600330</t>
+  </si>
+  <si>
     <t>600303</t>
   </si>
   <si>
-    <t>600467</t>
-  </si>
-  <si>
-    <t>600353</t>
-  </si>
-  <si>
-    <t>600330</t>
+    <t>600486</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600445</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600373</t>
   </si>
   <si>
     <t>600391</t>
   </si>
   <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
     <t>600342</t>
   </si>
   <si>
-    <t>600486</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600445</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
     <t>600359</t>
   </si>
   <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600354</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
     <t>Carthage</t>
   </si>
   <si>
@@ -147,15 +147,15 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>cotton; syringe</t>
   </si>
   <si>
@@ -171,27 +171,27 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
+    <t>heroin; fentanyl</t>
   </si>
   <si>
     <t>heroin; fentanyl; xylazine; crack</t>
   </si>
   <si>
-    <t>heroin; fentanyl</t>
+    <t>cocaine; crack</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -225,57 +225,57 @@
     <t>white</t>
   </si>
   <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
     <t>tan; white</t>
   </si>
   <si>
+    <t>light blue</t>
+  </si>
+  <si>
     <t>light purple</t>
   </si>
   <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>light tan</t>
+    <t>purple</t>
   </si>
   <si>
     <t>white; purple</t>
   </si>
   <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>powder; dull</t>
+    <t>powder; chalky</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
   </si>
   <si>
     <t>powder; shiny</t>
   </si>
   <si>
-    <t>powder; chalky</t>
-  </si>
-  <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -291,43 +291,43 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>unpleasant; sedating</t>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
   </si>
   <si>
     <t>nice; long; more down; sedating</t>
   </si>
   <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>weird; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
     <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -602,13 +602,13 @@
         <v>88</v>
       </c>
       <c r="Y1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
         <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
         <v>90</v>
@@ -775,22 +775,22 @@
         <v>52</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
@@ -812,19 +812,19 @@
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -844,41 +844,41 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1004,9 +1004,7 @@
       <c r="AC3" t="s">
         <v>93</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1017,17 +1015,15 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
         <v>1</v>
@@ -1061,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1147,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1168,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1183,30 +1179,38 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC4" t="s">
         <v>94</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1219,19 +1223,19 @@
         <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1240,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1320,22 +1324,22 @@
         <v>54</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1347,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1357,14 +1361,12 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>95</v>
       </c>
@@ -1374,9 +1376,7 @@
       </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
@@ -1393,26 +1393,26 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1491,24 +1491,26 @@
       <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>45385</v>
+      </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1532,24 +1534,28 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD6" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1560,15 +1566,17 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1667,28 +1675,28 @@
         <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1712,45 +1720,35 @@
         <v>70</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
@@ -1763,14 +1761,14 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1797,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1844,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1856,37 +1854,37 @@
         <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>45329</v>
+        <v>45357</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1908,20 +1906,16 @@
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -1942,26 +1936,26 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45336</v>
+        <v>45372</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -1973,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2041,13 +2035,13 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -2056,22 +2050,22 @@
         <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2083,42 +2077,38 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
         <v>116</v>
@@ -2131,26 +2121,26 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45309</v>
+        <v>45372</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
         <v>0</v>
@@ -2162,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
@@ -2218,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2230,28 +2220,28 @@
         <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -2260,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2272,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2282,17 +2272,21 @@
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2312,50 +2306,50 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45372</v>
+        <v>45418</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2399,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -2411,19 +2405,19 @@
         <v>40</v>
       </c>
       <c r="F11" s="1">
-        <v>45405</v>
+        <v>45413</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2432,10 +2426,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2444,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2453,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2470,14 +2464,12 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AD11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2497,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2507,10 +2499,10 @@
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW11" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2534,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>1</v>
       </c>
       <c r="BG11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2599,16 +2591,16 @@
         <v>45385</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2644,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2655,26 +2647,26 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
+      <c r="AK12" s="2">
+        <v>1</v>
+      </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
@@ -2686,26 +2678,26 @@
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
@@ -2717,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -2767,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2779,7 +2771,7 @@
         <v>40</v>
       </c>
       <c r="F13" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
@@ -2800,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2821,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2838,12 +2830,12 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -2863,20 +2855,20 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -2885,13 +2877,13 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -2903,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -2962,31 +2954,31 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>45385</v>
+        <v>45357</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -2995,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3010,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3019,59 +3011,59 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC14" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45428</v>
+        <v>45369</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3083,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3133,7 +3125,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -3145,25 +3137,25 @@
         <v>40</v>
       </c>
       <c r="F15" s="1">
-        <v>45295</v>
+        <v>45329</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3187,24 +3179,30 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD15" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -3215,17 +3213,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3235,11 +3233,11 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW15" s="2">
         <v>4</v>
       </c>
-      <c r="AW15" s="2">
-        <v>3</v>
-      </c>
       <c r="AX15" s="2">
         <v>1</v>
       </c>
@@ -3247,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3265,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3324,31 +3322,31 @@
         <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3357,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3366,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3381,34 +3379,40 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3418,22 +3422,22 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3445,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
         <v>0</v>
@@ -3495,7 +3499,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -3507,19 +3511,19 @@
         <v>40</v>
       </c>
       <c r="F17" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3549,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3564,19 +3568,17 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
+      <c r="AH17" s="2">
+        <v>1</v>
+      </c>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
@@ -3593,17 +3595,17 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW17" s="2">
         <v>3</v>
@@ -3615,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3680,7 +3682,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -3692,31 +3694,31 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -3725,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -3734,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -3751,9 +3753,11 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD18" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
@@ -3764,17 +3768,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -3784,16 +3788,16 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -3811,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -3861,7 +3865,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -3873,7 +3877,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -3885,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3894,10 +3898,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -3906,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -3915,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3932,14 +3936,12 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AD19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -3959,20 +3961,20 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45418</v>
+        <v>45310</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -3996,13 +3998,13 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4061,16 +4063,16 @@
         <v>45294</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4079,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4100,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4115,22 +4117,16 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
@@ -4152,14 +4148,14 @@
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4168,10 +4164,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
@@ -4245,19 +4241,19 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -4287,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
         <v>30</v>
@@ -4302,17 +4298,13 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
@@ -4329,20 +4321,20 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45420</v>
+        <v>45316</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX21" s="2">
         <v>1</v>
@@ -4351,25 +4343,25 @@
         <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
         <v>1</v>
       </c>
       <c r="BB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4431,16 +4423,16 @@
         <v>45405</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4449,10 +4441,10 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -4461,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -4470,36 +4462,34 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
@@ -4524,7 +4514,7 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW22" s="2">
         <v>6</v>
@@ -4545,19 +4535,19 @@
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -4613,19 +4603,19 @@
         <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>45405</v>
+        <v>45323</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4634,10 +4624,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -4646,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -4655,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4672,12 +4662,12 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
@@ -4687,30 +4677,28 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45420</v>
+        <v>45345</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW23" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX23" s="2">
         <v>1</v>
@@ -4734,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="2">
         <v>0</v>
@@ -4784,7 +4772,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -4796,31 +4784,31 @@
         <v>40</v>
       </c>
       <c r="F24" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4829,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -4838,34 +4826,36 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD24" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
+      <c r="AG24" s="2">
+        <v>1</v>
+      </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
+      <c r="AJ24" s="2">
+        <v>1</v>
+      </c>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
@@ -4880,47 +4870,47 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45369</v>
+        <v>45420</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW24" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
         <v>0</v>
@@ -4967,7 +4957,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -4979,7 +4969,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>45413</v>
+        <v>45294</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -5000,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -5021,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5036,18 +5026,22 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="AB25" s="2">
+        <v>1</v>
+      </c>
       <c r="AC25" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
+      <c r="AI25" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
@@ -5063,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45422</v>
+        <v>45310</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5076,7 +5070,7 @@
         <v>7</v>
       </c>
       <c r="AW25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX25" s="2">
         <v>1</v>
@@ -5103,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5150,7 +5144,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -5162,37 +5156,37 @@
         <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -5210,41 +5204,49 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
+      <c r="AG26" s="2">
+        <v>1</v>
+      </c>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
+      <c r="AJ26" s="2">
+        <v>1</v>
+      </c>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
+      <c r="AL26" s="2">
+        <v>1</v>
+      </c>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45345</v>
+        <v>45309</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5254,31 +5256,31 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE26" s="2">
         <v>0</v>
@@ -5342,26 +5344,24 @@
       <c r="E27" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -5385,43 +5385,37 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="U27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
-      <c r="AH27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
@@ -5437,22 +5431,22 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="2">
         <v>0</v>
@@ -5464,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG27" s="2">
         <v>0</v>
@@ -5514,7 +5508,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -5526,7 +5520,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -5535,10 +5529,10 @@
         <v>43</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -5547,10 +5541,10 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5559,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -5574,19 +5568,25 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>1</v>
+      </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45316</v>
+        <v>45420</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
@@ -5616,10 +5616,10 @@
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AW28" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX28" s="2">
         <v>1</v>
@@ -5628,13 +5628,13 @@
         <v>1</v>
       </c>
       <c r="AZ28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28" s="2">
         <v>1</v>
       </c>
       <c r="BB28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="2">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="BG28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -5708,16 +5708,16 @@
         <v>45405</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -5750,29 +5750,29 @@
         <v>77</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
+      <c r="AH29" s="2">
+        <v>1</v>
+      </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
@@ -5795,11 +5795,11 @@
         <v>1</v>
       </c>
       <c r="AT29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW29" s="2">
         <v>4</v>
@@ -5811,28 +5811,28 @@
         <v>1</v>
       </c>
       <c r="AZ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="2">
         <v>1</v>
       </c>
       <c r="BB29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE29" s="2">
         <v>0</v>
       </c>
       <c r="BF29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH29" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,87 +18,87 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600330</t>
+  </si>
+  <si>
     <t>600467</t>
   </si>
   <si>
     <t>600353</t>
   </si>
   <si>
-    <t>600330</t>
-  </si>
-  <si>
     <t>600303</t>
   </si>
   <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600445</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
     <t>600486</t>
   </si>
   <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600445</t>
-  </si>
-  <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
     <t>600376</t>
   </si>
   <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600342</t>
-  </si>
-  <si>
     <t>600359</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>Cincinnati</t>
   </si>
   <si>
+    <t>Westwood</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
-    <t>Westwood</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -147,18 +147,18 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
+    <t>cotton; syringe</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>cotton; syringe</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -171,27 +171,27 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
     <t>heroin; fentanyl</t>
   </si>
   <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
+    <t>cocaine</t>
   </si>
   <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -225,27 +225,27 @@
     <t>white</t>
   </si>
   <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
     <t>pink; blue; green</t>
   </si>
   <si>
-    <t>light tan</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
     <t>light blue</t>
   </si>
   <si>
-    <t>light purple</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
     <t>white; purple</t>
   </si>
   <si>
@@ -255,27 +255,27 @@
     <t>texture</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
-    <t>powder; dull</t>
-  </si>
-  <si>
     <t>crystals</t>
   </si>
   <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>powder; chalky</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -291,40 +291,40 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
     <t>weird; stronger; sedating; unusual taste</t>
   </si>
   <si>
+    <t>weird; sedating; unusual taste</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
     <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
     <t>stronger; more down; sedating</t>
@@ -602,7 +602,7 @@
         <v>88</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z1" t="s">
         <v>89</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
@@ -817,17 +817,21 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC2" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -854,11 +858,11 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW2" s="2">
         <v>7</v>
       </c>
-      <c r="AW2" s="2">
-        <v>3</v>
-      </c>
       <c r="AX2" s="2">
         <v>1</v>
       </c>
@@ -866,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -881,13 +885,13 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -955,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -991,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1004,7 +1008,9 @@
       <c r="AC3" t="s">
         <v>93</v>
       </c>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1015,15 +1021,17 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1033,13 +1041,13 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
         <v>1</v>
@@ -1057,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1143,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1164,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1179,38 +1187,30 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>94</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1223,19 +1223,19 @@
         <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>45385</v>
+        <v>45294</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1549,18 +1549,22 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
       <c r="AC6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
+      <c r="AI6" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
@@ -1576,32 +1580,32 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45428</v>
+        <v>45310</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
         <v>0</v>
@@ -1613,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1675,25 +1679,25 @@
         <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>45295</v>
+        <v>45329</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1717,24 +1721,30 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1745,17 +1755,17 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45310</v>
+        <v>45336</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1765,11 +1775,11 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW7" s="2">
         <v>4</v>
       </c>
-      <c r="AW7" s="2">
-        <v>3</v>
-      </c>
       <c r="AX7" s="2">
         <v>1</v>
       </c>
@@ -1777,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1795,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1854,37 +1864,37 @@
         <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1896,27 +1906,29 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -1936,50 +1948,50 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2023,7 +2035,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -2035,19 +2047,19 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2077,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2092,15 +2104,11 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2121,17 +2129,17 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW9" s="2">
         <v>3</v>
@@ -2208,7 +2216,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2220,19 +2228,19 @@
         <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>45405</v>
+        <v>45413</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2241,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2253,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2262,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2279,14 +2287,12 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AD10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2306,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45418</v>
+        <v>45422</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2316,10 +2322,10 @@
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2343,13 +2349,13 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>1</v>
       </c>
       <c r="BG10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2393,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -2404,26 +2410,24 @@
       <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1">
-        <v>45413</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2447,28 +2451,24 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2479,42 +2479,40 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45422</v>
+        <v>45310</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2526,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>1</v>
@@ -2576,7 +2574,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -2588,7 +2586,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="1">
-        <v>45385</v>
+        <v>45294</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -2600,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2609,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2630,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -2645,47 +2643,53 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
       <c r="AC12" t="s">
         <v>97</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45428</v>
+        <v>45310</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2759,7 +2763,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -2774,10 +2778,10 @@
         <v>45405</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -2792,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2816,31 +2820,33 @@
         <v>72</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
+      <c r="AJ13" s="2">
+        <v>1</v>
+      </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
@@ -2865,10 +2871,10 @@
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AW13" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX13" s="2">
         <v>1</v>
@@ -2877,28 +2883,28 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>1</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -2942,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2954,19 +2960,19 @@
         <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2984,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3002,30 +3008,36 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="AG14" s="2">
+        <v>1</v>
+      </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
+      <c r="AJ14" s="2">
+        <v>1</v>
+      </c>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
+      <c r="AL14" s="2">
+        <v>1</v>
+      </c>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
         <v>116</v>
@@ -3038,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45369</v>
+        <v>45309</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3048,10 +3060,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
         <v>0</v>
@@ -3069,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3137,19 +3149,19 @@
         <v>40</v>
       </c>
       <c r="F15" s="1">
-        <v>45329</v>
+        <v>45405</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3158,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3170,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3179,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3194,16 +3206,16 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3223,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45336</v>
+        <v>45420</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3233,10 +3245,10 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3245,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3260,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3310,7 +3322,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -3322,19 +3334,19 @@
         <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3346,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3355,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3364,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3379,25 +3391,19 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -3412,20 +3418,20 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW16" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3449,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -3499,7 +3505,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -3514,16 +3520,16 @@
         <v>45294</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -3553,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U17" s="2">
         <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -3570,15 +3576,15 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD17" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
@@ -3682,7 +3688,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -3694,31 +3700,31 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>45357</v>
+        <v>45328</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -3736,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -3751,9 +3757,11 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -3768,36 +3776,36 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
         <v>0</v>
@@ -3815,10 +3823,10 @@
         <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
         <v>0</v>
@@ -3865,7 +3873,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -3877,19 +3885,19 @@
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>45294</v>
+        <v>45385</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3919,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="U19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3936,45 +3944,45 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
+      <c r="AK19" s="2">
+        <v>1</v>
+      </c>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4060,19 +4068,19 @@
         <v>40</v>
       </c>
       <c r="F20" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4081,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4093,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4108,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4119,10 +4127,14 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4142,20 +4154,20 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45310</v>
+        <v>45418</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4164,10 +4176,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
@@ -4179,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -4241,31 +4253,31 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4274,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4283,24 +4295,28 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4311,45 +4327,45 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45316</v>
+        <v>45371</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="2">
         <v>0</v>
@@ -4420,31 +4436,31 @@
         <v>40</v>
       </c>
       <c r="F22" s="1">
-        <v>45405</v>
+        <v>45295</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -4453,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -4462,29 +4478,25 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>30</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
-        <v>80</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -4494,17 +4506,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -4514,10 +4526,10 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW22" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -4541,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="2">
         <v>1</v>
       </c>
       <c r="BG22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -4603,31 +4615,31 @@
         <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>45323</v>
+        <v>45357</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -4636,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -4651,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4660,13 +4672,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="AB23" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -4677,15 +4689,17 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45345</v>
+        <v>45369</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -4695,22 +4709,22 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -4722,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -4772,7 +4786,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -4784,37 +4798,37 @@
         <v>40</v>
       </c>
       <c r="F24" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G24" t="s">
         <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -4826,36 +4840,32 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
@@ -4870,32 +4880,32 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45420</v>
+        <v>45372</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -4957,7 +4967,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -4972,13 +4982,13 @@
         <v>45294</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>53</v>
@@ -4990,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -5011,37 +5021,29 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
@@ -5057,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -5067,10 +5069,10 @@
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AW25" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX25" s="2">
         <v>1</v>
@@ -5079,13 +5081,13 @@
         <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
         <v>1</v>
       </c>
       <c r="BB25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="2">
         <v>0</v>
@@ -5094,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5144,7 +5146,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -5156,37 +5158,37 @@
         <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -5204,49 +5206,41 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45309</v>
+        <v>45345</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -5256,31 +5250,31 @@
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE26" s="2">
         <v>0</v>
@@ -5333,7 +5327,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -5344,24 +5338,26 @@
       <c r="E27" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <v>45385</v>
+      </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -5385,24 +5381,28 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD27" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
@@ -5413,15 +5413,17 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO27" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>0</v>
+      </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5508,7 +5510,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -5520,19 +5522,19 @@
         <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -5541,10 +5543,10 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5553,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -5562,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="U28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -5579,17 +5581,15 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
+      <c r="AH28" s="2">
+        <v>1</v>
+      </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
@@ -5606,20 +5606,20 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
       </c>
       <c r="AT28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW28" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX28" s="2">
         <v>1</v>
@@ -5643,13 +5643,13 @@
         <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>45405</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
         <v>49</v>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,90 +18,90 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600467</t>
+  </si>
+  <si>
+    <t>600353</t>
+  </si>
+  <si>
+    <t>600303</t>
+  </si>
+  <si>
     <t>600330</t>
   </si>
   <si>
-    <t>600467</t>
-  </si>
-  <si>
-    <t>600353</t>
-  </si>
-  <si>
-    <t>600303</t>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600453</t>
   </si>
   <si>
     <t>600336</t>
   </si>
   <si>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600486</t>
+  </si>
+  <si>
     <t>600367</t>
   </si>
   <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600342</t>
-  </si>
-  <si>
-    <t>600424</t>
+    <t>600397</t>
   </si>
   <si>
     <t>600345</t>
   </si>
   <si>
-    <t>600468</t>
-  </si>
-  <si>
     <t>600445</t>
   </si>
   <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600486</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600359</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -111,15 +111,15 @@
     <t>Hamilton</t>
   </si>
   <si>
+    <t>Carthage</t>
+  </si>
+  <si>
+    <t>Westwood</t>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>Westwood</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -147,6 +147,9 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
@@ -156,9 +159,6 @@
     <t>cotton; syringe</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -171,13 +171,16 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
+    <t>cocaine; crack</t>
   </si>
   <si>
     <t>heroin; fentanyl; xylazine; crack</t>
@@ -189,9 +192,6 @@
     <t>cocaine</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -225,57 +225,57 @@
     <t>white</t>
   </si>
   <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>white; purple</t>
+  </si>
+  <si>
     <t>tan; white</t>
   </si>
   <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
     <t>light purple</t>
   </si>
   <si>
-    <t>light tan</t>
-  </si>
-  <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
     <t>texture</t>
   </si>
   <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>powder; dull</t>
   </si>
   <si>
-    <t>powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder; flaky; dull</t>
   </si>
   <si>
     <t>powder; shiny</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>powder; chalky</t>
   </si>
   <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -291,43 +291,43 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>unpleasant; sedating</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
   </si>
   <si>
     <t>nice; stronger; sedating</t>
   </si>
   <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
     <t>weird; sedating; unusual taste</t>
   </si>
   <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>more down; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -602,13 +602,13 @@
         <v>88</v>
       </c>
       <c r="Y1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
         <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
         <v>90</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
@@ -817,21 +817,17 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB2" s="2"/>
       <c r="AC2" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -858,10 +854,10 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
         <v>1</v>
@@ -870,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="AZ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" s="2">
         <v>0</v>
@@ -885,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="BE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="2">
         <v>0</v>
@@ -959,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -995,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1008,9 +1004,7 @@
       <c r="AC3" t="s">
         <v>93</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -1021,17 +1015,15 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1041,13 +1033,13 @@
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
         <v>1</v>
@@ -1065,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="2">
         <v>0</v>
@@ -1145,22 +1137,22 @@
         <v>53</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1182,17 +1174,19 @@
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>94</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1202,46 +1196,48 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="2">
         <v>1</v>
@@ -1324,22 +1320,22 @@
         <v>54</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1351,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1361,12 +1357,14 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC5" t="s">
         <v>95</v>
       </c>
@@ -1376,7 +1374,9 @@
       </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
@@ -1393,26 +1393,26 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1549,51 +1549,45 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1667,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1679,7 +1673,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>45329</v>
+        <v>45357</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -1688,22 +1682,22 @@
         <v>44</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1712,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1727,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1740,11 +1734,9 @@
         <v>-1</v>
       </c>
       <c r="AC7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -1765,26 +1757,26 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
@@ -1802,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1864,13 +1856,13 @@
         <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>45405</v>
+        <v>45328</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -1885,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1906,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1921,14 +1913,16 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC8" t="s">
         <v>92</v>
       </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -1948,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45420</v>
+        <v>45372</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1958,10 +1952,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -1973,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -1988,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2035,7 +2029,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -2047,19 +2041,19 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45294</v>
+        <v>45413</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2089,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2106,9 +2100,11 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2129,20 +2125,20 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45310</v>
+        <v>45422</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX9" s="2">
         <v>1</v>
@@ -2151,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2169,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2216,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2228,37 +2224,37 @@
         <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>45413</v>
+        <v>45357</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>53</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2280,18 +2276,16 @@
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -2312,47 +2306,47 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45422</v>
+        <v>45372</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2399,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -2410,18 +2404,20 @@
       <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>45295</v>
+      </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2451,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="s">
         <v>30</v>
@@ -2479,9 +2475,11 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
@@ -2493,26 +2491,26 @@
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2524,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>1</v>
@@ -2589,10 +2587,10 @@
         <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2607,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -2628,13 +2626,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2643,11 +2641,9 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -2656,12 +2652,8 @@
       <c r="AH12" s="2">
         <v>1</v>
       </c>
-      <c r="AI12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
@@ -2686,10 +2678,10 @@
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2778,7 +2770,7 @@
         <v>45405</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
         <v>49</v>
@@ -2787,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -2817,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" s="2">
         <v>1</v>
@@ -2832,7 +2824,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -2948,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2972,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3008,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3019,7 +3011,7 @@
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2">
@@ -3137,7 +3129,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -3161,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3173,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3182,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3191,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3208,11 +3200,9 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2">
         <v>1</v>
       </c>
@@ -3245,10 +3235,10 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW15" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3257,13 +3247,13 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3272,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
         <v>1</v>
@@ -3322,7 +3312,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -3337,16 +3327,16 @@
         <v>45405</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3355,10 +3345,10 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3367,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3376,32 +3366,32 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
         <v>30</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
-        <v>81</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
+      <c r="AH16" s="2">
+        <v>1</v>
+      </c>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
@@ -3424,14 +3414,14 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW16" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3449,19 +3439,19 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -3516,26 +3506,24 @@
       <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3559,28 +3547,24 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -3591,11 +3575,9 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
@@ -3611,22 +3593,22 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3638,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -3688,7 +3670,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -3700,19 +3682,19 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -3721,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -3742,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -3758,20 +3740,24 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
+      <c r="AH18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>1</v>
+      </c>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
@@ -3786,20 +3772,20 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -3808,10 +3794,10 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -3873,7 +3859,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -3885,19 +3871,19 @@
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>45385</v>
+        <v>45294</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3927,49 +3913,45 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45428</v>
+        <v>45316</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -3979,7 +3961,7 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AW19" s="2">
         <v>6</v>
@@ -3991,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>1</v>
       </c>
       <c r="BB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="2">
         <v>0</v>
@@ -4006,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4056,7 +4038,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -4080,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4116,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4127,7 +4109,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD20" s="2">
         <v>1</v>
@@ -4154,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4164,10 +4146,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW20" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4241,7 +4223,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -4253,31 +4235,31 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4286,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4295,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4312,11 +4294,9 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -4327,17 +4307,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45371</v>
+        <v>45310</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4347,16 +4327,16 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
@@ -4374,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4424,7 +4404,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -4436,31 +4416,31 @@
         <v>40</v>
       </c>
       <c r="F22" s="1">
-        <v>45295</v>
+        <v>45405</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -4469,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -4478,25 +4458,31 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -4506,17 +4492,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45310</v>
+        <v>45418</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -4526,10 +4512,10 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW22" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -4553,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
         <v>1</v>
       </c>
       <c r="BG22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -4615,31 +4601,31 @@
         <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -4648,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -4657,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4673,17 +4659,21 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD23" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>1</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
+      <c r="AI23" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
@@ -4699,32 +4689,32 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45369</v>
+        <v>45310</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
@@ -4736,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -4786,7 +4776,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -4798,28 +4788,28 @@
         <v>40</v>
       </c>
       <c r="F24" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -4828,10 +4818,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -4840,27 +4830,29 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -4880,50 +4872,50 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW24" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -4967,7 +4959,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -4979,19 +4971,19 @@
         <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>45294</v>
+        <v>45385</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -5021,24 +5013,28 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD25" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -5059,35 +5055,35 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45316</v>
+        <v>45428</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AW25" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
       </c>
       <c r="BA25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC25" s="2">
         <v>0</v>
@@ -5146,7 +5142,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -5158,19 +5154,19 @@
         <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>45323</v>
+        <v>45329</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5206,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -5215,9 +5211,11 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
+      <c r="AB26" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD26" s="2">
         <v>0</v>
@@ -5232,28 +5230,30 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45345</v>
+        <v>45336</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -5262,10 +5262,10 @@
         <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -5339,31 +5339,31 @@
         <v>40</v>
       </c>
       <c r="F27" s="1">
-        <v>45385</v>
+        <v>45357</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -5398,7 +5398,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD27" s="2">
         <v>0</v>
@@ -5413,17 +5413,17 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45428</v>
+        <v>45371</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5510,7 +5510,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -5525,16 +5525,16 @@
         <v>45294</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -5564,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" s="2">
         <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -5581,15 +5581,15 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD28" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
-      <c r="AH28" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
@@ -5693,7 +5693,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -5705,19 +5705,19 @@
         <v>40</v>
       </c>
       <c r="F29" s="1">
-        <v>45405</v>
+        <v>45385</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -5747,62 +5747,62 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="U29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
         <v>104</v>
       </c>
-      <c r="AD29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2">
+        <v>1</v>
+      </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AH29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
+      <c r="AK29" s="2">
+        <v>1</v>
+      </c>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO29" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45420</v>
+        <v>45428</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
       </c>
       <c r="AT29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW29" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX29" s="2">
         <v>1</v>
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="BC29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -21,93 +21,96 @@
     <t>600467</t>
   </si>
   <si>
+    <t>600303</t>
+  </si>
+  <si>
     <t>600353</t>
   </si>
   <si>
-    <t>600303</t>
-  </si>
-  <si>
     <t>600330</t>
   </si>
   <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600445</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
     <t>600317</t>
   </si>
   <si>
+    <t>600369</t>
+  </si>
+  <si>
     <t>600384</t>
   </si>
   <si>
-    <t>600468</t>
+    <t>600306</t>
   </si>
   <si>
     <t>600464</t>
   </si>
   <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600373</t>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600486</t>
+  </si>
+  <si>
+    <t>600453</t>
   </si>
   <si>
     <t>600354</t>
   </si>
   <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600391</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600342</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600486</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600445</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
     <t>Westwood</t>
   </si>
   <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
     <t>county</t>
   </si>
   <si>
@@ -147,15 +147,15 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>cotton; syringe</t>
   </si>
   <si>
@@ -180,18 +180,18 @@
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>heroin; fentanyl</t>
+  </si>
+  <si>
+    <t>heroin; fentanyl; xylazine; crack</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>cocaine; crack</t>
   </si>
   <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
-  </si>
-  <si>
-    <t>heroin; fentanyl</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -225,30 +225,30 @@
     <t>white</t>
   </si>
   <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>light purple</t>
+  </si>
+  <si>
     <t>light tan</t>
   </si>
   <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
+    <t>white; purple</t>
+  </si>
+  <si>
     <t>tan</t>
   </si>
   <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -264,18 +264,18 @@
     <t>powder; dull</t>
   </si>
   <si>
+    <t>powder; chalky</t>
+  </si>
+  <si>
+    <t>powder; shiny</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
-    <t>powder; chalky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -294,40 +294,40 @@
     <t>normal</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>sedating</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>unpleasant; sedating</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>more down; sedating; unusual taste</t>
   </si>
   <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
     <t>normal; more up; long</t>
   </si>
   <si>
-    <t>weird; long; more up; unpleasant</t>
+    <t>weird; sedating; unusual taste</t>
   </si>
   <si>
     <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
-  </si>
-  <si>
-    <t>weird; stronger; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,25 +955,25 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -991,21 +991,23 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>93</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1015,46 +1017,48 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO3" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2">
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45419</v>
+        <v>45415</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
         <v>1</v>
@@ -1134,25 +1138,25 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1170,23 +1174,21 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>94</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1196,48 +1198,46 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
         <v>1</v>
@@ -1492,16 +1492,16 @@
         <v>40</v>
       </c>
       <c r="F6" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
@@ -1534,28 +1534,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1566,28 +1562,30 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45345</v>
+        <v>45316</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX6" s="2">
         <v>1</v>
@@ -1596,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -1611,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1673,7 +1671,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>45357</v>
+        <v>45385</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -1682,22 +1680,22 @@
         <v>44</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>55</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1706,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1721,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1730,59 +1728,59 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
+      <c r="AK7" s="2">
+        <v>1</v>
+      </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45369</v>
+        <v>45428</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
         <v>0</v>
@@ -1794,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1844,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1856,19 +1854,19 @@
         <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>45328</v>
+        <v>45405</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -1877,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -1889,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -1898,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1913,16 +1911,16 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -1942,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45372</v>
+        <v>45420</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1952,10 +1950,10 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX8" s="2">
         <v>1</v>
@@ -1964,10 +1962,10 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -1979,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2029,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -2041,37 +2039,37 @@
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>45413</v>
+        <v>45357</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2089,22 +2087,20 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -2125,47 +2121,47 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45422</v>
+        <v>45372</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2212,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2224,37 +2220,37 @@
         <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>45357</v>
+        <v>45294</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2266,31 +2262,37 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
       <c r="AC10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
+      <c r="AI10" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
@@ -2306,41 +2308,41 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
         <v>0</v>
@@ -2393,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -2408,16 +2410,16 @@
         <v>45295</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2572,7 +2574,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -2587,10 +2589,10 @@
         <v>45294</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2643,7 +2645,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -2767,31 +2769,31 @@
         <v>40</v>
       </c>
       <c r="F13" s="1">
-        <v>45405</v>
+        <v>45357</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2800,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2809,91 +2811,89 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45420</v>
+        <v>45371</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
         <v>0</v>
@@ -2940,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -2951,20 +2951,18 @@
       <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="1">
-        <v>45294</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -2976,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2994,55 +2992,43 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3052,10 +3038,10 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
         <v>0</v>
@@ -3073,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3129,7 +3115,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -3141,7 +3127,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
@@ -3153,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3162,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -3183,13 +3169,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3200,12 +3186,12 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3225,20 +3211,20 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3247,13 +3233,13 @@
         <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3265,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3312,7 +3298,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -3324,19 +3310,19 @@
         <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3345,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3366,34 +3352,40 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2">
         <v>1</v>
       </c>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+      <c r="AI16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>1</v>
+      </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -3408,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3418,10 +3410,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3439,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
         <v>0</v>
@@ -3495,7 +3487,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -3506,24 +3498,26 @@
       <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>45328</v>
+      </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3547,24 +3541,30 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD17" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -3575,34 +3575,36 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
         <v>0</v>
@@ -3620,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -3685,34 +3687,34 @@
         <v>45294</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -3724,42 +3726,42 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
       <c r="AJ18" s="2">
         <v>1</v>
       </c>
       <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
+      <c r="AL18" s="2">
+        <v>1</v>
+      </c>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
         <v>116</v>
@@ -3772,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -3782,31 +3784,31 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW18" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -3859,7 +3861,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -3871,16 +3873,16 @@
         <v>40</v>
       </c>
       <c r="F19" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>52</v>
@@ -3913,24 +3915,28 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -3941,30 +3947,28 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45316</v>
+        <v>45345</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AW19" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -3973,13 +3977,13 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>1</v>
       </c>
       <c r="BB19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="2">
         <v>0</v>
@@ -3988,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4038,7 +4042,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -4053,16 +4057,16 @@
         <v>45405</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4071,10 +4075,10 @@
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4083,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4092,36 +4096,36 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>30</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>80</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
+      <c r="AJ20" s="2">
+        <v>1</v>
+      </c>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
@@ -4146,10 +4150,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4167,19 +4171,19 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -4223,7 +4227,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -4235,7 +4239,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -4247,19 +4251,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4268,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4277,13 +4281,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4292,7 +4296,9 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="AB21" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC21" t="s">
         <v>30</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45310</v>
+        <v>45369</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4327,16 +4333,16 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
         <v>0</v>
@@ -4354,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4404,7 +4410,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -4416,19 +4422,19 @@
         <v>40</v>
       </c>
       <c r="F22" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4437,10 +4443,10 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -4449,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -4475,14 +4481,10 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -4502,20 +4504,20 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45418</v>
+        <v>45310</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -4524,10 +4526,10 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
@@ -4539,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -4589,7 +4591,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -4601,19 +4603,19 @@
         <v>40</v>
       </c>
       <c r="F23" s="1">
-        <v>45294</v>
+        <v>45413</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -4622,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -4643,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4658,22 +4660,18 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AD23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
@@ -4689,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45310</v>
+        <v>45422</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -4702,7 +4700,7 @@
         <v>7</v>
       </c>
       <c r="AW23" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX23" s="2">
         <v>1</v>
@@ -4729,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -4776,7 +4774,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -4971,7 +4969,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="1">
-        <v>45385</v>
+        <v>45329</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -4983,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -5019,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5028,7 +5026,9 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="AB25" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC25" t="s">
         <v>92</v>
       </c>
@@ -5055,26 +5055,26 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45428</v>
+        <v>45336</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="2">
         <v>0</v>
@@ -5142,7 +5142,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -5154,13 +5154,13 @@
         <v>40</v>
       </c>
       <c r="F26" s="1">
-        <v>45329</v>
+        <v>45405</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -5196,34 +5196,32 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AD26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
+      <c r="AH26" s="2">
+        <v>1</v>
+      </c>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
@@ -5240,17 +5238,17 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45336</v>
+        <v>45420</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26" s="2">
         <v>4</v>
@@ -5262,19 +5260,19 @@
         <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="2">
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE26" s="2">
         <v>0</v>
@@ -5327,7 +5325,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -5339,7 +5337,7 @@
         <v>40</v>
       </c>
       <c r="F27" s="1">
-        <v>45357</v>
+        <v>45385</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
@@ -5351,19 +5349,19 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
@@ -5372,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -5413,17 +5411,17 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45371</v>
+        <v>45428</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -5510,7 +5508,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -5522,7 +5520,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G28" t="s">
         <v>43</v>
@@ -5534,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -5543,10 +5541,10 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5555,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -5564,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="U28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="s">
         <v>80</v>
@@ -5581,12 +5579,14 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AD28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>1</v>
+      </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
@@ -5606,20 +5606,20 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45310</v>
+        <v>45418</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
       </c>
       <c r="AT28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX28" s="2">
         <v>1</v>
@@ -5643,13 +5643,13 @@
         <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -5705,19 +5705,19 @@
         <v>40</v>
       </c>
       <c r="F29" s="1">
-        <v>45385</v>
+        <v>45405</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -5747,13 +5747,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -5764,7 +5764,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2">
@@ -5775,21 +5775,21 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
-      <c r="AK29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO29" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>0</v>
+      </c>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2">
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45428</v>
+        <v>45420</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -5799,10 +5799,10 @@
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX29" s="2">
         <v>1</v>
@@ -5811,13 +5811,13 @@
         <v>1</v>
       </c>
       <c r="AZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="2">
         <v>1</v>
       </c>
       <c r="BB29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29" s="2">
         <v>0</v>
@@ -5829,10 +5829,10 @@
         <v>0</v>
       </c>
       <c r="BF29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH29" s="2">
         <v>0</v>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -13,48 +13,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="519" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="535" uniqueCount="161">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>600353</t>
+  </si>
+  <si>
+    <t>600303</t>
+  </si>
+  <si>
     <t>600467</t>
   </si>
   <si>
-    <t>600303</t>
-  </si>
-  <si>
-    <t>600353</t>
-  </si>
-  <si>
     <t>600330</t>
   </si>
   <si>
+    <t>600493</t>
+  </si>
+  <si>
+    <t>600376</t>
+  </si>
+  <si>
+    <t>600373</t>
+  </si>
+  <si>
+    <t>600391</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600486</t>
+  </si>
+  <si>
+    <t>600445</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
     <t>600327</t>
   </si>
   <si>
-    <t>600445</t>
-  </si>
-  <si>
-    <t>600342</t>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600359</t>
   </si>
   <si>
     <t>600438</t>
   </si>
   <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600376</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600391</t>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600354</t>
   </si>
   <si>
     <t>600345</t>
@@ -63,66 +102,36 @@
     <t>600315</t>
   </si>
   <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600373</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600486</t>
-  </si>
-  <si>
     <t>600453</t>
   </si>
   <si>
-    <t>600354</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Carthage</t>
+  </si>
+  <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Carthage</t>
-  </si>
-  <si>
     <t>Westwood</t>
   </si>
   <si>
     <t>county</t>
   </si>
   <si>
+    <t>Clermont County</t>
+  </si>
+  <si>
     <t>Hamilton County</t>
   </si>
   <si>
@@ -147,15 +156,15 @@
     <t>cotton</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>cotton; syringe</t>
   </si>
   <si>
@@ -225,30 +234,30 @@
     <t>white</t>
   </si>
   <si>
+    <t>light blue</t>
+  </si>
+  <si>
+    <t>light tan</t>
+  </si>
+  <si>
+    <t>pink; blue; green</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
     <t>tan; white</t>
   </si>
   <si>
-    <t>pink; blue; green</t>
-  </si>
-  <si>
-    <t>light blue</t>
+    <t>white; purple</t>
+  </si>
+  <si>
+    <t>tan</t>
   </si>
   <si>
     <t>light purple</t>
   </si>
   <si>
-    <t>light tan</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -270,12 +279,12 @@
     <t>powder; shiny</t>
   </si>
   <si>
+    <t>powder; flaky; dull</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>powder; flaky; dull</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -291,45 +300,48 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
     <t>unpleasant; sedating</t>
   </si>
   <si>
+    <t>normal; stronger; sedating</t>
+  </si>
+  <si>
+    <t>more down; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>weird; long; more up; unpleasant</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
     <t>weird; stronger; sedating; unusual taste</t>
   </si>
   <si>
+    <t>normal; more up; long</t>
+  </si>
+  <si>
     <t>nice; stronger; sedating</t>
   </si>
   <si>
-    <t>more down; sedating; unusual taste</t>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>weird; sedating; unusual taste</t>
   </si>
   <si>
     <t>nice; long; more down; sedating</t>
   </si>
   <si>
-    <t>weird; long; more up; unpleasant</t>
-  </si>
-  <si>
-    <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -456,6 +468,9 @@
     <t xml:space="preserve">OH | </t>
   </si>
   <si>
+    <t>OH | CLERMONT</t>
+  </si>
+  <si>
     <t>OH | HAMILTON</t>
   </si>
   <si>
@@ -468,10 +483,16 @@
     <t>countyfips_3</t>
   </si>
   <si>
+    <t>025</t>
+  </si>
+  <si>
     <t>061</t>
   </si>
   <si>
     <t>countyfips</t>
+  </si>
+  <si>
+    <t>39025</t>
   </si>
   <si>
     <t>39061</t>
@@ -522,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS29"/>
+  <dimension ref="A1:BS30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,214 +554,214 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="U1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AB1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AD1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AE1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AF1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AG1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AH1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AI1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AJ1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AM1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AN1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AO1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AP1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AQ1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AR1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AS1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AT1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AU1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AV1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AW1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AX1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AY1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AZ1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BA1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="BB1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BC1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="BD1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="BE1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="BF1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="BG1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BH1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BI1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="BJ1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BK1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BL1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BM1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="BN1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BO1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BP1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="BQ1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="BR1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="BS1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
@@ -748,31 +769,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1">
         <v>45405</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
@@ -802,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -819,11 +840,9 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -834,17 +853,15 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -854,13 +871,13 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="2">
         <v>1</v>
@@ -878,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -914,16 +931,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="BQ2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BR2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BS2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -931,31 +948,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1">
         <v>45405</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -985,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1002,7 +1019,7 @@
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2">
@@ -1017,7 +1034,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1097,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="BQ3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BR3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BS3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1114,31 +1131,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1">
         <v>45405</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1168,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1185,9 +1202,11 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD4" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1198,15 +1217,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1216,13 +1237,13 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
@@ -1240,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1276,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="BP4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="BQ4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BR4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BS4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1293,31 +1314,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1">
         <v>45405</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1347,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1366,7 +1387,7 @@
         <v>-1</v>
       </c>
       <c r="AC5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2">
@@ -1383,7 +1404,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1463,16 +1484,16 @@
         <v>0</v>
       </c>
       <c r="BP5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="BQ5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BR5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BS5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1480,78 +1501,82 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45433</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45294</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>30</v>
-      </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD6" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1562,17 +1587,15 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45316</v>
+        <v>45443</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1582,34 +1605,34 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AW6" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
         <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>1</v>
@@ -1642,16 +1665,16 @@
         <v>0</v>
       </c>
       <c r="BP6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="BQ6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="BS6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
@@ -1659,25 +1682,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1">
-        <v>45385</v>
+        <v>45294</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1713,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
         <v>83</v>
@@ -1730,45 +1753,45 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45428</v>
+        <v>45310</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
         <v>1</v>
@@ -1825,16 +1848,16 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1842,25 +1865,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -1869,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
         <v>1</v>
@@ -1884,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -1896,41 +1919,45 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2">
         <v>1</v>
       </c>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
+      <c r="AL8" s="2">
+        <v>1</v>
+      </c>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO8" s="2">
         <v>0</v>
@@ -1940,50 +1967,50 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45420</v>
+        <v>45309</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW8" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="2">
         <v>0</v>
@@ -2010,16 +2037,16 @@
         <v>0</v>
       </c>
       <c r="BP8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -2027,31 +2054,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45357</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2063,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2081,24 +2106,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -2111,17 +2134,15 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2152,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="2">
         <v>0</v>
@@ -2191,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -2208,31 +2229,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1">
-        <v>45294</v>
+        <v>45413</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2241,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2262,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2277,28 +2298,24 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2308,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45310</v>
+        <v>45422</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2321,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="AW10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2348,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2378,16 +2395,16 @@
         <v>0</v>
       </c>
       <c r="BP10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -2395,37 +2412,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1">
-        <v>45295</v>
+        <v>45385</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -2449,24 +2466,28 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2477,42 +2498,42 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AO11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="2">
         <v>0</v>
@@ -2524,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>1</v>
@@ -2557,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS11" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -2574,31 +2595,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1">
-        <v>45294</v>
+        <v>45385</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2631,10 +2652,10 @@
         <v>72</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2645,45 +2666,45 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
+      <c r="AK12" s="2">
+        <v>1</v>
+      </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45310</v>
+        <v>45428</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -2740,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS12" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -2757,67 +2778,67 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45405</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45357</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>69</v>
-      </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2828,12 +2849,14 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -2843,42 +2866,42 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AO13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45371</v>
+        <v>45420</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
@@ -2896,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -2923,16 +2946,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS13" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -2940,74 +2963,78 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45294</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>30</v>
-      </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -3020,9 +3047,11 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
@@ -3038,16 +3067,16 @@
       </c>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -3065,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
         <v>0</v>
@@ -3098,16 +3127,16 @@
         <v>0</v>
       </c>
       <c r="BP14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ14" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS14" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -3115,43 +3144,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1">
-        <v>45294</v>
+        <v>45357</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3160,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3169,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3186,7 +3215,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3201,17 +3230,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45310</v>
+        <v>45371</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3221,22 +3250,22 @@
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="2">
         <v>0</v>
@@ -3248,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
         <v>0</v>
@@ -3281,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR15" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS15" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -3298,31 +3327,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1">
-        <v>45294</v>
+        <v>45328</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3331,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3352,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3368,29 +3397,25 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD16" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -3400,20 +3425,20 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3422,10 +3447,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3470,16 +3495,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR16" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS16" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -3487,37 +3512,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
-        <v>45328</v>
+        <v>45295</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3541,30 +3566,24 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -3575,17 +3594,17 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AO17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -3595,7 +3614,7 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW17" s="2">
         <v>3</v>
@@ -3607,10 +3626,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3625,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -3655,16 +3674,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR17" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS17" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -3675,46 +3694,46 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1">
-        <v>45294</v>
+        <v>45405</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -3726,29 +3745,27 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2">
         <v>1</v>
@@ -3759,12 +3776,10 @@
         <v>1</v>
       </c>
       <c r="AK18" s="2"/>
-      <c r="AL18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO18" s="2">
         <v>0</v>
@@ -3774,32 +3789,32 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45309</v>
+        <v>45420</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AW18" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="2">
         <v>0</v>
@@ -3844,16 +3859,16 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR18" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS18" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -3861,31 +3876,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -3915,28 +3930,24 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -3947,28 +3958,30 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45345</v>
+        <v>45316</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -3977,13 +3990,13 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>1</v>
       </c>
       <c r="BB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="2">
         <v>0</v>
@@ -3992,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
         <v>0</v>
@@ -4025,16 +4038,16 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR19" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS19" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -4042,31 +4055,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G20" t="s">
         <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4075,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4096,41 +4109,43 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
       <c r="AC20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO20" s="2">
         <v>0</v>
@@ -4140,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4150,10 +4165,10 @@
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AW20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4171,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
         <v>0</v>
@@ -4210,16 +4225,16 @@
         <v>0</v>
       </c>
       <c r="BP20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR20" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS20" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
@@ -4227,31 +4242,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F21" s="1">
         <v>45357</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -4281,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4300,7 +4315,7 @@
         <v>-1</v>
       </c>
       <c r="AC21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -4313,7 +4328,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO21" s="2">
         <v>0</v>
@@ -4393,16 +4408,16 @@
         <v>0</v>
       </c>
       <c r="BP21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ21" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS21" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
@@ -4410,91 +4425,93 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45405</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>78</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="1">
-        <v>45294</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" t="s">
-        <v>30</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
-        <v>80</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD22" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
+      <c r="AH22" s="2">
+        <v>1</v>
+      </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO22" s="2">
         <v>0</v>
@@ -4504,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -4514,10 +4531,10 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -4526,19 +4543,19 @@
         <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
         <v>0</v>
@@ -4574,16 +4591,16 @@
         <v>0</v>
       </c>
       <c r="BP22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ22" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR22" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
@@ -4591,49 +4608,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1">
-        <v>45413</v>
+        <v>45357</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -4645,28 +4662,26 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -4677,7 +4692,7 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO23" s="2">
         <v>0</v>
@@ -4687,47 +4702,47 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45422</v>
+        <v>45372</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="2">
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="2">
         <v>0</v>
       </c>
       <c r="BF23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="2">
         <v>0</v>
@@ -4757,16 +4772,16 @@
         <v>0</v>
       </c>
       <c r="BP23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS23" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
@@ -4774,31 +4789,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1">
-        <v>45405</v>
+        <v>45329</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -4807,10 +4822,10 @@
         <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4819,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -4828,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4843,14 +4858,16 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -4860,7 +4877,7 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO24" s="2">
         <v>0</v>
@@ -4870,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45420</v>
+        <v>45336</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -4880,10 +4897,10 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW24" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
@@ -4892,10 +4909,10 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="2">
         <v>0</v>
@@ -4907,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -4940,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="BP24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS24" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
@@ -4957,31 +4974,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1">
-        <v>45329</v>
+        <v>45323</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -5011,13 +5028,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5026,11 +5043,9 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AD25" s="2">
         <v>0</v>
@@ -5045,30 +5060,28 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX25" s="2">
         <v>1</v>
@@ -5077,10 +5090,10 @@
         <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="2">
         <v>0</v>
@@ -5125,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="BP25" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR25" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS25" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26">
@@ -5142,31 +5155,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1">
         <v>45405</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -5175,10 +5188,10 @@
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -5187,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -5196,39 +5209,39 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="U26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
-      <c r="AH26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO26" s="2">
         <v>0</v>
@@ -5244,14 +5257,14 @@
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -5269,19 +5282,19 @@
         <v>0</v>
       </c>
       <c r="BC26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH26" s="2">
         <v>0</v>
@@ -5308,16 +5321,16 @@
         <v>0</v>
       </c>
       <c r="BP26" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ26" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR26" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS26" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
@@ -5325,31 +5338,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F27" s="1">
-        <v>45385</v>
+        <v>45405</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -5358,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -5379,13 +5392,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -5396,12 +5409,12 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2">
+        <v>1</v>
+      </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
@@ -5411,7 +5424,7 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO27" s="2">
         <v>0</v>
@@ -5421,35 +5434,35 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45428</v>
+        <v>45420</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
       </c>
       <c r="AT27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="2">
         <v>0</v>
       </c>
       <c r="BA27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC27" s="2">
         <v>0</v>
@@ -5458,13 +5471,13 @@
         <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="2">
         <v>1</v>
       </c>
       <c r="BG27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -5491,16 +5504,16 @@
         <v>0</v>
       </c>
       <c r="BP27" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ27" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR27" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS27" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
@@ -5508,31 +5521,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -5541,10 +5554,10 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -5553,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -5562,13 +5575,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="U28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -5582,11 +5595,9 @@
         <v>97</v>
       </c>
       <c r="AD28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
@@ -5596,7 +5607,7 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO28" s="2">
         <v>0</v>
@@ -5606,20 +5617,20 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45418</v>
+        <v>45310</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
       </c>
       <c r="AT28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AW28" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX28" s="2">
         <v>1</v>
@@ -5643,13 +5654,13 @@
         <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -5676,16 +5687,16 @@
         <v>0</v>
       </c>
       <c r="BP28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ28" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR28" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS28" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -5693,31 +5704,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F29" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -5753,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -5762,24 +5773,30 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
+      <c r="AB29" s="2">
+        <v>1</v>
+      </c>
       <c r="AC29" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
+      <c r="AH29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>1</v>
+      </c>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AO29" s="2">
         <v>0</v>
@@ -5789,20 +5806,20 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45420</v>
+        <v>45310</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
       </c>
       <c r="AT29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX29" s="2">
         <v>1</v>
@@ -5811,13 +5828,13 @@
         <v>1</v>
       </c>
       <c r="AZ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="2">
         <v>1</v>
       </c>
       <c r="BB29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="2">
         <v>0</v>
@@ -5829,10 +5846,10 @@
         <v>0</v>
       </c>
       <c r="BF29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH29" s="2">
         <v>0</v>
@@ -5859,16 +5876,201 @@
         <v>0</v>
       </c>
       <c r="BP29" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BQ29" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BR29" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BS29" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45405</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>83</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>45418</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2">
+        <v>10</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>5</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>152</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/HC/analysis_dataset.xlsx
+++ b/datasets/selfservice/HC/analysis_dataset.xlsx
@@ -18,93 +18,93 @@
     <t>sampleid</t>
   </si>
   <si>
+    <t>600467</t>
+  </si>
+  <si>
+    <t>600330</t>
+  </si>
+  <si>
     <t>600353</t>
   </si>
   <si>
     <t>600303</t>
   </si>
   <si>
-    <t>600467</t>
-  </si>
-  <si>
-    <t>600330</t>
-  </si>
-  <si>
     <t>600493</t>
   </si>
   <si>
     <t>600376</t>
   </si>
   <si>
+    <t>600345</t>
+  </si>
+  <si>
+    <t>600342</t>
+  </si>
+  <si>
+    <t>600315</t>
+  </si>
+  <si>
+    <t>600327</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
     <t>600373</t>
   </si>
   <si>
+    <t>600317</t>
+  </si>
+  <si>
+    <t>600354</t>
+  </si>
+  <si>
+    <t>600336</t>
+  </si>
+  <si>
+    <t>600468</t>
+  </si>
+  <si>
+    <t>600445</t>
+  </si>
+  <si>
+    <t>600464</t>
+  </si>
+  <si>
+    <t>600306</t>
+  </si>
+  <si>
+    <t>600359</t>
+  </si>
+  <si>
+    <t>600453</t>
+  </si>
+  <si>
+    <t>600424</t>
+  </si>
+  <si>
+    <t>600369</t>
+  </si>
+  <si>
+    <t>600367</t>
+  </si>
+  <si>
+    <t>600324</t>
+  </si>
+  <si>
+    <t>600384</t>
+  </si>
+  <si>
+    <t>600486</t>
+  </si>
+  <si>
+    <t>600397</t>
+  </si>
+  <si>
     <t>600391</t>
   </si>
   <si>
-    <t>600464</t>
-  </si>
-  <si>
-    <t>600486</t>
-  </si>
-  <si>
-    <t>600445</t>
-  </si>
-  <si>
-    <t>600342</t>
-  </si>
-  <si>
-    <t>600306</t>
-  </si>
-  <si>
-    <t>600397</t>
-  </si>
-  <si>
-    <t>600468</t>
-  </si>
-  <si>
-    <t>600324</t>
-  </si>
-  <si>
-    <t>600369</t>
-  </si>
-  <si>
-    <t>600327</t>
-  </si>
-  <si>
-    <t>600336</t>
-  </si>
-  <si>
-    <t>600384</t>
-  </si>
-  <si>
-    <t>600359</t>
-  </si>
-  <si>
-    <t>600438</t>
-  </si>
-  <si>
-    <t>600367</t>
-  </si>
-  <si>
-    <t>600317</t>
-  </si>
-  <si>
-    <t>600424</t>
-  </si>
-  <si>
-    <t>600354</t>
-  </si>
-  <si>
-    <t>600345</t>
-  </si>
-  <si>
-    <t>600315</t>
-  </si>
-  <si>
-    <t>600453</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -159,12 +159,12 @@
     <t>spatula</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>cotton; syringe</t>
   </si>
   <si>
@@ -183,24 +183,24 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
+    <t>heroin; fentanyl; xylazine; crack</t>
   </si>
   <si>
     <t>heroin; fentanyl</t>
   </si>
   <si>
-    <t>heroin; fentanyl; xylazine; crack</t>
+    <t>cocaine; crack</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>cocaine; crack</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -237,27 +237,27 @@
     <t>light blue</t>
   </si>
   <si>
+    <t>light purple</t>
+  </si>
+  <si>
+    <t>tan; white</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
     <t>light tan</t>
   </si>
   <si>
+    <t>white; purple</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
     <t>pink; blue; green</t>
   </si>
   <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>tan; white</t>
-  </si>
-  <si>
-    <t>white; purple</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>light purple</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -267,24 +267,24 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; dull</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>powder; dull</t>
+    <t>powder; shiny</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
   </si>
   <si>
     <t>powder; chalky</t>
   </si>
   <si>
-    <t>powder; shiny</t>
-  </si>
-  <si>
     <t>powder; flaky; dull</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -300,46 +300,46 @@
     <t>sensations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unpleasant; sedating</t>
+  </si>
+  <si>
     <t>sedating</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unpleasant; sedating</t>
-  </si>
-  <si>
     <t>normal; stronger; sedating</t>
   </si>
   <si>
     <t>more down; sedating; unusual taste</t>
   </si>
   <si>
+    <t>weird; stronger; sedating; unusual taste</t>
+  </si>
+  <si>
+    <t>nice; long; more down; sedating</t>
+  </si>
+  <si>
     <t>weird; long; more up; unpleasant</t>
   </si>
   <si>
+    <t>nice; stronger; sedating</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>weird; stronger; sedating; unusual taste</t>
+    <t>stronger; more down; sedating</t>
+  </si>
+  <si>
+    <t>weird; sedating; unusual taste</t>
   </si>
   <si>
     <t>normal; more up; long</t>
-  </si>
-  <si>
-    <t>nice; stronger; sedating</t>
-  </si>
-  <si>
-    <t>stronger; more down; sedating</t>
-  </si>
-  <si>
-    <t>weird; sedating; unusual taste</t>
-  </si>
-  <si>
-    <t>nice; long; more down; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -629,7 +629,7 @@
         <v>92</v>
       </c>
       <c r="AA1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB1" t="s">
         <v>93</v>
@@ -842,7 +842,9 @@
       <c r="AC2" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="2"/>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -853,15 +855,17 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO2" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2">
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -871,13 +875,13 @@
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
         <v>1</v>
@@ -895,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="BD2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="2">
         <v>0</v>
@@ -975,22 +979,22 @@
         <v>56</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1002,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
@@ -1012,12 +1016,14 @@
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC3" t="s">
         <v>96</v>
       </c>
@@ -1027,7 +1033,9 @@
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
@@ -1044,26 +1052,26 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45415</v>
+        <v>45420</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1075,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" s="2">
         <v>0</v>
@@ -1204,9 +1212,7 @@
       <c r="AC4" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -1217,17 +1223,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1237,13 +1241,13 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
@@ -1261,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
         <v>0</v>
@@ -1341,22 +1345,22 @@
         <v>57</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1368,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1378,14 +1382,12 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>98</v>
       </c>
@@ -1395,9 +1397,7 @@
       </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
@@ -1414,26 +1414,26 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="2">
         <v>0</v>
@@ -1587,7 +1587,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1889,25 +1889,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1919,42 +1919,36 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
         <v>120</v>
@@ -1967,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -1977,31 +1971,31 @@
       </c>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>0</v>
@@ -2065,30 +2059,32 @@
       <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>45405</v>
+      </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -2097,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -2112,19 +2108,25 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -2134,40 +2136,42 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45310</v>
+        <v>45420</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="2">
         <v>0</v>
@@ -2185,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2229,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -2241,19 +2245,19 @@
         <v>43</v>
       </c>
       <c r="F10" s="1">
-        <v>45413</v>
+        <v>45294</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2262,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -2283,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2298,19 +2302,25 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
       <c r="AC10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>1</v>
+      </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
@@ -2325,20 +2335,20 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45422</v>
+        <v>45310</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2365,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
         <v>0</v>
@@ -2412,7 +2422,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -2424,19 +2434,19 @@
         <v>43</v>
       </c>
       <c r="F11" s="1">
-        <v>45385</v>
+        <v>45294</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2466,28 +2476,24 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2508,35 +2514,35 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45428</v>
+        <v>45316</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="2">
         <v>0</v>
@@ -2607,7 +2613,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="1">
-        <v>45385</v>
+        <v>45357</v>
       </c>
       <c r="G12" t="s">
         <v>48</v>
@@ -2616,28 +2622,28 @@
         <v>48</v>
       </c>
       <c r="I12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2655,77 +2661,75 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45428</v>
+        <v>45372</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2">
         <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>0</v>
@@ -2778,7 +2782,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -2790,7 +2794,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="1">
-        <v>45405</v>
+        <v>45294</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2802,16 +2806,16 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -2820,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -2832,38 +2836,42 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
         <v>103</v>
       </c>
-      <c r="AD13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2">
         <v>1</v>
       </c>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
+      <c r="AJ13" s="2">
+        <v>1</v>
+      </c>
       <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
+      <c r="AL13" s="2">
+        <v>1</v>
+      </c>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
         <v>120</v>
@@ -2876,50 +2884,50 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45420</v>
+        <v>45309</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2">
         <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -2963,7 +2971,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -2975,16 +2983,16 @@
         <v>43</v>
       </c>
       <c r="F14" s="1">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>55</v>
@@ -3017,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3034,9 +3042,11 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD14" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -3047,17 +3057,15 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45310</v>
+        <v>45345</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3079,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
         <v>0</v>
@@ -3156,31 +3164,31 @@
         <v>43</v>
       </c>
       <c r="F15" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3189,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3198,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3215,12 +3223,12 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3230,45 +3238,45 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AO15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45371</v>
+        <v>45420</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
       </c>
       <c r="BA15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -3277,13 +3285,13 @@
         <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
         <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3327,7 +3335,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -3339,7 +3347,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="1">
-        <v>45328</v>
+        <v>45294</v>
       </c>
       <c r="G16" t="s">
         <v>47</v>
@@ -3351,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3360,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3381,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -3397,19 +3405,21 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
+      <c r="AI16" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
@@ -3425,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45372</v>
+        <v>45310</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -3435,10 +3445,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -3447,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="2">
         <v>0</v>
@@ -3512,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -3524,25 +3534,25 @@
         <v>43</v>
       </c>
       <c r="F17" s="1">
-        <v>45295</v>
+        <v>45328</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3566,24 +3576,30 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>-1</v>
+      </c>
       <c r="AC17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD17" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -3594,17 +3610,17 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AO17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45310</v>
+        <v>45372</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -3614,7 +3630,7 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW17" s="2">
         <v>3</v>
@@ -3626,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="2">
         <v>0</v>
@@ -3644,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="2">
         <v>0</v>
@@ -3691,7 +3707,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -3703,19 +3719,19 @@
         <v>43</v>
       </c>
       <c r="F18" s="1">
-        <v>45405</v>
+        <v>45385</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -3745,51 +3761,49 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2">
+        <v>1</v>
+      </c>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45420</v>
+        <v>45428</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -3799,7 +3813,7 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AW18" s="2">
         <v>6</v>
@@ -3820,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
         <v>0</v>
@@ -3876,7 +3890,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -3888,16 +3902,16 @@
         <v>43</v>
       </c>
       <c r="F19" s="1">
-        <v>45294</v>
+        <v>45413</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>55</v>
@@ -3930,24 +3944,28 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -3968,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45316</v>
+        <v>45422</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -3978,10 +3996,10 @@
       </c>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AW19" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -3990,13 +4008,13 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>1</v>
       </c>
       <c r="BB19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="2">
         <v>0</v>
@@ -4005,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
         <v>1</v>
@@ -4055,7 +4073,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -4076,10 +4094,10 @@
         <v>47</v>
       </c>
       <c r="I20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4088,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4109,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4124,22 +4142,16 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
@@ -4161,14 +4173,14 @@
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -4177,10 +4189,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2">
         <v>0</v>
@@ -4254,31 +4266,31 @@
         <v>43</v>
       </c>
       <c r="F21" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -4287,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -4296,32 +4308,32 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
+      <c r="AH21" s="2">
+        <v>1</v>
+      </c>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
@@ -4338,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45369</v>
+        <v>45420</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -4348,37 +4360,37 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
         <v>0</v>
@@ -4425,7 +4437,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -4440,16 +4452,16 @@
         <v>45405</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -4458,10 +4470,10 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -4470,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -4479,32 +4491,34 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AD22" s="2">
         <v>1</v>
       </c>
-      <c r="AE22" s="2"/>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
@@ -4521,20 +4535,20 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45420</v>
+        <v>45418</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX22" s="2">
         <v>1</v>
@@ -4552,19 +4566,19 @@
         <v>0</v>
       </c>
       <c r="BC22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -4620,28 +4634,28 @@
         <v>43</v>
       </c>
       <c r="F23" s="1">
-        <v>45357</v>
+        <v>45405</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
         <v>1</v>
@@ -4650,10 +4664,10 @@
         <v>0</v>
       </c>
       <c 